--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
         <v>1.51</v>
@@ -856,40 +856,40 @@
         <v>1.69</v>
       </c>
       <c r="X3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>24</v>
       </c>
-      <c r="Y3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>28</v>
-      </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>1.62</v>
@@ -1384,7 +1384,7 @@
         <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
@@ -1510,7 +1510,7 @@
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G12" t="n">
         <v>5.3</v>
@@ -2029,10 +2029,10 @@
         <v>1.88</v>
       </c>
       <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
         <v>4.8</v>
@@ -2185,7 +2185,7 @@
         <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
@@ -2194,7 +2194,7 @@
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
         <v>1.92</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
         <v>2.8</v>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
         <v>8.4</v>
@@ -2572,7 +2572,7 @@
         <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
         <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H19" t="n">
         <v>2.92</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
@@ -3379,7 +3379,7 @@
         <v>2.62</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.55</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
@@ -3562,7 +3562,7 @@
         <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
@@ -3586,13 +3586,13 @@
         <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AK23" t="n">
         <v>140</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.65</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q24" t="n">
         <v>1.94</v>
@@ -3781,13 +3781,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
         <v>1.71</v>
@@ -3913,7 +3913,7 @@
         <v>1.86</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
         <v>4.9</v>
@@ -3931,13 +3931,13 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
         <v>1.87</v>
@@ -4075,16 +4075,16 @@
         <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U27" t="n">
         <v>2.38</v>
@@ -4105,7 +4105,7 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
@@ -4117,7 +4117,7 @@
         <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
         <v>20</v>
@@ -4207,7 +4207,7 @@
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q28" t="n">
         <v>1.54</v>
@@ -4270,7 +4270,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4279,7 +4279,7 @@
         <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO28" t="n">
         <v>300</v>
@@ -4477,7 +4477,7 @@
         <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q30" t="n">
         <v>2.32</v>
@@ -4489,7 +4489,7 @@
         <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U30" t="n">
         <v>1.9</v>
@@ -4726,10 +4726,10 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
         <v>6.8</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.32</v>
@@ -4885,7 +4885,7 @@
         <v>1.89</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
         <v>2.46</v>
@@ -5092,7 +5092,7 @@
         <v>60</v>
       </c>
       <c r="AO34" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -5155,19 +5155,19 @@
         <v>2.28</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
         <v>2.88</v>
       </c>
       <c r="T35" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>36</v>
       </c>
       <c r="AA35" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB35" t="n">
         <v>11</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
         <v>48</v>
       </c>
       <c r="AJ35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK35" t="n">
         <v>16.5</v>
@@ -5224,7 +5224,7 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO35" t="n">
         <v>42</v>
@@ -5266,7 +5266,7 @@
         <v>4.8</v>
       </c>
       <c r="I36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J36" t="n">
         <v>4.2</v>
@@ -5290,7 +5290,7 @@
         <v>2.34</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q37" t="n">
         <v>1.01</v>
@@ -5668,7 +5668,7 @@
         <v>8.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I39" t="n">
         <v>1.52</v>
@@ -5677,7 +5677,7 @@
         <v>4.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5728,10 +5728,10 @@
         <v>13.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
         <v>10.5</v>
@@ -5752,7 +5752,7 @@
         <v>46</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AK39" t="n">
         <v>990</v>
@@ -5767,7 +5767,7 @@
         <v>310</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -835,7 +835,7 @@
         <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
         <v>1.55</v>
@@ -856,7 +856,7 @@
         <v>1.69</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
         <v>16.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
         <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1429,10 +1429,10 @@
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
@@ -1510,7 +1510,7 @@
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G10" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J10" t="n">
         <v>4.8</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>7</v>
@@ -2197,7 +2197,7 @@
         <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
         <v>2.8</v>
@@ -2296,13 +2296,13 @@
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
         <v>3.85</v>
@@ -2455,7 +2455,7 @@
         <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I16" t="n">
         <v>9.800000000000001</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2590,7 +2590,7 @@
         <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
@@ -2857,7 +2857,7 @@
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
         <v>2.28</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G19" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
         <v>2.92</v>
@@ -2974,10 +2974,10 @@
         <v>3.15</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.34</v>
@@ -2995,7 +2995,7 @@
         <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="I23" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="J23" t="n">
         <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,28 +3526,28 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="Q23" t="n">
         <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
         <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3571,13 +3571,13 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>1000</v>
@@ -3586,28 +3586,28 @@
         <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AK23" t="n">
         <v>140</v>
       </c>
       <c r="AL23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="24">
@@ -3844,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>150</v>
@@ -4114,7 +4114,7 @@
         <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>28</v>
@@ -4135,7 +4135,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
         <v>40</v>
@@ -4207,7 +4207,7 @@
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q28" t="n">
         <v>1.54</v>
@@ -4216,7 +4216,7 @@
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
         <v>2.14</v>
@@ -4255,7 +4255,7 @@
         <v>190</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
         <v>11.5</v>
@@ -4474,7 +4474,7 @@
         <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
         <v>1.72</v>
@@ -4492,7 +4492,7 @@
         <v>2.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>1.83</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I31" t="n">
         <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>1000</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
         <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
         <v>6.8</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I33" t="n">
         <v>8.4</v>
@@ -5011,7 +5011,7 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O34" t="n">
         <v>1.47</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G35" t="n">
         <v>1.93</v>
@@ -5161,10 +5161,10 @@
         <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U35" t="n">
         <v>2.36</v>
@@ -5218,7 +5218,7 @@
         <v>16.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
         <v>75</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="G36" t="n">
         <v>1.81</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G38" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
         <v>2.38</v>
@@ -838,7 +838,7 @@
         <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
         <v>2.6</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="G4" t="n">
         <v>2.78</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
         <v>4.3</v>
@@ -952,13 +952,13 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
         <v>1.66</v>
@@ -973,76 +973,76 @@
         <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
         <v>2.38</v>
@@ -1084,10 +1084,10 @@
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
         <v>1.87</v>
@@ -1216,7 +1216,7 @@
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1345,10 +1345,10 @@
         <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I7" t="n">
         <v>1.63</v>
@@ -1384,7 +1384,7 @@
         <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -2032,7 +2032,7 @@
         <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
         <v>1.74</v>
@@ -2188,13 +2188,13 @@
         <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
         <v>1.93</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.34</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
         <v>1.55</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G23" t="n">
         <v>9.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="I23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="J23" t="n">
         <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="n">
         <v>2.48</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I24" t="n">
         <v>5.3</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K25" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G26" t="n">
         <v>1.86</v>
@@ -3922,7 +3922,7 @@
         <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>1.26</v>
       </c>
       <c r="H28" t="n">
+        <v>13</v>
+      </c>
+      <c r="I28" t="n">
         <v>13.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
       </c>
       <c r="J28" t="n">
         <v>7.4</v>
@@ -4210,7 +4210,7 @@
         <v>2.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R28" t="n">
         <v>1.7</v>
@@ -4246,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="AC28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
         <v>48</v>
@@ -4255,7 +4255,7 @@
         <v>190</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG28" t="n">
         <v>11.5</v>
@@ -4267,16 +4267,16 @@
         <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="n">
         <v>3.95</v>
@@ -4336,13 +4336,13 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q29" t="n">
         <v>1.74</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
         <v>16.5</v>
@@ -4471,7 +4471,7 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -4480,7 +4480,7 @@
         <v>1.72</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R30" t="n">
         <v>1.27</v>
@@ -4489,10 +4489,10 @@
         <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4993,16 +4993,16 @@
         <v>3.35</v>
       </c>
       <c r="H34" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.62</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -5161,7 +5161,7 @@
         <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T35" t="n">
         <v>1.69</v>
@@ -5203,10 +5203,10 @@
         <v>12.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI35" t="n">
         <v>48</v>
@@ -5215,7 +5215,7 @@
         <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL35" t="n">
         <v>29</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="G36" t="n">
         <v>1.81</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q36" t="n">
         <v>1.52</v>
@@ -5674,10 +5674,10 @@
         <v>1.52</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z39" t="n">
         <v>8</v>
@@ -5731,7 +5731,7 @@
         <v>25</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -805,7 +805,7 @@
         <v>2.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
         <v>2.92</v>
@@ -853,7 +853,7 @@
         <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
@@ -877,7 +877,7 @@
         <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.66</v>
+        <v>2.74</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -979,10 +979,10 @@
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
@@ -1075,7 +1075,7 @@
         <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.38</v>
@@ -1084,13 +1084,13 @@
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1120,22 +1120,22 @@
         <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
         <v>11.5</v>
@@ -1144,40 +1144,40 @@
         <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN5" t="n">
         <v>60</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>70</v>
-      </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
         <v>3.85</v>
@@ -1243,76 +1243,76 @@
         <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1345,22 +1345,22 @@
         <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>1.61</v>
       </c>
       <c r="I7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1372,28 +1372,28 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" t="n">
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
         <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1402,40 +1402,40 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
         <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
         <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
         <v>65</v>
@@ -1447,7 +1447,7 @@
         <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
@@ -1495,94 +1495,94 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
@@ -2179,13 +2179,13 @@
         <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
         <v>1.28</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2215,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
@@ -2830,7 +2830,7 @@
         <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
@@ -2842,7 +2842,7 @@
         <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
         <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I19" t="n">
         <v>3.15</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>1.18</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
         <v>2.62</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H23" t="n">
         <v>1.39</v>
       </c>
       <c r="I23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
         <v>5.8</v>
@@ -3526,28 +3526,28 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
         <v>11</v>
@@ -3589,25 +3589,25 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AK23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM23" t="n">
         <v>140</v>
       </c>
-      <c r="AL23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>130</v>
-      </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
         <v>1.85</v>
@@ -3646,10 +3646,10 @@
         <v>4.9</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>3.9</v>
@@ -3670,7 +3670,7 @@
         <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>5.2</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         <v>30</v>
       </c>
       <c r="Z25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>350</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
         <v>11</v>
@@ -3853,7 +3853,7 @@
         <v>8.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -3865,7 +3865,7 @@
         <v>11.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>36</v>
@@ -3988,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>20</v>
@@ -4123,10 +4123,10 @@
         <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>38</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J28" t="n">
         <v>7.4</v>
@@ -4216,7 +4216,7 @@
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T28" t="n">
         <v>2.14</v>
@@ -4246,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD28" t="n">
         <v>48</v>
@@ -4255,7 +4255,7 @@
         <v>190</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
         <v>11.5</v>
@@ -4267,19 +4267,19 @@
         <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK28" t="n">
         <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
         <v>180</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>300</v>
@@ -4348,7 +4348,7 @@
         <v>1.74</v>
       </c>
       <c r="R29" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S29" t="n">
         <v>2.84</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
         <v>2.08</v>
@@ -4459,10 +4459,10 @@
         <v>2.1</v>
       </c>
       <c r="J30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
@@ -5011,7 +5011,7 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
         <v>1.47</v>
@@ -5032,7 +5032,7 @@
         <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5044,16 +5044,16 @@
         <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z34" t="n">
         <v>15.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC34" t="n">
         <v>7</v>
@@ -5062,13 +5062,13 @@
         <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="n">
         <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
@@ -5077,13 +5077,13 @@
         <v>60</v>
       </c>
       <c r="AJ34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK34" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
         <v>170</v>
@@ -5092,7 +5092,7 @@
         <v>60</v>
       </c>
       <c r="AO34" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -5131,7 +5131,7 @@
         <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -5215,7 +5215,7 @@
         <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL35" t="n">
         <v>29</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="G36" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>4.8</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G37" t="n">
         <v>1.94</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
         <v>4.8</v>
@@ -5407,7 +5407,7 @@
         <v>3.75</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
         <v>1000</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="O38" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,13 +805,13 @@
         <v>2.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -829,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
         <v>1.64</v>
@@ -859,55 +859,55 @@
         <v>25</v>
       </c>
       <c r="Y3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1090,7 @@
         <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1228,10 +1228,10 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1243,10 +1243,10 @@
         <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1261,7 +1261,7 @@
         <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
         <v>21</v>
@@ -1282,7 +1282,7 @@
         <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G7" t="n">
         <v>5.9</v>
       </c>
-      <c r="G7" t="n">
-        <v>6</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1378,10 +1378,10 @@
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
@@ -1390,13 +1390,13 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1405,7 +1405,7 @@
         <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB7" t="n">
         <v>25</v>
@@ -1417,7 +1417,7 @@
         <v>9.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>50</v>
@@ -1480,7 +1480,7 @@
         <v>2.98</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
         <v>2.54</v>
@@ -1513,16 +1513,16 @@
         <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>1.62</v>
@@ -1531,7 +1531,7 @@
         <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1573,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1582,13 +1582,13 @@
         <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.17</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2</v>
+        <v>2.46</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,118 +1747,118 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
         <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>1.17</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>1.23</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="J11" t="n">
-        <v>2.48</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.36</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>1.87</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.55</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
         <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.51</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.98</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.6</v>
       </c>
-      <c r="I16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
         <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>5.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>1.87</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>1.88</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.86</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.5</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3100,109 +3100,109 @@
         <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="H21" t="n">
         <v>16</v>
@@ -3250,100 +3250,100 @@
         <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="H22" t="n">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.62</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.4</v>
+        <v>1.87</v>
       </c>
       <c r="G23" t="n">
-        <v>9.6</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.39</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>1.43</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>5.4</v>
+        <v>2.24</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="T23" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
         <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
         <v>24</v>
       </c>
       <c r="AI23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>34</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>330</v>
-      </c>
       <c r="AK23" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,97 +3763,97 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Forfar</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>1.44</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>8.800000000000001</v>
+        <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>9.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>5.2</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>4.9</v>
+        <v>1.71</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AC25" t="n">
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -3862,19 +3862,19 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,118 +3898,118 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>2.12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="n">
         <v>22</v>
       </c>
-      <c r="Z26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12</v>
-      </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.78</v>
+        <v>8.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>9.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="I27" t="n">
-        <v>2.76</v>
+        <v>1.43</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
         <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC27" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AK27" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="G28" t="n">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>13.5</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>6.2</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>2.76</v>
+        <v>1.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.4</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="J29" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>1.84</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>2.32</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="R29" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>1.84</v>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>1.86</v>
       </c>
       <c r="H30" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="T30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.06</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF30" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>30</v>
-      </c>
       <c r="AG30" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>95</v>
+        <v>12.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="I31" t="n">
         <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>18</v>
       </c>
       <c r="H33" t="n">
-        <v>7.4</v>
+        <v>1.43</v>
       </c>
       <c r="I33" t="n">
-        <v>8.4</v>
+        <v>1.62</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="P33" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>2.54</v>
+        <v>1.47</v>
       </c>
       <c r="I34" t="n">
-        <v>2.58</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.11</v>
       </c>
-      <c r="N34" t="n">
-        <v>3</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>2.86</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="S35" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="T35" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.49</v>
+        <v>2.38</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X36" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
         <v>8.4</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="G37" t="n">
-        <v>1.94</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>1.45</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G38" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P38" t="n">
-        <v>1.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.41</v>
+        <v>1.87</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,125 +5648,2150 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.8</v>
       </c>
-      <c r="G39" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>7.2</v>
-      </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AB39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AF39" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AH39" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
         <v>46</v>
       </c>
       <c r="AJ39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>890</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Raith</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Dunfermline</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Arbroath</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Airdrieonians</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Ayr</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ross Co</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>St Johnstone</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Kabylie</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ASO Chlef</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Turkish 1 Lig</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Erokspor A.S</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13:15:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Al-Ittihad</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Al-Shabab (KSA)</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Calcio Avellino SSD</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>410</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AK54" t="n">
         <v>990</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AL54" t="n">
         <v>160</v>
       </c>
-      <c r="AM39" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN39" t="n">
+      <c r="AM54" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN54" t="n">
         <v>310</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AO54" t="n">
         <v>8.6</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -1348,10 +1348,10 @@
         <v>5.9</v>
       </c>
       <c r="H7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.62</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.63</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1372,10 +1372,10 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
         <v>1.57</v>
@@ -1390,7 +1390,7 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1555,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1630,34 +1630,34 @@
         <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.35</v>
@@ -1789,16 +1789,16 @@
         <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
         <v>980</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,40 +1906,40 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="R11" t="n">
         <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>2.36</v>
+        <v>3.95</v>
       </c>
       <c r="X11" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2023,7 +2023,7 @@
         <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
         <v>3.15</v>
@@ -2062,7 +2062,7 @@
         <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
         <v>1.47</v>
@@ -2071,58 +2071,58 @@
         <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
@@ -2173,10 +2173,10 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2215,19 +2215,19 @@
         <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
@@ -2308,7 +2308,7 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>3.9</v>
@@ -2323,10 +2323,10 @@
         <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
         <v>2.02</v>
@@ -2341,10 +2341,10 @@
         <v>2.88</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="Z14" t="n">
         <v>80</v>
@@ -2359,7 +2359,7 @@
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AE14" t="n">
         <v>180</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI14" t="n">
         <v>160</v>
@@ -2452,7 +2452,7 @@
         <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
         <v>2.3</v>
@@ -2464,7 +2464,7 @@
         <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
         <v>1.65</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2593,7 +2593,7 @@
         <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
         <v>3.75</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
         <v>1.87</v>
       </c>
       <c r="I18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -3016,10 +3016,10 @@
         <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
@@ -3028,13 +3028,13 @@
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AE19" t="n">
         <v>50</v>
@@ -3043,10 +3043,10 @@
         <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3112,7 +3112,7 @@
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,7 +3121,7 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
@@ -3139,10 +3139,10 @@
         <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
         <v>1.21</v>
@@ -3238,7 +3238,7 @@
         <v>1.15</v>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" t="n">
         <v>1000</v>
@@ -3250,7 +3250,7 @@
         <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3265,31 +3265,31 @@
         <v>3.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3304,7 +3304,7 @@
         <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3385,22 +3385,22 @@
         <v>5.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R22" t="n">
         <v>1.39</v>
@@ -3409,10 +3409,10 @@
         <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V22" t="n">
         <v>1.13</v>
@@ -3421,55 +3421,55 @@
         <v>2.58</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3514,7 +3514,7 @@
         <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
@@ -3538,16 +3538,16 @@
         <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
@@ -3604,10 +3604,10 @@
         <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3646,7 +3646,7 @@
         <v>2.22</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
         <v>3.2</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
@@ -3679,13 +3679,13 @@
         <v>2.26</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
         <v>1.44</v>
@@ -3781,7 +3781,7 @@
         <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>2.92</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.71</v>
+        <v>2.84</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3808,16 +3808,16 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="Z25" t="n">
         <v>29</v>
@@ -3838,13 +3838,13 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AC25" t="n">
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AE25" t="n">
         <v>50</v>
@@ -3853,10 +3853,10 @@
         <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3919,10 +3919,10 @@
         <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="O26" t="n">
         <v>1.23</v>
@@ -3940,31 +3940,31 @@
         <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
         <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
         <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z26" t="n">
         <v>44</v>
@@ -3973,7 +3973,7 @@
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
         <v>13.5</v>
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>16</v>
@@ -3994,7 +3994,7 @@
         <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
         <v>38</v>
@@ -4003,16 +4003,16 @@
         <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -4048,22 +4048,22 @@
         <v>9.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="J27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K27" t="n">
         <v>5.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
         <v>5.4</v>
@@ -4090,64 +4090,64 @@
         <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W27" t="n">
         <v>1.11</v>
       </c>
       <c r="X27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG27" t="n">
         <v>32</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>34</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ27" t="n">
         <v>330</v>
       </c>
       <c r="AK27" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="n">
         <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="28">
@@ -4189,7 +4189,7 @@
         <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4198,10 +4198,10 @@
         <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.32</v>
@@ -4213,16 +4213,16 @@
         <v>1.94</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.23</v>
@@ -4231,58 +4231,58 @@
         <v>2.16</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -4330,13 +4330,13 @@
         <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.84</v>
+        <v>2.46</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
@@ -4345,7 +4345,7 @@
         <v>1.84</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
         <v>1.28</v>
@@ -4354,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
         <v>1.61</v>
@@ -4366,58 +4366,58 @@
         <v>1.43</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -4588,16 +4588,16 @@
         <v>2.48</v>
       </c>
       <c r="H31" t="n">
-        <v>1.68</v>
+        <v>2.94</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>1.67</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,31 +4606,31 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="O31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.27</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.01</v>
       </c>
       <c r="W31" t="n">
         <v>1.67</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>1.97</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
         <v>1.92</v>
       </c>
       <c r="X32" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="Z32" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC32" t="n">
         <v>12</v>
       </c>
-      <c r="AC32" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AE32" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AH32" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK32" t="n">
         <v>22</v>
       </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>25</v>
-      </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4858,7 +4858,7 @@
         <v>18</v>
       </c>
       <c r="H33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I33" t="n">
         <v>1.62</v>
@@ -4876,28 +4876,28 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S33" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V33" t="n">
         <v>2.62</v>
@@ -4906,28 +4906,28 @@
         <v>1.1</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF33" t="n">
         <v>1000</v>
@@ -4990,13 +4990,13 @@
         <v>5.6</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5011,10 +5011,10 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.77</v>
+        <v>2.64</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
         <v>1.77</v>
@@ -5029,10 +5029,10 @@
         <v>2.84</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
         <v>2.28</v>
@@ -5041,37 +5041,37 @@
         <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
         <v>2.86</v>
       </c>
       <c r="H35" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="I35" t="n">
         <v>3.4</v>
@@ -5137,7 +5137,7 @@
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5149,25 +5149,25 @@
         <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q35" t="n">
         <v>1.81</v>
       </c>
       <c r="R35" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V35" t="n">
         <v>1.41</v>
@@ -5176,37 +5176,37 @@
         <v>1.53</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
@@ -5275,7 +5275,7 @@
         <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5293,7 +5293,7 @@
         <v>1.74</v>
       </c>
       <c r="R36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S36" t="n">
         <v>2.84</v>
@@ -5305,7 +5305,7 @@
         <v>2.52</v>
       </c>
       <c r="V36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W36" t="n">
         <v>1.71</v>
@@ -5392,58 +5392,58 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.28</v>
       </c>
-      <c r="G37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.45</v>
-      </c>
       <c r="I37" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>1000</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="R37" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>1.96</v>
+        <v>2.52</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W37" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.78</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.76</v>
       </c>
       <c r="J38" t="n">
         <v>3.55</v>
@@ -5545,7 +5545,7 @@
         <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5560,7 +5560,7 @@
         <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R38" t="n">
         <v>1.44</v>
@@ -5578,7 +5578,7 @@
         <v>1.56</v>
       </c>
       <c r="W38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X38" t="n">
         <v>15.5</v>
@@ -5680,7 +5680,7 @@
         <v>3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5800,7 +5800,7 @@
         <v>1.42</v>
       </c>
       <c r="G40" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H40" t="n">
         <v>8.800000000000001</v>
@@ -5815,7 +5815,7 @@
         <v>5.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5824,7 +5824,7 @@
         <v>4.9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
         <v>2.32</v>
@@ -5839,19 +5839,19 @@
         <v>2.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V40" t="n">
         <v>1.12</v>
       </c>
       <c r="W40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="n">
         <v>30</v>
@@ -5860,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="AA40" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="AB40" t="n">
         <v>9.199999999999999</v>
@@ -5884,7 +5884,7 @@
         <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ40" t="n">
         <v>11.5</v>
@@ -5950,7 +5950,7 @@
         <v>7.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
@@ -5959,7 +5959,7 @@
         <v>6.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
         <v>2.78</v>
@@ -5980,10 +5980,10 @@
         <v>1.85</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X41" t="n">
         <v>32</v>
@@ -5995,7 +5995,7 @@
         <v>130</v>
       </c>
       <c r="AA41" t="n">
-        <v>890</v>
+        <v>600</v>
       </c>
       <c r="AB41" t="n">
         <v>11</v>
@@ -6004,7 +6004,7 @@
         <v>16.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE41" t="n">
         <v>190</v>
@@ -6034,7 +6034,7 @@
         <v>170</v>
       </c>
       <c r="AN41" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO41" t="n">
         <v>220</v>
@@ -6070,7 +6070,7 @@
         <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H42" t="n">
         <v>3.95</v>
@@ -6091,10 +6091,10 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
         <v>1.64</v>
@@ -6109,67 +6109,67 @@
         <v>3.85</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V42" t="n">
         <v>1.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6214,7 +6214,7 @@
         <v>5.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -6223,13 +6223,13 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>1.8</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P43" t="n">
         <v>1.8</v>
@@ -6238,76 +6238,76 @@
         <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S43" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V43" t="n">
         <v>1.23</v>
       </c>
       <c r="W43" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>23</v>
       </c>
-      <c r="Z43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE43" t="n">
+      <c r="AK43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO43" t="n">
         <v>100</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6340,7 +6340,7 @@
         <v>3.1</v>
       </c>
       <c r="G44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>2.4</v>
@@ -6361,10 +6361,10 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
         <v>1.68</v>
@@ -6379,10 +6379,10 @@
         <v>3.7</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V44" t="n">
         <v>1.66</v>
@@ -6442,7 +6442,7 @@
         <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -6496,16 +6496,16 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P45" t="n">
         <v>1.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R45" t="n">
         <v>1.3</v>
@@ -6514,10 +6514,10 @@
         <v>2.78</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
         <v>2.22</v>
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="G46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
@@ -6742,112 +6742,112 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="G47" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K47" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -6895,10 +6895,10 @@
         <v>4.6</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
         <v>3.6</v>
@@ -6913,76 +6913,76 @@
         <v>1.95</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49">
@@ -7030,7 +7030,7 @@
         <v>3.25</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M49" t="n">
         <v>1.11</v>
@@ -7048,7 +7048,7 @@
         <v>2.46</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
         <v>4.8</v>
@@ -7057,64 +7057,64 @@
         <v>2.02</v>
       </c>
       <c r="U49" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X49" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y49" t="n">
         <v>8.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC49" t="n">
         <v>7</v>
       </c>
       <c r="AD49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE49" t="n">
         <v>34</v>
       </c>
       <c r="AF49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG49" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
         <v>21</v>
       </c>
       <c r="AI49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>60</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>70</v>
-      </c>
       <c r="AK49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL49" t="n">
         <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO49" t="n">
         <v>34</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G50" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H50" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I50" t="n">
         <v>4.4</v>
@@ -7204,13 +7204,13 @@
         <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z50" t="n">
         <v>36</v>
       </c>
       <c r="AA50" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB50" t="n">
         <v>11</v>
@@ -7222,7 +7222,7 @@
         <v>16</v>
       </c>
       <c r="AE50" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF50" t="n">
         <v>12.5</v>
@@ -7246,7 +7246,7 @@
         <v>29</v>
       </c>
       <c r="AM50" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="n">
         <v>11</v>
@@ -7696,7 +7696,7 @@
         <v>1.5</v>
       </c>
       <c r="I54" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J54" t="n">
         <v>4.5</v>
@@ -7729,7 +7729,7 @@
         <v>3.7</v>
       </c>
       <c r="T54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U54" t="n">
         <v>1.78</v>
@@ -7777,7 +7777,7 @@
         <v>46</v>
       </c>
       <c r="AJ54" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AK54" t="n">
         <v>990</v>
@@ -7792,7 +7792,7 @@
         <v>310</v>
       </c>
       <c r="AO54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +940,7 @@
         <v>1.89</v>
       </c>
       <c r="G4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
         <v>2.84</v>
@@ -949,7 +949,7 @@
         <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1258,7 +1258,7 @@
         <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>1.61</v>
@@ -1405,7 +1405,7 @@
         <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
         <v>25</v>
@@ -1519,7 +1519,7 @@
         <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2.12</v>
@@ -1885,10 +1885,10 @@
         <v>1.16</v>
       </c>
       <c r="G11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="I11" t="n">
         <v>980</v>
@@ -2023,7 +2023,7 @@
         <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>3.15</v>
@@ -2500,10 +2500,10 @@
         <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>32</v>
@@ -2560,7 +2560,7 @@
         <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
@@ -2569,10 +2569,10 @@
         <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,10 +2581,10 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
         <v>1.67</v>
@@ -2608,7 +2608,7 @@
         <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2725,7 +2725,7 @@
         <v>1.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
@@ -2767,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
         <v>11</v>
@@ -2785,13 +2785,13 @@
         <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
         <v>18.5</v>
@@ -2833,10 +2833,10 @@
         <v>5.4</v>
       </c>
       <c r="H18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.87</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.89</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2875,7 +2875,7 @@
         <v>1.79</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W18" t="n">
         <v>1.23</v>
@@ -2908,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
@@ -3235,7 +3235,7 @@
         <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H21" t="n">
         <v>21</v>
@@ -3244,7 +3244,7 @@
         <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
         <v>1000</v>
@@ -3283,7 +3283,7 @@
         <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
         <v>1.56</v>
@@ -3406,7 +3406,7 @@
         <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
         <v>1.54</v>
@@ -3946,7 +3946,7 @@
         <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
         <v>1.43</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I27" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J27" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K27" t="n">
         <v>5.8</v>
@@ -4075,7 +4075,7 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R27" t="n">
         <v>1.6</v>
@@ -4090,10 +4090,10 @@
         <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="W27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X27" t="n">
         <v>23</v>
@@ -4102,16 +4102,16 @@
         <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA27" t="n">
         <v>12.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD27" t="n">
         <v>11.5</v>
@@ -4120,10 +4120,10 @@
         <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
@@ -4132,19 +4132,19 @@
         <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AK27" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AL27" t="n">
         <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AO27" t="n">
         <v>5.9</v>
@@ -4201,13 +4201,13 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q28" t="n">
         <v>1.94</v>
@@ -4216,10 +4216,10 @@
         <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4234,7 +4234,7 @@
         <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
         <v>38</v>
@@ -4243,7 +4243,7 @@
         <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
         <v>8.6</v>
@@ -4516,7 +4516,7 @@
         <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
         <v>19.5</v>
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.6</v>
+        <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>9.800000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="H34" t="n">
-        <v>1.49</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>1.77</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,85 +5011,85 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="R34" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="V34" t="n">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="W34" t="n">
-        <v>1.11</v>
+        <v>1.79</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AA34" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AD34" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG34" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R36" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="W36" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="H37" t="n">
-        <v>2.28</v>
+        <v>13.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="V37" t="n">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="W37" t="n">
-        <v>1.58</v>
+        <v>4.7</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
@@ -5530,7 +5530,7 @@
         <v>2.76</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H38" t="n">
         <v>2.74</v>
@@ -5689,13 +5689,13 @@
         <v>3.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P39" t="n">
         <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
         <v>1.27</v>
@@ -5704,7 +5704,7 @@
         <v>4.4</v>
       </c>
       <c r="T39" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U39" t="n">
         <v>1.9</v>
@@ -5719,7 +5719,7 @@
         <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z39" t="n">
         <v>11</v>
@@ -5803,7 +5803,7 @@
         <v>1.43</v>
       </c>
       <c r="H40" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I40" t="n">
         <v>9.199999999999999</v>
@@ -5827,7 +5827,7 @@
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q40" t="n">
         <v>1.72</v>
@@ -5860,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="AA40" t="n">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AB40" t="n">
         <v>9.199999999999999</v>
@@ -5899,7 +5899,7 @@
         <v>140</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO40" t="n">
         <v>160</v>
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.26</v>
+        <v>2.38</v>
       </c>
       <c r="G41" t="n">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
-        <v>13.5</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>14</v>
+        <v>3.25</v>
       </c>
       <c r="J41" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>7.6</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P41" t="n">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="R41" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="T41" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="U41" t="n">
-        <v>1.85</v>
+        <v>2.52</v>
       </c>
       <c r="V41" t="n">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="W41" t="n">
-        <v>4.7</v>
+        <v>1.71</v>
       </c>
       <c r="X41" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE41" t="n">
         <v>32</v>
       </c>
-      <c r="Y41" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>600</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC41" t="n">
+      <c r="AF41" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>8</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
       </c>
       <c r="AH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>32</v>
       </c>
-      <c r="AI41" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AK41" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM41" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.95</v>
+        <v>14</v>
       </c>
       <c r="AO41" t="n">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -6058,31 +6058,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.12</v>
+        <v>5.6</v>
       </c>
       <c r="G42" t="n">
-        <v>2.14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>1.49</v>
       </c>
       <c r="I42" t="n">
-        <v>4.4</v>
+        <v>1.77</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,85 +6091,85 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="R42" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
-        <v>3.85</v>
+        <v>2.84</v>
       </c>
       <c r="T42" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U42" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.32</v>
+        <v>2.28</v>
       </c>
       <c r="W42" t="n">
-        <v>1.87</v>
+        <v>1.11</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="Y42" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="Z42" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AC42" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AD42" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AE42" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AF42" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AH42" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AI42" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6214,7 +6214,7 @@
         <v>5.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -6358,13 +6358,13 @@
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P44" t="n">
         <v>1.68</v>
@@ -6373,10 +6373,10 @@
         <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S44" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T44" t="n">
         <v>1.73</v>
@@ -6391,58 +6391,58 @@
         <v>1.4</v>
       </c>
       <c r="X44" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD44" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA44" t="n">
+      <c r="AE44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI44" t="n">
         <v>55</v>
       </c>
-      <c r="AB44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AK44" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="n">
         <v>60</v>
       </c>
-      <c r="AL44" t="n">
-        <v>80</v>
-      </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO44" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -6793,7 +6793,7 @@
         <v>1.29</v>
       </c>
       <c r="W47" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X47" t="n">
         <v>26</v>
@@ -7111,7 +7111,7 @@
         <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN49" t="n">
         <v>55</v>
@@ -7165,7 +7165,7 @@
         <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7174,19 +7174,19 @@
         <v>4.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P50" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q50" t="n">
         <v>1.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S50" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T50" t="n">
         <v>1.69</v>
@@ -7195,31 +7195,31 @@
         <v>2.36</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y50" t="n">
         <v>19.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA50" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB50" t="n">
         <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE50" t="n">
         <v>46</v>
@@ -7240,19 +7240,19 @@
         <v>21</v>
       </c>
       <c r="AK50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM50" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
@@ -7285,31 +7285,31 @@
         <v>1.55</v>
       </c>
       <c r="G51" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I51" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="n">
         <v>6.6</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P51" t="n">
         <v>2.22</v>
@@ -7318,76 +7318,76 @@
         <v>1.5</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7435,100 +7435,100 @@
         <v>3.9</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,261 +7538,531 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="G53" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J53" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>1.08</v>
+        <v>1.9</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.41</v>
+        <v>1.98</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Calcio Avellino SSD</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Italian Serie A</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>2025-12-27</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Pisa</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F55" t="n">
         <v>8</v>
       </c>
-      <c r="G54" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="G55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I55" t="n">
         <v>1.5</v>
       </c>
-      <c r="I54" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="J55" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K55" t="n">
         <v>4.8</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M55" t="n">
         <v>1.07</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N55" t="n">
         <v>3.7</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O55" t="n">
         <v>1.34</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P55" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q55" t="n">
         <v>2.02</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R55" t="n">
         <v>1.35</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S55" t="n">
         <v>3.7</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T55" t="n">
         <v>2.22</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U55" t="n">
         <v>1.78</v>
       </c>
-      <c r="V54" t="n">
+      <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="n">
+      <c r="W55" t="n">
         <v>0</v>
       </c>
-      <c r="X54" t="n">
+      <c r="X55" t="n">
         <v>15</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Y55" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="Z55" t="n">
         <v>8</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AA55" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AB55" t="n">
         <v>23</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AC55" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AD55" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AE55" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AF55" t="n">
         <v>75</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AG55" t="n">
         <v>32</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AH55" t="n">
         <v>30</v>
       </c>
-      <c r="AI54" t="n">
+      <c r="AI55" t="n">
         <v>46</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AJ55" t="n">
         <v>400</v>
       </c>
-      <c r="AK54" t="n">
+      <c r="AK55" t="n">
         <v>990</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AL55" t="n">
         <v>160</v>
       </c>
-      <c r="AM54" t="n">
+      <c r="AM55" t="n">
         <v>240</v>
       </c>
-      <c r="AN54" t="n">
+      <c r="AN55" t="n">
         <v>310</v>
       </c>
-      <c r="AO54" t="n">
+      <c r="AO55" t="n">
         <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Estoril Praia</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -805,7 +805,7 @@
         <v>2.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
@@ -814,7 +814,7 @@
         <v>2.94</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -826,40 +826,40 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
         <v>28</v>
@@ -883,16 +883,16 @@
         <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
         <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>28</v>
@@ -907,7 +907,7 @@
         <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
         <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
         <v>4.3</v>
@@ -952,7 +952,7 @@
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,10 +967,10 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -1210,13 +1210,13 @@
         <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1249,7 +1249,7 @@
         <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1348,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.61</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.62</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1381,16 +1381,16 @@
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1399,10 +1399,10 @@
         <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>15.5</v>
@@ -1411,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>9.4</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>3.15</v>
@@ -1555,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1642,7 +1642,7 @@
         <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -1798,7 +1798,7 @@
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>3.15</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2047,16 +2047,16 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>1.77</v>
@@ -2080,7 +2080,7 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2101,7 +2101,7 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>46</v>
@@ -2116,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
         <v>30</v>
@@ -2155,7 +2155,7 @@
         <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2389,7 +2389,7 @@
         <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>260</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G15" t="n">
         <v>2.36</v>
@@ -2437,13 +2437,13 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
         <v>2.74</v>
@@ -2452,22 +2452,22 @@
         <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
         <v>1.3</v>
@@ -2476,55 +2476,55 @@
         <v>1.73</v>
       </c>
       <c r="X15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH15" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>32</v>
       </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>46</v>
-      </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2587,7 +2587,7 @@
         <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
         <v>2.28</v>
@@ -2653,7 +2653,7 @@
         <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H17" t="n">
         <v>4.5</v>
@@ -2743,7 +2743,7 @@
         <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
@@ -2794,7 +2794,7 @@
         <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>95</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2863,7 +2863,7 @@
         <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
         <v>4.8</v>
@@ -2875,7 +2875,7 @@
         <v>1.79</v>
       </c>
       <c r="V18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
         <v>1.23</v>
@@ -2887,7 +2887,7 @@
         <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA18" t="n">
         <v>20</v>
@@ -2929,7 +2929,7 @@
         <v>210</v>
       </c>
       <c r="AN18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3376,7 +3376,7 @@
         <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J22" t="n">
         <v>4.2</v>
@@ -3391,31 +3391,31 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S22" t="n">
         <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
         <v>2.58</v>
@@ -3511,7 +3511,7 @@
         <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
@@ -3541,7 +3541,7 @@
         <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T23" t="n">
         <v>1.43</v>
@@ -3550,7 +3550,7 @@
         <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
         <v>1.9</v>
@@ -3781,7 +3781,7 @@
         <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
         <v>2.92</v>
@@ -3808,7 +3808,7 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
@@ -3832,7 +3832,7 @@
         <v>990</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3847,10 +3847,10 @@
         <v>990</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
         <v>990</v>
@@ -3862,13 +3862,13 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
         <v>46</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -4066,7 +4066,7 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.19</v>
@@ -4075,10 +4075,10 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S27" t="n">
         <v>2.4</v>
@@ -4117,7 +4117,7 @@
         <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>150</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="28">
@@ -4210,7 +4210,7 @@
         <v>1.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
         <v>1.34</v>
@@ -4249,7 +4249,7 @@
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
@@ -4261,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>80</v>
@@ -4585,7 +4585,7 @@
         <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H31" t="n">
         <v>2.94</v>
@@ -4594,13 +4594,13 @@
         <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="K31" t="n">
         <v>7.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4855,16 +4855,16 @@
         <v>1.09</v>
       </c>
       <c r="G33" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="H33" t="n">
         <v>1.44</v>
       </c>
       <c r="I33" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -4879,7 +4879,7 @@
         <v>3.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
         <v>1.98</v>
@@ -4888,22 +4888,22 @@
         <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
         <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="W33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X33" t="n">
         <v>990</v>
@@ -4993,16 +4993,16 @@
         <v>2.28</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5026,16 +5026,16 @@
         <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U34" t="n">
         <v>1.69</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W34" t="n">
         <v>1.79</v>
@@ -5077,19 +5077,19 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="n">
         <v>38</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,31 +5122,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G35" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
         <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -5155,34 +5155,34 @@
         <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="Y35" t="n">
         <v>990</v>
       </c>
       <c r="Z35" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5200,7 +5200,7 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>990</v>
@@ -5263,10 +5263,10 @@
         <v>2.7</v>
       </c>
       <c r="H36" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5275,7 +5275,7 @@
         <v>1000</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
@@ -5290,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R36" t="n">
         <v>1.27</v>
@@ -5305,10 +5305,10 @@
         <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5422,7 +5422,7 @@
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q37" t="n">
         <v>1.54</v>
@@ -5461,13 +5461,13 @@
         <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD37" t="n">
         <v>48</v>
       </c>
       <c r="AE37" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="n">
         <v>8</v>
@@ -5530,7 +5530,7 @@
         <v>2.76</v>
       </c>
       <c r="G38" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>2.74</v>
@@ -5605,13 +5605,13 @@
         <v>27</v>
       </c>
       <c r="AF38" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG38" t="n">
         <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI38" t="n">
         <v>36</v>
@@ -5689,7 +5689,7 @@
         <v>3.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
         <v>1.72</v>
@@ -5743,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH39" t="n">
         <v>22</v>
@@ -5812,7 +5812,7 @@
         <v>5.2</v>
       </c>
       <c r="K40" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.29</v>
@@ -5839,7 +5839,7 @@
         <v>2.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U40" t="n">
         <v>1.95</v>
@@ -5860,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="AA40" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AB40" t="n">
         <v>9.199999999999999</v>
@@ -5878,7 +5878,7 @@
         <v>8.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH40" t="n">
         <v>25</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G41" t="n">
         <v>2.38</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
@@ -5950,7 +5950,7 @@
         <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
@@ -5962,7 +5962,7 @@
         <v>1.24</v>
       </c>
       <c r="P41" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q41" t="n">
         <v>1.74</v>
@@ -5980,10 +5980,10 @@
         <v>2.52</v>
       </c>
       <c r="V41" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W41" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X41" t="n">
         <v>18</v>
@@ -5992,7 +5992,7 @@
         <v>16</v>
       </c>
       <c r="Z41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA41" t="n">
         <v>55</v>
@@ -6025,7 +6025,7 @@
         <v>32</v>
       </c>
       <c r="AK41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL41" t="n">
         <v>30</v>
@@ -6034,7 +6034,7 @@
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO41" t="n">
         <v>23</v>
@@ -6379,10 +6379,10 @@
         <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="U44" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="V44" t="n">
         <v>1.66</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H45" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I45" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6520,7 +6520,7 @@
         <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
         <v>1.2</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
         <v>5.3</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
         <v>1.47</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R46" t="n">
         <v>1.13</v>
       </c>
       <c r="S46" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T46" t="n">
         <v>1.04</v>
@@ -6655,10 +6655,10 @@
         <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W46" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -7171,7 +7171,7 @@
         <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O50" t="n">
         <v>1.24</v>
@@ -7228,7 +7228,7 @@
         <v>12.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH50" t="n">
         <v>16.5</v>
@@ -7246,7 +7246,7 @@
         <v>28</v>
       </c>
       <c r="AM50" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="n">
         <v>10.5</v>
@@ -7285,7 +7285,7 @@
         <v>1.55</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="H51" t="n">
         <v>4.4</v>
@@ -7294,7 +7294,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="K51" t="n">
         <v>6.6</v>
@@ -7330,10 +7330,10 @@
         <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W51" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7420,10 +7420,10 @@
         <v>1.92</v>
       </c>
       <c r="G52" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I52" t="n">
         <v>4.8</v>
@@ -7432,7 +7432,7 @@
         <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.35</v>
@@ -7447,7 +7447,7 @@
         <v>1.26</v>
       </c>
       <c r="P52" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q52" t="n">
         <v>1.51</v>
@@ -7468,7 +7468,7 @@
         <v>1.27</v>
       </c>
       <c r="W52" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X52" t="n">
         <v>25</v>
@@ -7699,7 +7699,7 @@
         <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
         <v>1000</v>
@@ -7714,10 +7714,10 @@
         <v>1.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P54" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Q54" t="n">
         <v>1.41</v>
@@ -7825,22 +7825,22 @@
         <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H55" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I55" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J55" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K55" t="n">
         <v>4.8</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -7870,61 +7870,61 @@
         <v>1.78</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y55" t="n">
         <v>7.2</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA55" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
       </c>
       <c r="AC55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE55" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF55" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG55" t="n">
         <v>32</v>
       </c>
       <c r="AH55" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI55" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AK55" t="n">
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="AL55" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AM55" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN55" t="n">
         <v>240</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>310</v>
       </c>
       <c r="AO55" t="n">
         <v>8.800000000000001</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q56" t="n">
         <v>2.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -871,10 +871,10 @@
         <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -883,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>2.74</v>
@@ -946,13 +946,13 @@
         <v>2.86</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -973,10 +973,10 @@
         <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -988,7 +988,7 @@
         <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1105,7 +1105,7 @@
         <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R5" t="n">
         <v>1.26</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
         <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1249,16 +1249,16 @@
         <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1348,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1384,13 +1384,13 @@
         <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1426,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>27</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="G10" t="n">
         <v>1.41</v>
@@ -1762,7 +1762,7 @@
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.01</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.15</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1933,7 +1933,7 @@
         <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>990</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>990</v>
@@ -1972,13 +1972,13 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2032,7 +2032,7 @@
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,7 +2047,7 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -2080,7 +2080,7 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2104,7 +2104,7 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>48</v>
@@ -2113,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
         <v>110</v>
@@ -2155,7 +2155,7 @@
         <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
         <v>140</v>
@@ -2245,7 +2245,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>50</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
         <v>8.4</v>
@@ -2380,10 +2380,10 @@
         <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>190</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
         <v>2.36</v>
@@ -2437,7 +2437,7 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
         <v>1.51</v>
@@ -2446,7 +2446,7 @@
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O15" t="n">
         <v>1.48</v>
@@ -2482,7 +2482,7 @@
         <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2512,10 +2512,10 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
         <v>55</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
         <v>2.76</v>
@@ -2572,7 +2572,7 @@
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>1.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
@@ -2845,34 +2845,34 @@
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>2.12</v>
@@ -2881,10 +2881,10 @@
         <v>1.23</v>
       </c>
       <c r="X18" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z18" t="n">
         <v>9.6</v>
@@ -2914,25 +2914,25 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM18" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -2992,7 +2992,7 @@
         <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
         <v>1.98</v>
@@ -3016,49 +3016,49 @@
         <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
         <v>990</v>
       </c>
       <c r="AH19" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>120</v>
@@ -3400,13 +3400,13 @@
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="T22" t="n">
         <v>1.55</v>
@@ -3520,7 +3520,7 @@
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3781,7 +3781,7 @@
         <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>2.92</v>
@@ -3808,7 +3808,7 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
@@ -3865,7 +3865,7 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3925,7 +3925,7 @@
         <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -4051,16 +4051,16 @@
         <v>1.37</v>
       </c>
       <c r="I27" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="J27" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K27" t="n">
         <v>5.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4075,7 +4075,7 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R27" t="n">
         <v>1.61</v>
@@ -4090,7 +4090,7 @@
         <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="W27" t="n">
         <v>1.1</v>
@@ -4108,7 +4108,7 @@
         <v>12.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC27" t="n">
         <v>12.5</v>
@@ -4135,7 +4135,7 @@
         <v>350</v>
       </c>
       <c r="AK27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL27" t="n">
         <v>120</v>
@@ -4180,7 +4180,7 @@
         <v>1.82</v>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H28" t="n">
         <v>4.9</v>
@@ -4189,7 +4189,7 @@
         <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4225,10 +4225,10 @@
         <v>2.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X28" t="n">
         <v>14</v>
@@ -4276,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
         <v>13.5</v>
@@ -4342,7 +4342,7 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="Q29" t="n">
         <v>1.62</v>
@@ -4480,7 +4480,7 @@
         <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R30" t="n">
         <v>1.37</v>
@@ -4510,7 +4510,7 @@
         <v>38</v>
       </c>
       <c r="AA30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
         <v>9.4</v>
@@ -4777,7 +4777,7 @@
         <v>990</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA32" t="n">
         <v>100</v>
@@ -4795,7 +4795,7 @@
         <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG32" t="n">
         <v>990</v>
@@ -4807,13 +4807,13 @@
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM32" t="n">
         <v>85</v>
@@ -4822,7 +4822,7 @@
         <v>11.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33">
@@ -4858,7 +4858,7 @@
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I33" t="n">
         <v>1.54</v>
@@ -4885,7 +4885,7 @@
         <v>1.98</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R33" t="n">
         <v>1.37</v>
@@ -4894,10 +4894,10 @@
         <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V33" t="n">
         <v>2.78</v>
@@ -4912,10 +4912,10 @@
         <v>990</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AB33" t="n">
         <v>1000</v>
@@ -4927,7 +4927,7 @@
         <v>990</v>
       </c>
       <c r="AE33" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
         <v>1000</v>
@@ -4993,10 +4993,10 @@
         <v>2.28</v>
       </c>
       <c r="H34" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5047,7 +5047,7 @@
         <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G35" t="n">
         <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I35" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -5170,7 +5170,7 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
         <v>1.6</v>
@@ -5182,7 +5182,7 @@
         <v>990</v>
       </c>
       <c r="Z35" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5191,7 +5191,7 @@
         <v>990</v>
       </c>
       <c r="AC35" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
         <v>990</v>
@@ -5200,7 +5200,7 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
         <v>990</v>
@@ -5401,7 +5401,7 @@
         <v>13.5</v>
       </c>
       <c r="I37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J37" t="n">
         <v>7.4</v>
@@ -5458,10 +5458,10 @@
         <v>600</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD37" t="n">
         <v>48</v>
@@ -5806,13 +5806,13 @@
         <v>9</v>
       </c>
       <c r="I40" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J40" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K40" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.29</v>
@@ -5824,7 +5824,7 @@
         <v>4.9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
         <v>2.34</v>
@@ -5839,7 +5839,7 @@
         <v>2.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U40" t="n">
         <v>1.95</v>
@@ -5971,7 +5971,7 @@
         <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T41" t="n">
         <v>1.62</v>
@@ -6127,10 +6127,10 @@
         <v>990</v>
       </c>
       <c r="Z42" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AB42" t="n">
         <v>990</v>
@@ -6142,7 +6142,7 @@
         <v>990</v>
       </c>
       <c r="AE42" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6214,7 +6214,7 @@
         <v>5.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -6262,7 +6262,7 @@
         <v>16.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
         <v>140</v>
@@ -6295,10 +6295,10 @@
         <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM43" t="n">
         <v>150</v>
@@ -6349,7 +6349,7 @@
         <v>2.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>3.6</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I45" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H46" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
         <v>9.4</v>
@@ -6622,28 +6622,28 @@
         <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R46" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S46" t="n">
         <v>2.52</v>
@@ -6655,10 +6655,10 @@
         <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W46" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6757,7 +6757,7 @@
         <v>3.55</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6973,7 +6973,7 @@
         <v>18.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM48" t="n">
         <v>200</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G51" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I51" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J51" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K51" t="n">
         <v>6.6</v>
@@ -7333,7 +7333,7 @@
         <v>1.15</v>
       </c>
       <c r="W51" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7420,7 +7420,7 @@
         <v>1.92</v>
       </c>
       <c r="G52" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H52" t="n">
         <v>4.2</v>
@@ -7432,7 +7432,7 @@
         <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.35</v>
@@ -7468,7 +7468,7 @@
         <v>1.27</v>
       </c>
       <c r="W52" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X52" t="n">
         <v>25</v>
@@ -7570,7 +7570,7 @@
         <v>4.3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G54" t="n">
         <v>1000</v>
       </c>
       <c r="H54" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I54" t="n">
         <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K54" t="n">
         <v>1000</v>
@@ -7828,7 +7828,7 @@
         <v>8.6</v>
       </c>
       <c r="H55" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I55" t="n">
         <v>1.51</v>
@@ -7924,7 +7924,7 @@
         <v>190</v>
       </c>
       <c r="AN55" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AO55" t="n">
         <v>8.800000000000001</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G56" t="n">
         <v>2.42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -805,7 +805,7 @@
         <v>2.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
@@ -832,7 +832,7 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -853,7 +853,7 @@
         <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -865,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
         <v>16.5</v>
@@ -880,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -889,7 +889,7 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -904,7 +904,7 @@
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H4" t="n">
         <v>2.86</v>
@@ -952,7 +952,7 @@
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1102,7 +1102,7 @@
         <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
         <v>2.36</v>
@@ -1210,7 +1210,7 @@
         <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>4.9</v>
@@ -1243,10 +1243,10 @@
         <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.81</v>
@@ -1258,61 +1258,61 @@
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1348,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.61</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.62</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1390,7 +1390,7 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1426,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>27</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
@@ -1555,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1750,10 +1750,10 @@
         <v>1.12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="I10" t="n">
         <v>980</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -1786,7 +1786,7 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1798,13 +1798,13 @@
         <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,43 +1813,43 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1888,7 +1888,7 @@
         <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
         <v>980</v>
@@ -1918,7 +1918,7 @@
         <v>1.31</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S11" t="n">
         <v>1.83</v>
@@ -2023,7 +2023,7 @@
         <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
         <v>3.15</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
@@ -2167,7 +2167,7 @@
         <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2191,7 +2191,7 @@
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -2218,7 +2218,7 @@
         <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
@@ -2320,10 +2320,10 @@
         <v>1.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.1</v>
@@ -2440,13 +2440,13 @@
         <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O15" t="n">
         <v>1.48</v>
@@ -2602,7 +2602,7 @@
         <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
         <v>1.43</v>
@@ -2620,7 +2620,7 @@
         <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2647,10 +2647,10 @@
         <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
@@ -2701,7 +2701,7 @@
         <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2719,7 +2719,7 @@
         <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
         <v>1.74</v>
@@ -2734,7 +2734,7 @@
         <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
         <v>1.94</v>
@@ -2857,10 +2857,10 @@
         <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
         <v>2.38</v>
@@ -2971,7 +2971,7 @@
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -2992,7 +2992,7 @@
         <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q19" t="n">
         <v>1.98</v>
@@ -3004,13 +3004,13 @@
         <v>3.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
         <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
         <v>1.72</v>
@@ -3109,7 +3109,7 @@
         <v>5.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>8.800000000000001</v>
@@ -3127,16 +3127,16 @@
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
         <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.04</v>
@@ -3145,7 +3145,7 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
         <v>1.86</v>
@@ -3256,16 +3256,16 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
       </c>
       <c r="P21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R21" t="n">
         <v>1.94</v>
@@ -3400,13 +3400,13 @@
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
         <v>1.55</v>
@@ -3514,13 +3514,13 @@
         <v>4.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3667,7 +3667,7 @@
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
         <v>1.52</v>
@@ -3685,10 +3685,10 @@
         <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3781,13 +3781,13 @@
         <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3808,7 +3808,7 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
@@ -3820,13 +3820,13 @@
         <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
         <v>1.52</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>990</v>
@@ -3841,7 +3841,7 @@
         <v>990</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AD25" t="n">
         <v>990</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
@@ -3931,49 +3931,49 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
         <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z26" t="n">
         <v>44</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
         <v>13.5</v>
@@ -3997,19 +3997,19 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
         <v>46</v>
@@ -4276,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
         <v>13.5</v>
@@ -4342,7 +4342,7 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" t="n">
         <v>1.62</v>
@@ -4594,10 +4594,10 @@
         <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.58</v>
+        <v>1.09</v>
       </c>
       <c r="K31" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="L31" t="n">
         <v>1.36</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,7 +4741,7 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
@@ -4759,16 +4759,16 @@
         <v>2.54</v>
       </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X32" t="n">
         <v>990</v>
@@ -4780,10 +4780,10 @@
         <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AC32" t="n">
         <v>12</v>
@@ -4804,10 +4804,10 @@
         <v>990</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
         <v>980</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AO32" t="n">
         <v>980</v>
@@ -4897,7 +4897,7 @@
         <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="V33" t="n">
         <v>2.78</v>
@@ -4996,7 +4996,7 @@
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5128,10 +5128,10 @@
         <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -5410,7 +5410,7 @@
         <v>7.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5434,10 +5434,10 @@
         <v>2.38</v>
       </c>
       <c r="T37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U37" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V37" t="n">
         <v>1.07</v>
@@ -5461,7 +5461,7 @@
         <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD37" t="n">
         <v>48</v>
@@ -5686,13 +5686,13 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
         <v>2.32</v>
@@ -5707,7 +5707,7 @@
         <v>2.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
         <v>1.91</v>
@@ -5719,7 +5719,7 @@
         <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z39" t="n">
         <v>11</v>
@@ -5755,7 +5755,7 @@
         <v>110</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
         <v>80</v>
@@ -5860,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="AA40" t="n">
-        <v>590</v>
+        <v>310</v>
       </c>
       <c r="AB40" t="n">
         <v>9.199999999999999</v>
@@ -5938,7 +5938,7 @@
         <v>2.38</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I41" t="n">
         <v>3.25</v>
@@ -5962,7 +5962,7 @@
         <v>1.24</v>
       </c>
       <c r="P41" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q41" t="n">
         <v>1.74</v>
@@ -5971,13 +5971,13 @@
         <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T41" t="n">
         <v>1.62</v>
       </c>
       <c r="U41" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V41" t="n">
         <v>1.44</v>
@@ -6034,7 +6034,7 @@
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO41" t="n">
         <v>23</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="I42" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
         <v>4.7</v>
@@ -6091,16 +6091,16 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
       </c>
       <c r="P42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1.77</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.76</v>
       </c>
       <c r="R42" t="n">
         <v>1.29</v>
@@ -6115,10 +6115,10 @@
         <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X42" t="n">
         <v>990</v>
@@ -6214,7 +6214,7 @@
         <v>5.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -6298,7 +6298,7 @@
         <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM43" t="n">
         <v>150</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>970</v>
       </c>
       <c r="H45" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="I45" t="n">
-        <v>1.83</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>1.09</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6520,7 +6520,7 @@
         <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
         <v>1.2</v>
@@ -6631,7 +6631,7 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="O46" t="n">
         <v>1.24</v>
@@ -7183,7 +7183,7 @@
         <v>1.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S50" t="n">
         <v>2.86</v>
@@ -7201,10 +7201,10 @@
         <v>2.08</v>
       </c>
       <c r="X50" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="n">
         <v>34</v>
@@ -7228,13 +7228,13 @@
         <v>12.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
         <v>16.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ50" t="n">
         <v>21</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H51" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I51" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J51" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
         <v>6.6</v>
@@ -7306,13 +7306,13 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="O51" t="n">
         <v>1.17</v>
       </c>
       <c r="P51" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q51" t="n">
         <v>1.5</v>
@@ -7438,31 +7438,31 @@
         <v>1.35</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.51</v>
+        <v>1.79</v>
       </c>
       <c r="R52" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S52" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="T52" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="U52" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="V52" t="n">
         <v>1.27</v>
@@ -7471,55 +7471,55 @@
         <v>2.04</v>
       </c>
       <c r="X52" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Y52" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB52" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC52" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF52" t="n">
         <v>13</v>
       </c>
-      <c r="AD52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>18</v>
-      </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI52" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ52" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK52" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AL52" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN52" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7561,7 +7561,7 @@
         <v>6.4</v>
       </c>
       <c r="I53" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -7600,7 +7600,7 @@
         <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W53" t="n">
         <v>2.5</v>
@@ -7615,7 +7615,7 @@
         <v>60</v>
       </c>
       <c r="AA53" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AB53" t="n">
         <v>7.8</v>
@@ -7825,7 +7825,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>1.49</v>
@@ -7846,7 +7846,7 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
@@ -7858,7 +7858,7 @@
         <v>2.02</v>
       </c>
       <c r="R55" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S55" t="n">
         <v>3.7</v>
@@ -7867,7 +7867,7 @@
         <v>2.22</v>
       </c>
       <c r="U55" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V55" t="n">
         <v>2.96</v>
@@ -7921,7 +7921,7 @@
         <v>140</v>
       </c>
       <c r="AM55" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN55" t="n">
         <v>230</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="n">
         <v>2.42</v>
@@ -7966,10 +7966,10 @@
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J56" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K56" t="n">
         <v>3.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -850,34 +850,34 @@
         <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
         <v>23</v>
       </c>
-      <c r="Y3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>28</v>
-      </c>
       <c r="AA3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
         <v>19.5</v>
@@ -889,25 +889,25 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.68</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.6</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1102,7 +1102,7 @@
         <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
         <v>2.36</v>
@@ -1156,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>50</v>
@@ -1168,10 +1168,10 @@
         <v>50</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
         <v>60</v>
@@ -1261,7 +1261,7 @@
         <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
         <v>18</v>
@@ -1345,7 +1345,7 @@
         <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
         <v>1.6</v>
@@ -1360,7 +1360,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1375,7 +1375,7 @@
         <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
         <v>1.57</v>
@@ -1393,7 +1393,7 @@
         <v>2.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
@@ -1408,13 +1408,13 @@
         <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1432,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK7" t="n">
         <v>70</v>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.54</v>
@@ -1513,7 +1513,7 @@
         <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
@@ -1552,7 +1552,7 @@
         <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1615,10 +1615,10 @@
         <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
         <v>3.85</v>
@@ -1627,31 +1627,31 @@
         <v>2.46</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
         <v>1.37</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>1.86</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1663,7 +1663,7 @@
         <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="H10" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,85 +1771,85 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.34</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="X10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>990</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>40</v>
-      </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,16 +1885,16 @@
         <v>1.16</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="K11" t="n">
         <v>12</v>
@@ -1906,34 +1906,34 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
@@ -2038,7 +2038,7 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>3.55</v>
@@ -2050,10 +2050,10 @@
         <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
@@ -2062,13 +2062,13 @@
         <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V12" t="n">
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2107,10 +2107,10 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
         <v>980</v>
@@ -2155,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
@@ -2200,7 +2200,7 @@
         <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
         <v>1.94</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
         <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>3.9</v>
@@ -2317,22 +2317,22 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.11</v>
@@ -2350,7 +2350,7 @@
         <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AB14" t="n">
         <v>8</v>
@@ -2374,7 +2374,7 @@
         <v>990</v>
       </c>
       <c r="AI14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
         <v>13.5</v>
@@ -2386,13 +2386,13 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
         <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>3.25</v>
@@ -2446,34 +2446,34 @@
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
         <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
         <v>9.6</v>
@@ -2500,7 +2500,7 @@
         <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2509,7 +2509,7 @@
         <v>990</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.05</v>
@@ -2578,88 +2578,88 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P16" t="n">
         <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>48</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2719,7 +2719,7 @@
         <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P17" t="n">
         <v>1.74</v>
@@ -2734,7 +2734,7 @@
         <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1.94</v>
@@ -2791,13 +2791,13 @@
         <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3010,10 +3010,10 @@
         <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G20" t="n">
         <v>2.16</v>
@@ -3112,7 +3112,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="G21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,85 +3256,85 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="R21" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y21" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD21" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3376,7 +3376,7 @@
         <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J22" t="n">
         <v>4.2</v>
@@ -3388,91 +3388,91 @@
         <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
         <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI22" t="n">
         <v>85</v>
       </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AJ22" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>21</v>
-      </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -3511,7 +3511,7 @@
         <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3520,7 +3520,7 @@
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3544,19 +3544,19 @@
         <v>2.34</v>
       </c>
       <c r="T23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U23" t="n">
         <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
         <v>28</v>
@@ -3565,7 +3565,7 @@
         <v>48</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
         <v>17.5</v>
@@ -3598,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="n">
         <v>100</v>
@@ -3646,7 +3646,7 @@
         <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3658,34 +3658,34 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
         <v>1.5</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3781,13 +3781,13 @@
         <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3808,25 +3808,25 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
         <v>1.52</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
         <v>990</v>
@@ -3841,7 +3841,7 @@
         <v>990</v>
       </c>
       <c r="AC25" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
         <v>990</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
@@ -3931,10 +3931,10 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
         <v>2.14</v>
@@ -3955,22 +3955,22 @@
         <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB26" t="n">
         <v>17</v>
@@ -3997,19 +3997,19 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>46</v>
@@ -4057,7 +4057,7 @@
         <v>5.2</v>
       </c>
       <c r="K27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.26</v>
@@ -4195,13 +4195,13 @@
         <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.33</v>
@@ -4210,7 +4210,7 @@
         <v>1.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1.34</v>
@@ -4219,10 +4219,10 @@
         <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V28" t="n">
         <v>1.24</v>
@@ -4318,7 +4318,7 @@
         <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I29" t="n">
         <v>2.62</v>
@@ -4333,31 +4333,31 @@
         <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>2.46</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V29" t="n">
         <v>1.61</v>
@@ -4366,58 +4366,58 @@
         <v>1.43</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB29" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -4495,7 +4495,7 @@
         <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W30" t="n">
         <v>2.16</v>
@@ -4519,7 +4519,7 @@
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>65</v>
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H31" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.09</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -4750,7 +4750,7 @@
         <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R32" t="n">
         <v>1.51</v>
@@ -4765,7 +4765,7 @@
         <v>2.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
         <v>1.91</v>
@@ -4792,7 +4792,7 @@
         <v>990</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF32" t="n">
         <v>980</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="H33" t="n">
         <v>1.43</v>
@@ -4864,40 +4864,40 @@
         <v>1.54</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>1.61</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T33" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="V33" t="n">
         <v>2.78</v>
@@ -4990,7 +4990,7 @@
         <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
@@ -5002,19 +5002,19 @@
         <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
         <v>1.64</v>
@@ -5026,13 +5026,13 @@
         <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
         <v>1.3</v>
@@ -5041,55 +5041,55 @@
         <v>1.79</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE34" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5128,10 +5128,10 @@
         <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -5170,7 +5170,7 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W35" t="n">
         <v>1.6</v>
@@ -5257,34 +5257,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="H36" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.31</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -5293,22 +5293,22 @@
         <v>1.79</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U36" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5323,10 +5323,10 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -5467,7 +5467,7 @@
         <v>48</v>
       </c>
       <c r="AE37" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF37" t="n">
         <v>8</v>
@@ -5530,7 +5530,7 @@
         <v>2.76</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H38" t="n">
         <v>2.74</v>
@@ -5545,7 +5545,7 @@
         <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5578,7 +5578,7 @@
         <v>1.56</v>
       </c>
       <c r="W38" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X38" t="n">
         <v>15.5</v>
@@ -5617,13 +5617,13 @@
         <v>36</v>
       </c>
       <c r="AJ38" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="n">
         <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM38" t="n">
         <v>75</v>
@@ -5680,7 +5680,7 @@
         <v>3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5755,7 +5755,7 @@
         <v>110</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL39" t="n">
         <v>80</v>
@@ -5806,16 +5806,16 @@
         <v>9</v>
       </c>
       <c r="I40" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K40" t="n">
         <v>5.3</v>
       </c>
-      <c r="K40" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5896,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="AM40" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
         <v>5.8</v>
@@ -5950,7 +5950,7 @@
         <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
@@ -6067,58 +6067,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="G42" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="I42" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K42" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="R42" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S42" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="X42" t="n">
         <v>990</v>
@@ -6256,7 +6256,7 @@
         <v>1.99</v>
       </c>
       <c r="X43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
         <v>16.5</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H44" t="n">
         <v>2.4</v>
@@ -6352,7 +6352,7 @@
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6379,10 +6379,10 @@
         <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U44" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
         <v>1.66</v>
@@ -6472,55 +6472,55 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>970</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>1.83</v>
       </c>
       <c r="J45" t="n">
-        <v>1.09</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>2.58</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
         <v>1.2</v>
@@ -6607,58 +6607,58 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G46" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.43</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q46" t="n">
         <v>2.26</v>
       </c>
-      <c r="O46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R46" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="S46" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="V46" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6745,13 +6745,13 @@
         <v>2.04</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I47" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
         <v>3.55</v>
@@ -6763,10 +6763,10 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="O47" t="n">
         <v>1.26</v>
@@ -6778,76 +6778,76 @@
         <v>1.74</v>
       </c>
       <c r="R47" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="T47" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="U47" t="n">
-        <v>1.87</v>
+        <v>2.26</v>
       </c>
       <c r="V47" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W47" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK47" t="n">
         <v>23</v>
       </c>
-      <c r="Z47" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>32</v>
-      </c>
       <c r="AL47" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM47" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -7060,7 +7060,7 @@
         <v>1.92</v>
       </c>
       <c r="V49" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W49" t="n">
         <v>1.42</v>
@@ -7165,7 +7165,7 @@
         <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7222,7 +7222,7 @@
         <v>16.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF50" t="n">
         <v>12.5</v>
@@ -7234,7 +7234,7 @@
         <v>16.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ50" t="n">
         <v>21</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="G51" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="H51" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="I51" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K51" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,85 +7306,85 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.16</v>
+        <v>5.3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="S51" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="T51" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="U51" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="V51" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W51" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7555,13 +7555,13 @@
         <v>1.62</v>
       </c>
       <c r="G53" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H53" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I53" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -7573,16 +7573,16 @@
         <v>1.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O53" t="n">
         <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q53" t="n">
         <v>1.98</v>
@@ -7591,31 +7591,31 @@
         <v>1.35</v>
       </c>
       <c r="S53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T53" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W53" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="X53" t="n">
         <v>14</v>
       </c>
       <c r="Y53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z53" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA53" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB53" t="n">
         <v>7.8</v>
@@ -7654,7 +7654,7 @@
         <v>180</v>
       </c>
       <c r="AN53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO53" t="n">
         <v>150</v>
@@ -7840,7 +7840,7 @@
         <v>4.8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -7852,7 +7852,7 @@
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q55" t="n">
         <v>2.02</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -805,19 +805,19 @@
         <v>2.44</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
         <v>2.92</v>
       </c>
       <c r="J3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -832,7 +832,7 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -853,10 +853,10 @@
         <v>1.52</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
@@ -868,7 +868,7 @@
         <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -880,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
         <v>2.46</v>
@@ -958,7 +958,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.25</v>
@@ -1120,7 +1120,7 @@
         <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
         <v>1.37</v>
@@ -1141,7 +1141,7 @@
         <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>11.5</v>
@@ -1312,7 +1312,7 @@
         <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>6.2</v>
@@ -1378,10 +1378,10 @@
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
@@ -1390,7 +1390,7 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="W7" t="n">
         <v>1.19</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
         <v>2.46</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1651,7 +1651,7 @@
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>1.86</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -1774,7 +1774,7 @@
         <v>5.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
         <v>2.62</v>
@@ -1786,7 +1786,7 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G11" t="n">
         <v>1.21</v>
@@ -1891,13 +1891,13 @@
         <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
         <v>7.6</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1921,13 +1921,13 @@
         <v>1.84</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
@@ -2020,7 +2020,7 @@
         <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>2.94</v>
@@ -2047,7 +2047,7 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
         <v>2.02</v>
@@ -2059,7 +2059,7 @@
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>2.14</v>
@@ -2068,7 +2068,7 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2122,7 +2122,7 @@
         <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2167,7 +2167,7 @@
         <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2203,7 +2203,7 @@
         <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2290,7 +2290,7 @@
         <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
         <v>8.4</v>
@@ -2341,7 +2341,7 @@
         <v>2.88</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>990</v>
@@ -2362,7 +2362,7 @@
         <v>990</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
         <v>8.800000000000001</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G16" t="n">
         <v>2.82</v>
@@ -2566,7 +2566,7 @@
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.05</v>
@@ -2605,10 +2605,10 @@
         <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -2857,7 +2857,7 @@
         <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
         <v>2.38</v>
@@ -2965,10 +2965,10 @@
         <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -3013,7 +3013,7 @@
         <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3103,7 +3103,7 @@
         <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
         <v>5.6</v>
@@ -3112,7 +3112,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3520,7 +3520,7 @@
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3547,7 +3547,7 @@
         <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
@@ -3607,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -3646,7 +3646,7 @@
         <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3805,7 +3805,7 @@
         <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
         <v>1.23</v>
@@ -3976,7 +3976,7 @@
         <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
         <v>23</v>
@@ -4048,7 +4048,7 @@
         <v>10.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I27" t="n">
         <v>1.41</v>
@@ -4120,7 +4120,7 @@
         <v>14.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG27" t="n">
         <v>36</v>
@@ -4138,13 +4138,13 @@
         <v>140</v>
       </c>
       <c r="AL27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM27" t="n">
         <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="n">
         <v>5.7</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G28" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="H28" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4204,19 +4204,19 @@
         <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
         <v>1.87</v>
@@ -4228,28 +4228,28 @@
         <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="X28" t="n">
         <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC28" t="n">
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
@@ -4258,10 +4258,10 @@
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>80</v>
@@ -4270,7 +4270,7 @@
         <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>38</v>
@@ -4279,7 +4279,7 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO28" t="n">
         <v>80</v>
@@ -4519,7 +4519,7 @@
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE30" t="n">
         <v>65</v>
@@ -4585,49 +4585,49 @@
         <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
         <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
         <v>4.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V31" t="n">
         <v>1.31</v>
@@ -4873,7 +4873,7 @@
         <v>1.23</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
         <v>3.8</v>
@@ -4882,7 +4882,7 @@
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q33" t="n">
         <v>1.61</v>
@@ -4996,7 +4996,7 @@
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5005,13 +5005,13 @@
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
         <v>1.43</v>
@@ -5125,13 +5125,13 @@
         <v>2.36</v>
       </c>
       <c r="G35" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -5173,7 +5173,7 @@
         <v>1.43</v>
       </c>
       <c r="W35" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
         <v>990</v>
@@ -5401,7 +5401,7 @@
         <v>13.5</v>
       </c>
       <c r="I37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
         <v>7.4</v>
@@ -5434,7 +5434,7 @@
         <v>2.38</v>
       </c>
       <c r="T37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U37" t="n">
         <v>1.86</v>
@@ -5530,7 +5530,7 @@
         <v>2.76</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>2.74</v>
@@ -5578,7 +5578,7 @@
         <v>1.56</v>
       </c>
       <c r="W38" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X38" t="n">
         <v>15.5</v>
@@ -5617,13 +5617,13 @@
         <v>36</v>
       </c>
       <c r="AJ38" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="n">
         <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="n">
         <v>75</v>
@@ -5692,10 +5692,10 @@
         <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R39" t="n">
         <v>1.27</v>
@@ -5713,7 +5713,7 @@
         <v>1.91</v>
       </c>
       <c r="W39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X39" t="n">
         <v>10.5</v>
@@ -5761,7 +5761,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN39" t="n">
         <v>80</v>
@@ -5809,13 +5809,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K40" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5896,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN40" t="n">
         <v>5.8</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H42" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I42" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J42" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K42" t="n">
         <v>4.6</v>
@@ -6100,7 +6100,7 @@
         <v>1.92</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R42" t="n">
         <v>1.35</v>
@@ -6115,7 +6115,7 @@
         <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.16</v>
@@ -6226,7 +6226,7 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O43" t="n">
         <v>1.34</v>
@@ -6349,7 +6349,7 @@
         <v>2.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>3.5</v>
@@ -6388,7 +6388,7 @@
         <v>1.66</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X44" t="n">
         <v>12</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I45" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6490,7 +6490,7 @@
         <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -6505,7 +6505,7 @@
         <v>1.98</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R45" t="n">
         <v>1.38</v>
@@ -6514,13 +6514,13 @@
         <v>3.05</v>
       </c>
       <c r="T45" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U45" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W45" t="n">
         <v>1.2</v>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G46" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H46" t="n">
         <v>5.7</v>
@@ -6628,19 +6628,19 @@
         <v>1.43</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
         <v>2.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P46" t="n">
         <v>1.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R46" t="n">
         <v>1.21</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G47" t="n">
         <v>2.28</v>
@@ -6751,7 +6751,7 @@
         <v>3.35</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J47" t="n">
         <v>3.55</v>
@@ -6772,7 +6772,7 @@
         <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q47" t="n">
         <v>1.74</v>
@@ -6790,10 +6790,10 @@
         <v>2.26</v>
       </c>
       <c r="V47" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H48" t="n">
         <v>7.4</v>
@@ -6892,7 +6892,7 @@
         <v>4.2</v>
       </c>
       <c r="K48" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L48" t="n">
         <v>1.33</v>
@@ -6901,34 +6901,34 @@
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O48" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R48" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T48" t="n">
         <v>2.06</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V48" t="n">
         <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X48" t="n">
         <v>15.5</v>
@@ -6955,7 +6955,7 @@
         <v>160</v>
       </c>
       <c r="AF48" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG48" t="n">
         <v>11</v>
@@ -7015,7 +7015,7 @@
         <v>3.3</v>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H49" t="n">
         <v>2.56</v>
@@ -7060,7 +7060,7 @@
         <v>1.92</v>
       </c>
       <c r="V49" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W49" t="n">
         <v>1.42</v>
@@ -7204,7 +7204,7 @@
         <v>18.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z50" t="n">
         <v>34</v>
@@ -7213,7 +7213,7 @@
         <v>90</v>
       </c>
       <c r="AB50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC50" t="n">
         <v>8.800000000000001</v>
@@ -7222,7 +7222,7 @@
         <v>16.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF50" t="n">
         <v>12.5</v>
@@ -7234,7 +7234,7 @@
         <v>16.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ50" t="n">
         <v>21</v>
@@ -7318,7 +7318,7 @@
         <v>1.54</v>
       </c>
       <c r="R51" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="n">
         <v>2.34</v>
@@ -7420,7 +7420,7 @@
         <v>1.92</v>
       </c>
       <c r="G52" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H52" t="n">
         <v>4.2</v>
@@ -7468,7 +7468,7 @@
         <v>1.27</v>
       </c>
       <c r="W52" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X52" t="n">
         <v>18</v>
@@ -7492,7 +7492,7 @@
         <v>19</v>
       </c>
       <c r="AE52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF52" t="n">
         <v>13</v>
@@ -7576,13 +7576,13 @@
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q53" t="n">
         <v>1.98</v>
@@ -7639,7 +7639,7 @@
         <v>27</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ53" t="n">
         <v>15</v>
@@ -7858,7 +7858,7 @@
         <v>2.02</v>
       </c>
       <c r="R55" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S55" t="n">
         <v>3.7</v>
@@ -7960,7 +7960,7 @@
         <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
@@ -7969,7 +7969,7 @@
         <v>3.65</v>
       </c>
       <c r="J56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K56" t="n">
         <v>3.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G3" t="n">
         <v>2.48</v>
@@ -814,10 +814,10 @@
         <v>2.92</v>
       </c>
       <c r="J3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -835,7 +835,7 @@
         <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
         <v>2.46</v>
@@ -946,10 +946,10 @@
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -967,13 +967,13 @@
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>3.65</v>
@@ -985,7 +985,7 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
         <v>1.68</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G5" t="n">
         <v>3.65</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.3</v>
@@ -1120,7 +1120,7 @@
         <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
         <v>1.37</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
         <v>1.83</v>
@@ -1246,10 +1246,10 @@
         <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
@@ -1273,7 +1273,7 @@
         <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G7" t="n">
         <v>6.2</v>
@@ -1378,7 +1378,7 @@
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>2.68</v>
@@ -1390,13 +1390,13 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="W7" t="n">
         <v>1.19</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
         <v>2.6</v>
@@ -1501,19 +1501,19 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
@@ -1522,16 +1522,16 @@
         <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1543,19 +1543,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1564,7 +1564,7 @@
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
         <v>3.1</v>
@@ -1621,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1660,7 +1660,7 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
         <v>1.47</v>
@@ -1753,13 +1753,13 @@
         <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
         <v>12.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -1774,10 +1774,10 @@
         <v>5.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.5</v>
@@ -1786,10 +1786,10 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -1798,13 +1798,13 @@
         <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X10" t="n">
         <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>130</v>
@@ -1843,7 +1843,7 @@
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>160</v>
@@ -1885,16 +1885,16 @@
         <v>1.17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H11" t="n">
         <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>10.5</v>
@@ -1912,7 +1912,7 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
         <v>1.38</v>
@@ -1930,10 +1930,10 @@
         <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -1960,7 +1960,7 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -2041,13 +2041,13 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
         <v>2.02</v>
@@ -2107,7 +2107,7 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
@@ -2158,7 +2158,7 @@
         <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2185,10 +2185,10 @@
         <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2251,13 +2251,13 @@
         <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2317,7 +2317,7 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q14" t="n">
         <v>1.89</v>
@@ -2326,7 +2326,7 @@
         <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
         <v>2.02</v>
@@ -2335,7 +2335,7 @@
         <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
         <v>2.88</v>
@@ -2353,7 +2353,7 @@
         <v>370</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2389,7 +2389,7 @@
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO14" t="n">
         <v>250</v>
@@ -2428,13 +2428,13 @@
         <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
         <v>3.25</v>
@@ -2461,10 +2461,10 @@
         <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
         <v>1.84</v>
@@ -2476,7 +2476,7 @@
         <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
         <v>11.5</v>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2518,7 +2518,7 @@
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>200</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G16" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
@@ -2584,7 +2584,7 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
         <v>1.68</v>
@@ -2599,7 +2599,7 @@
         <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
         <v>1.96</v>
@@ -2608,7 +2608,7 @@
         <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -2623,7 +2623,7 @@
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
@@ -2647,13 +2647,13 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>160</v>
@@ -2701,7 +2701,7 @@
         <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.43</v>
@@ -2755,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
         <v>7.8</v>
@@ -2833,7 +2833,7 @@
         <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I18" t="n">
         <v>1.89</v>
@@ -2845,7 +2845,7 @@
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
@@ -2872,7 +2872,7 @@
         <v>2.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
         <v>2.12</v>
@@ -2884,7 +2884,7 @@
         <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
         <v>9.6</v>
@@ -2911,7 +2911,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>48</v>
@@ -2926,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
         <v>130</v>
@@ -2971,7 +2971,7 @@
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -2992,7 +2992,7 @@
         <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
@@ -3001,22 +3001,22 @@
         <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
         <v>1.73</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3061,7 +3061,7 @@
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
         <v>23</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
         <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,25 +3256,25 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U21" t="n">
         <v>1.66</v>
@@ -3283,10 +3283,10 @@
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Y21" t="n">
         <v>120</v>
@@ -3301,10 +3301,10 @@
         <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE21" t="n">
         <v>540</v>
@@ -3325,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>320</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3370,16 +3370,16 @@
         <v>1.52</v>
       </c>
       <c r="G22" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
         <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>5.1</v>
@@ -3547,7 +3547,7 @@
         <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
@@ -3655,7 +3655,7 @@
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3775,16 +3775,16 @@
         <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="H25" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>3.8</v>
@@ -3793,40 +3793,40 @@
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.54</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="Y25" t="n">
         <v>990</v>
@@ -3841,7 +3841,7 @@
         <v>990</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AD25" t="n">
         <v>990</v>
@@ -3949,10 +3949,10 @@
         <v>2.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="U26" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>1.3</v>
@@ -4045,16 +4045,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K27" t="n">
         <v>5.7</v>
@@ -4087,7 +4087,7 @@
         <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>3.45</v>
@@ -4108,7 +4108,7 @@
         <v>12.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AC27" t="n">
         <v>12.5</v>
@@ -4120,34 +4120,34 @@
         <v>14.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AK27" t="n">
         <v>140</v>
       </c>
       <c r="AL27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM27" t="n">
         <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G28" t="n">
         <v>1.94</v>
@@ -4186,7 +4186,7 @@
         <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.65</v>
@@ -4216,16 +4216,16 @@
         <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W28" t="n">
         <v>2.06</v>
@@ -4237,10 +4237,10 @@
         <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
         <v>8.4</v>
@@ -4264,7 +4264,7 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -4342,7 +4342,7 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q29" t="n">
         <v>1.98</v>
@@ -4351,19 +4351,19 @@
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U29" t="n">
         <v>2.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
@@ -4402,7 +4402,7 @@
         <v>980</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
         <v>980</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G30" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -4471,7 +4471,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -4480,7 +4480,7 @@
         <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R30" t="n">
         <v>1.37</v>
@@ -4498,7 +4498,7 @@
         <v>1.26</v>
       </c>
       <c r="W30" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
         <v>16</v>
@@ -4525,22 +4525,22 @@
         <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>70</v>
       </c>
       <c r="AJ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK30" t="n">
         <v>20</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>19.5</v>
       </c>
       <c r="AL30" t="n">
         <v>36</v>
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="O31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V31" t="n">
         <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G32" t="n">
         <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
         <v>3.85</v>
@@ -4741,19 +4741,19 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q32" t="n">
         <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
         <v>2.54</v>
@@ -4780,7 +4780,7 @@
         <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB32" t="n">
         <v>990</v>
@@ -4858,19 +4858,19 @@
         <v>10.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I33" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
         <v>6.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -4882,7 +4882,7 @@
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q33" t="n">
         <v>1.61</v>
@@ -5011,25 +5011,25 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
         <v>1.86</v>
@@ -5041,13 +5041,13 @@
         <v>1.79</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
@@ -5068,10 +5068,10 @@
         <v>13.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
         <v>80</v>
@@ -5128,19 +5128,19 @@
         <v>2.72</v>
       </c>
       <c r="H35" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5257,34 +5257,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -5296,25 +5296,25 @@
         <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="T36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5323,7 +5323,7 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.26</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.27</v>
       </c>
       <c r="H37" t="n">
         <v>13.5</v>
@@ -5410,7 +5410,7 @@
         <v>7.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5428,7 +5428,7 @@
         <v>1.54</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S37" t="n">
         <v>2.38</v>
@@ -5443,7 +5443,7 @@
         <v>1.07</v>
       </c>
       <c r="W37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X37" t="n">
         <v>32</v>
@@ -5455,7 +5455,7 @@
         <v>130</v>
       </c>
       <c r="AA37" t="n">
-        <v>600</v>
+        <v>890</v>
       </c>
       <c r="AB37" t="n">
         <v>10.5</v>
@@ -5488,7 +5488,7 @@
         <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
         <v>170</v>
@@ -5497,7 +5497,7 @@
         <v>3.95</v>
       </c>
       <c r="AO37" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -5563,13 +5563,13 @@
         <v>1.86</v>
       </c>
       <c r="R38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S38" t="n">
         <v>3.15</v>
       </c>
       <c r="T38" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U38" t="n">
         <v>2.38</v>
@@ -5584,7 +5584,7 @@
         <v>15.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
         <v>18.5</v>
@@ -5596,7 +5596,7 @@
         <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
         <v>12</v>
@@ -5626,7 +5626,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN38" t="n">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         <v>3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5689,13 +5689,13 @@
         <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
         <v>1.27</v>
@@ -5716,7 +5716,7 @@
         <v>1.3</v>
       </c>
       <c r="X39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
         <v>7.8</v>
@@ -5755,7 +5755,7 @@
         <v>110</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
         <v>80</v>
@@ -5866,7 +5866,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD40" t="n">
         <v>32</v>
@@ -5896,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="AM40" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
         <v>5.8</v>
@@ -5971,10 +5971,10 @@
         <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T41" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U41" t="n">
         <v>2.54</v>
@@ -6073,7 +6073,7 @@
         <v>7.2</v>
       </c>
       <c r="H42" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="I42" t="n">
         <v>1.69</v>
@@ -6100,7 +6100,7 @@
         <v>1.92</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R42" t="n">
         <v>1.35</v>
@@ -6109,16 +6109,16 @@
         <v>3.25</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U42" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V42" t="n">
         <v>2.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X42" t="n">
         <v>990</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G43" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H43" t="n">
         <v>4.4</v>
       </c>
       <c r="I43" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6229,22 +6229,22 @@
         <v>3.3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P43" t="n">
         <v>1.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R43" t="n">
         <v>1.3</v>
       </c>
       <c r="S43" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
         <v>1.94</v>
@@ -6253,7 +6253,7 @@
         <v>1.23</v>
       </c>
       <c r="W43" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="X43" t="n">
         <v>15</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G44" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H44" t="n">
         <v>2.4</v>
@@ -6352,7 +6352,7 @@
         <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
         <v>1.68</v>
@@ -6376,10 +6376,10 @@
         <v>1.25</v>
       </c>
       <c r="S44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U44" t="n">
         <v>1.94</v>
@@ -6388,7 +6388,7 @@
         <v>1.66</v>
       </c>
       <c r="W44" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
         <v>12</v>
@@ -6439,7 +6439,7 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AO44" t="n">
         <v>32</v>
@@ -6478,10 +6478,10 @@
         <v>6.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I45" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6490,7 +6490,7 @@
         <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -6502,25 +6502,25 @@
         <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
         <v>1.83</v>
       </c>
       <c r="R45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S45" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T45" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="W45" t="n">
         <v>1.2</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G46" t="n">
         <v>1.77</v>
@@ -6616,19 +6616,19 @@
         <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.43</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
         <v>2.7</v>
@@ -6658,7 +6658,7 @@
         <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6751,10 +6751,10 @@
         <v>3.35</v>
       </c>
       <c r="I47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J47" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
         <v>4.1</v>
@@ -6772,22 +6772,22 @@
         <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q47" t="n">
         <v>1.74</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S47" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T47" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U47" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V47" t="n">
         <v>1.35</v>
@@ -6847,7 +6847,7 @@
         <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
@@ -6880,10 +6880,10 @@
         <v>1.54</v>
       </c>
       <c r="G48" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H48" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I48" t="n">
         <v>8.4</v>
@@ -6895,7 +6895,7 @@
         <v>4.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -6907,28 +6907,28 @@
         <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R48" t="n">
         <v>1.35</v>
       </c>
       <c r="S48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T48" t="n">
         <v>2.06</v>
       </c>
       <c r="U48" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V48" t="n">
         <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X48" t="n">
         <v>15.5</v>
@@ -6940,7 +6940,7 @@
         <v>70</v>
       </c>
       <c r="AA48" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB48" t="n">
         <v>8</v>
@@ -7060,7 +7060,7 @@
         <v>1.92</v>
       </c>
       <c r="V49" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W49" t="n">
         <v>1.42</v>
@@ -7180,10 +7180,10 @@
         <v>2.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R50" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S50" t="n">
         <v>2.86</v>
@@ -7285,7 +7285,7 @@
         <v>1.52</v>
       </c>
       <c r="G51" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H51" t="n">
         <v>5.8</v>
@@ -7321,7 +7321,7 @@
         <v>1.6</v>
       </c>
       <c r="S51" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T51" t="n">
         <v>1.68</v>
@@ -7333,7 +7333,7 @@
         <v>1.16</v>
       </c>
       <c r="W51" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X51" t="n">
         <v>27</v>
@@ -7420,19 +7420,19 @@
         <v>1.92</v>
       </c>
       <c r="G52" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H52" t="n">
         <v>4.2</v>
       </c>
       <c r="I52" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J52" t="n">
         <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.35</v>
@@ -7480,7 +7480,7 @@
         <v>36</v>
       </c>
       <c r="AA52" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="n">
         <v>10.5</v>
@@ -7522,7 +7522,7 @@
         <v>12.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -7561,7 +7561,7 @@
         <v>6.6</v>
       </c>
       <c r="I53" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -7576,19 +7576,19 @@
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O53" t="n">
         <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S53" t="n">
         <v>3.5</v>
@@ -7600,10 +7600,10 @@
         <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W53" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X53" t="n">
         <v>14</v>
@@ -7639,7 +7639,7 @@
         <v>27</v>
       </c>
       <c r="AI53" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="n">
         <v>15</v>
@@ -7687,46 +7687,46 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="G54" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="H54" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I54" t="n">
         <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="K54" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="O54" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="P54" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R54" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="S54" t="n">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="T54" t="n">
         <v>1.04</v>
@@ -7735,10 +7735,10 @@
         <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W54" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G55" t="n">
         <v>8.800000000000001</v>
@@ -7831,10 +7831,10 @@
         <v>1.49</v>
       </c>
       <c r="I55" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J55" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K55" t="n">
         <v>4.8</v>
@@ -7852,7 +7852,7 @@
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q55" t="n">
         <v>2.02</v>
@@ -7870,7 +7870,7 @@
         <v>1.77</v>
       </c>
       <c r="V55" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
         <v>1.13</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G56" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
         <v>3.65</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K56" t="n">
         <v>3.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.46</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.48</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -847,22 +847,22 @@
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>44</v>
@@ -874,19 +874,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
         <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
@@ -895,19 +895,19 @@
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bodrum Belediyesi Bodrumspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.65</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.2</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
         <v>32</v>
       </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>24</v>
-      </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.99</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH6" t="n">
         <v>20</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AI6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL6" t="n">
         <v>65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>36</v>
       </c>
       <c r="AM6" t="n">
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.9</v>
+        <v>1.81</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.61</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.3</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P7" t="n">
-        <v>2.44</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10</v>
       </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>22</v>
-      </c>
       <c r="AH7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>19</v>
       </c>
-      <c r="AI7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>70</v>
-      </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>65</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>1.59</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>1.61</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2.02</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>2.16</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>12.5</v>
+        <v>5.8</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>2.24</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>3.75</v>
+        <v>1.86</v>
       </c>
       <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>32</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>450</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO10" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,73 +1873,73 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>8.199999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>2.02</v>
       </c>
       <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.13</v>
       </c>
-      <c r="P11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.84</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.94</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,22 +1951,22 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1978,13 +1978,13 @@
         <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>1.29</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>10.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>12.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>2.24</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="W12" t="n">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12</v>
       </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>24</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>2.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>2.06</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
         <v>980</v>
       </c>
-      <c r="AA13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>2.94</v>
       </c>
       <c r="I14" t="n">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>2.88</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>250</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
         <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2548,103 +2548,103 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.1</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
@@ -2653,10 +2653,10 @@
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J17" t="n">
         <v>4.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.43</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.28</v>
-      </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>1.94</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>19</v>
-      </c>
       <c r="AO17" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,34 +2818,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.1</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.87</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.89</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
@@ -2854,91 +2854,91 @@
         <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB18" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>20</v>
       </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
       <c r="AI18" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="n">
         <v>70</v>
       </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>5.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>1.88</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC20" t="n">
         <v>7.8</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>2.26</v>
       </c>
       <c r="G21" t="n">
-        <v>1.14</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>15.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.8</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.73</v>
       </c>
-      <c r="T21" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.4</v>
-      </c>
       <c r="X21" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>40</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM21" t="n">
         <v>110</v>
       </c>
-      <c r="AE21" t="n">
-        <v>540</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>320</v>
-      </c>
       <c r="AN21" t="n">
-        <v>2.48</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.87</v>
+        <v>1.1</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>1.14</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="P23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.24</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.44</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="Y23" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>540</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,67 +3628,67 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>2.34</v>
+        <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Forfar</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="G25" t="n">
-        <v>2.84</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>2.6</v>
       </c>
       <c r="X25" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
@@ -3931,94 +3931,94 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="X26" t="n">
         <v>29</v>
       </c>
       <c r="Y26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AA26" t="n">
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
         <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>9.800000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>2.92</v>
       </c>
       <c r="H27" t="n">
-        <v>1.37</v>
+        <v>2.42</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4</v>
+        <v>2.84</v>
       </c>
       <c r="J27" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.26</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R27" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>3.45</v>
+        <v>1.54</v>
       </c>
       <c r="W27" t="n">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Forfar</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="G28" t="n">
-        <v>1.94</v>
+        <v>3.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>2.36</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="W28" t="n">
-        <v>2.06</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S29" t="n">
         <v>2.38</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.55</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.62</v>
+        <v>3.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AH29" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="T30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.78</v>
       </c>
-      <c r="U30" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Z30" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AE30" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AO30" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>2.46</v>
+        <v>1.99</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,88 +4708,88 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
         <v>3.6</v>
       </c>
-      <c r="I32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.8</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="P32" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="S32" t="n">
-        <v>2.54</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="V32" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="W32" t="n">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
         <v>980</v>
       </c>
-      <c r="AA32" t="n">
-        <v>85</v>
-      </c>
       <c r="AB32" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
         <v>12</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>990</v>
       </c>
       <c r="AE32" t="n">
         <v>980</v>
@@ -4798,16 +4798,16 @@
         <v>980</v>
       </c>
       <c r="AG32" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
         <v>990</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
         <v>980</v>
@@ -4816,19 +4816,19 @@
         <v>980</v>
       </c>
       <c r="AM32" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G33" t="n">
-        <v>10.5</v>
+        <v>1.94</v>
       </c>
       <c r="H33" t="n">
-        <v>1.44</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.53</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.26</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.78</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.11</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>990</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P34" t="n">
         <v>2.14</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="Q34" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.42</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Z34" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI34" t="n">
         <v>65</v>
       </c>
-      <c r="AF34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -5113,67 +5113,67 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.36</v>
+        <v>6.4</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72</v>
+        <v>10.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="J35" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="T35" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.43</v>
+        <v>2.78</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>1.11</v>
       </c>
       <c r="X35" t="n">
         <v>990</v>
@@ -5185,28 +5185,28 @@
         <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
         <v>990</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>10</v>
       </c>
       <c r="AD35" t="n">
         <v>990</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,100 +5248,100 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>7.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>1.59</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>1.69</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
         <v>4.6</v>
       </c>
       <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.3</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S36" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="U36" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>1.32</v>
+        <v>2.42</v>
       </c>
       <c r="W36" t="n">
-        <v>1.79</v>
+        <v>1.16</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y36" t="n">
         <v>990</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="G37" t="n">
-        <v>1.26</v>
+        <v>2.72</v>
       </c>
       <c r="H37" t="n">
-        <v>13.5</v>
+        <v>2.82</v>
       </c>
       <c r="I37" t="n">
-        <v>14</v>
+        <v>3.7</v>
       </c>
       <c r="J37" t="n">
-        <v>7.4</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>2.76</v>
+        <v>1.95</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="R37" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="T37" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="W37" t="n">
-        <v>4.8</v>
+        <v>1.58</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y37" t="n">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="Z37" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA37" t="n">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AC37" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="AE37" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI37" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.26</v>
       </c>
       <c r="H38" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="T38" t="n">
         <v>1.68</v>
       </c>
       <c r="U38" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="X38" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="Z38" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.3</v>
+        <v>1.27</v>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="H39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T39" t="n">
         <v>2.08</v>
       </c>
-      <c r="I39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.91</v>
+        <v>1.08</v>
       </c>
       <c r="W39" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.8</v>
+        <v>46</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="AA39" t="n">
-        <v>24</v>
+        <v>570</v>
       </c>
       <c r="AB39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK39" t="n">
         <v>13</v>
       </c>
-      <c r="AC39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>60</v>
-      </c>
       <c r="AL39" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="n">
-        <v>80</v>
+        <v>4.1</v>
       </c>
       <c r="AO39" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.42</v>
+        <v>2.76</v>
       </c>
       <c r="G40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.43</v>
       </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="T40" t="n">
-        <v>1.99</v>
+        <v>1.69</v>
       </c>
       <c r="U40" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V40" t="n">
-        <v>1.12</v>
+        <v>1.56</v>
       </c>
       <c r="W40" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="X40" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD40" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AE40" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AF40" t="n">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AL40" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.8</v>
+        <v>22</v>
       </c>
       <c r="AO40" t="n">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="G41" t="n">
-        <v>2.38</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N41" t="n">
         <v>3.15</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5</v>
-      </c>
       <c r="O41" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="P41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q41" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q41" t="n">
-        <v>1.74</v>
-      </c>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="U41" t="n">
-        <v>2.54</v>
+        <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="W41" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="X41" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="Z41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA41" t="n">
         <v>24</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>55</v>
       </c>
       <c r="AB41" t="n">
         <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE41" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ41" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AK41" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AL41" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>1.42</v>
       </c>
       <c r="G42" t="n">
-        <v>7.2</v>
+        <v>1.43</v>
       </c>
       <c r="H42" t="n">
-        <v>1.61</v>
+        <v>9</v>
       </c>
       <c r="I42" t="n">
-        <v>1.69</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P42" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="R42" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="S42" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="U42" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V42" t="n">
-        <v>2.42</v>
+        <v>1.12</v>
       </c>
       <c r="W42" t="n">
-        <v>1.17</v>
+        <v>3.3</v>
       </c>
       <c r="X42" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="n">
-        <v>980</v>
+        <v>310</v>
       </c>
       <c r="AB42" t="n">
-        <v>990</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG42" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="G43" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="S43" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.94</v>
+        <v>2.54</v>
       </c>
       <c r="V43" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="W43" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y43" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF43" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>12</v>
       </c>
       <c r="AG43" t="n">
         <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI43" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO43" t="n">
         <v>23</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P44" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R44" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U44" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="V44" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC44" t="n">
         <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AE44" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF44" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL44" t="n">
         <v>55</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>60</v>
-      </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AO44" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I45" t="n">
         <v>5.2</v>
       </c>
-      <c r="G45" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.78</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="R45" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V45" t="n">
-        <v>2.28</v>
+        <v>1.23</v>
       </c>
       <c r="W45" t="n">
-        <v>1.2</v>
+        <v>2.02</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.64</v>
+        <v>3.1</v>
       </c>
       <c r="G46" t="n">
-        <v>1.77</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="I46" t="n">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="P46" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R46" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T46" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="U46" t="n">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="V46" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="W46" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.06</v>
+        <v>5.2</v>
       </c>
       <c r="G47" t="n">
-        <v>2.28</v>
+        <v>6.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.35</v>
+        <v>1.65</v>
       </c>
       <c r="I47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N47" t="n">
         <v>3.85</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S47" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T47" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.35</v>
+        <v>2.24</v>
       </c>
       <c r="W47" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="G48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P48" t="n">
         <v>1.59</v>
       </c>
-      <c r="H48" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="R48" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S48" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T48" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="U48" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="V48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W48" t="n">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="X48" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="G49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.35</v>
       </c>
-      <c r="H49" t="n">
-        <v>2.56</v>
-      </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="J49" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K49" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="P49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T49" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U49" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="V49" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="W49" t="n">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="X49" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA49" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>55</v>
-      </c>
       <c r="AO49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="G50" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P50" t="n">
         <v>1.91</v>
       </c>
-      <c r="H50" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.3</v>
-      </c>
       <c r="Q50" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="R50" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="S50" t="n">
-        <v>2.86</v>
+        <v>3.45</v>
       </c>
       <c r="T50" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="U50" t="n">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="V50" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="W50" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="X50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK50" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>17</v>
-      </c>
       <c r="AL50" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO50" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L51" t="n">
         <v>1.52</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="H51" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="M51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC51" t="n">
         <v>7</v>
       </c>
-      <c r="J51" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W51" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="X51" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC51" t="n">
+      <c r="AD51" t="n">
         <v>12</v>
       </c>
-      <c r="AD51" t="n">
-        <v>25</v>
-      </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH51" t="n">
         <v>21</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AM51" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G52" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="R52" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T52" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="U52" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="V52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W52" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X52" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA52" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB52" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL52" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM52" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AO52" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="G53" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H53" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="I53" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K53" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>1.93</v>
+        <v>2.48</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="R53" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="S53" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="U53" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="V53" t="n">
         <v>1.16</v>
       </c>
       <c r="W53" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="X53" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Y53" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Z53" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA53" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK53" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL53" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AM53" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AN53" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.22</v>
+        <v>1.92</v>
       </c>
       <c r="G54" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="H54" t="n">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.56</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>500</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>1.63</v>
+        <v>4.1</v>
       </c>
       <c r="O54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R54" t="n">
         <v>1.41</v>
       </c>
-      <c r="P54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.08</v>
-      </c>
       <c r="S54" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V54" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W54" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,260 +7808,530 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>8.4</v>
+        <v>1.61</v>
       </c>
       <c r="G55" t="n">
-        <v>8.800000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="H55" t="n">
-        <v>1.49</v>
+        <v>6.6</v>
       </c>
       <c r="I55" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="J55" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K55" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P55" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R55" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S55" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="T55" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="U55" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="W55" t="n">
-        <v>1.13</v>
+        <v>2.6</v>
       </c>
       <c r="X55" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Z55" t="n">
-        <v>7.8</v>
+        <v>55</v>
       </c>
       <c r="AA55" t="n">
-        <v>12.5</v>
+        <v>210</v>
       </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG55" t="n">
         <v>10</v>
       </c>
-      <c r="AD55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>32</v>
-      </c>
       <c r="AH55" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI55" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AJ55" t="n">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="AK55" t="n">
-        <v>150</v>
+        <v>17.5</v>
       </c>
       <c r="AL55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="n">
         <v>140</v>
       </c>
-      <c r="AM55" t="n">
-        <v>200</v>
-      </c>
       <c r="AN55" t="n">
-        <v>230</v>
+        <v>9.4</v>
       </c>
       <c r="AO55" t="n">
-        <v>8.800000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Calcio Avellino SSD</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>320</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>230</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>2025-12-27</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Estoril Praia</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Alverca</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F58" t="n">
         <v>2.28</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K56" t="n">
+      <c r="G58" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.55</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N58" t="n">
         <v>0</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O58" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P58" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q58" t="n">
         <v>2.1</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R58" t="n">
         <v>0</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S58" t="n">
         <v>0</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T58" t="n">
         <v>0</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U58" t="n">
         <v>0</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="n">
+      <c r="W58" t="n">
         <v>0</v>
       </c>
-      <c r="X56" t="n">
+      <c r="X58" t="n">
         <v>0</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Y58" t="n">
         <v>0</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="Z58" t="n">
         <v>0</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AA58" t="n">
         <v>0</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AB58" t="n">
         <v>0</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AC58" t="n">
         <v>0</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AD58" t="n">
         <v>0</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AE58" t="n">
         <v>0</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AF58" t="n">
         <v>0</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AG58" t="n">
         <v>0</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AH58" t="n">
         <v>0</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AI58" t="n">
         <v>0</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AJ58" t="n">
         <v>0</v>
       </c>
-      <c r="AK56" t="n">
+      <c r="AK58" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="n">
+      <c r="AM58" t="n">
         <v>0</v>
       </c>
-      <c r="AN56" t="n">
+      <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="n">
+      <c r="AO58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -847,7 +847,7 @@
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.51</v>
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>44</v>
@@ -871,7 +871,7 @@
         <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -955,31 +955,31 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.79</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -991,10 +991,10 @@
         <v>1.68</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1075,22 +1075,22 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
         <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,13 +1105,13 @@
         <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
         <v>1.71</v>
@@ -1168,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>110</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G6" t="n">
         <v>3.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.75</v>
       </c>
       <c r="H6" t="n">
         <v>2.38</v>
@@ -1252,16 +1252,16 @@
         <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
         <v>1.71</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>8.4</v>
@@ -1282,7 +1282,7 @@
         <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
         <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
         <v>17.5</v>
@@ -1405,10 +1405,10 @@
         <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1426,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1444,10 +1444,10 @@
         <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
         <v>1.61</v>
@@ -1510,7 +1510,7 @@
         <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
         <v>1.57</v>
@@ -1519,7 +1519,7 @@
         <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2.26</v>
@@ -1537,7 +1537,7 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
         <v>15.5</v>
@@ -1549,7 +1549,7 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE8" t="n">
         <v>15.5</v>
@@ -1558,7 +1558,7 @@
         <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1570,7 +1570,7 @@
         <v>170</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
         <v>65</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1645,10 +1645,10 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
         <v>3.5</v>
@@ -1660,7 +1660,7 @@
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W9" t="n">
         <v>1.45</v>
@@ -1675,10 +1675,10 @@
         <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
@@ -1693,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
         <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1774,19 +1774,19 @@
         <v>2.74</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
         <v>1.59</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
         <v>2.04</v>
@@ -1798,7 +1798,7 @@
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>4.9</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -1930,10 +1930,10 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2035,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2044,7 +2044,7 @@
         <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
         <v>2.6</v>
@@ -2056,7 +2056,7 @@
         <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T12" t="n">
         <v>1.9</v>
@@ -2083,10 +2083,10 @@
         <v>450</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>42</v>
@@ -2095,22 +2095,22 @@
         <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2161,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
@@ -2182,10 +2182,10 @@
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R13" t="n">
         <v>1.76</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2230,31 +2230,31 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
         <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
         <v>3.1</v>
@@ -2302,13 +2302,13 @@
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>3.55</v>
@@ -2326,7 +2326,7 @@
         <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.76</v>
@@ -2341,49 +2341,49 @@
         <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
         <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
@@ -2425,7 +2425,7 @@
         <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
         <v>4.4</v>
@@ -2440,7 +2440,7 @@
         <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2467,13 +2467,13 @@
         <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
@@ -2518,7 +2518,7 @@
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>180</v>
@@ -2563,7 +2563,7 @@
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
         <v>4.3</v>
@@ -2596,7 +2596,7 @@
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
         <v>2.06</v>
@@ -2638,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -2722,7 +2722,7 @@
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
         <v>1.82</v>
@@ -2788,7 +2788,7 @@
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>160</v>
@@ -2836,19 +2836,19 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>3.05</v>
@@ -2860,7 +2860,7 @@
         <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
         <v>1.26</v>
@@ -2878,7 +2878,7 @@
         <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2893,46 +2893,46 @@
         <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
@@ -2983,7 +2983,7 @@
         <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>3.2</v>
@@ -2995,7 +2995,7 @@
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
         <v>1.28</v>
@@ -3004,7 +3004,7 @@
         <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
         <v>1.94</v>
@@ -3013,7 +3013,7 @@
         <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
         <v>10.5</v>
@@ -3052,7 +3052,7 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3064,7 +3064,7 @@
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO19" t="n">
         <v>90</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
         <v>1.87</v>
@@ -3109,10 +3109,10 @@
         <v>1.88</v>
       </c>
       <c r="J20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3130,16 +3130,16 @@
         <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
         <v>1.82</v>
@@ -3148,7 +3148,7 @@
         <v>2.14</v>
       </c>
       <c r="W20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3157,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
@@ -3184,7 +3184,7 @@
         <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>140</v>
@@ -3235,34 +3235,34 @@
         <v>2.26</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
         <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3280,13 +3280,13 @@
         <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G22" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>2.56</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3508,25 +3508,25 @@
         <v>1.14</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
         <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.09</v>
@@ -3535,7 +3535,7 @@
         <v>3.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R23" t="n">
         <v>2.1</v>
@@ -3544,7 +3544,7 @@
         <v>1.73</v>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
         <v>1.66</v>
@@ -3559,46 +3559,46 @@
         <v>85</v>
       </c>
       <c r="Y23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z23" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
         <v>110</v>
       </c>
       <c r="AE23" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>320</v>
@@ -3655,7 +3655,7 @@
         <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3775,22 +3775,22 @@
         <v>1.52</v>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
         <v>5.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -3799,7 +3799,7 @@
         <v>4.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
         <v>2.2</v>
@@ -3811,7 +3811,7 @@
         <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
         <v>1.8</v>
@@ -3823,58 +3823,58 @@
         <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>26</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>27</v>
       </c>
       <c r="AE25" t="n">
         <v>110</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO25" t="n">
         <v>120</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
         <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="S26" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>29</v>
       </c>
-      <c r="Y26" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AK26" t="n">
         <v>24</v>
       </c>
-      <c r="AE26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>28</v>
-      </c>
       <c r="AL26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO26" t="n">
         <v>42</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>2.42</v>
       </c>
       <c r="I27" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -4060,7 +4060,7 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4177,46 +4177,46 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.36</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
         <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
         <v>1.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
         <v>1.72</v>
@@ -4225,16 +4225,16 @@
         <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
         <v>990</v>
       </c>
       <c r="Y28" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
         <v>990</v>
       </c>
       <c r="AC28" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>990</v>
@@ -4318,7 +4318,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I29" t="n">
         <v>1.39</v>
@@ -4327,7 +4327,7 @@
         <v>5.4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
@@ -4339,7 +4339,7 @@
         <v>5.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
         <v>2.6</v>
@@ -4366,7 +4366,7 @@
         <v>1.1</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -4417,7 +4417,7 @@
         <v>140</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
         <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.26</v>
@@ -4471,34 +4471,34 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V30" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X30" t="n">
         <v>990</v>
@@ -4507,10 +4507,10 @@
         <v>990</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
         <v>990</v>
@@ -4531,10 +4531,10 @@
         <v>990</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AI30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4543,13 +4543,13 @@
         <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AO30" t="n">
         <v>980</v>
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
         <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
         <v>3.5</v>
@@ -4612,7 +4612,7 @@
         <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" t="n">
         <v>2.02</v>
@@ -4624,22 +4624,22 @@
         <v>3.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X31" t="n">
         <v>13.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
         <v>36</v>
@@ -4651,7 +4651,7 @@
         <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
         <v>19</v>
@@ -4660,7 +4660,7 @@
         <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG31" t="n">
         <v>9.800000000000001</v>
@@ -4669,16 +4669,16 @@
         <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
         <v>120</v>
@@ -4723,7 +4723,7 @@
         <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I32" t="n">
         <v>2.6</v>
@@ -4735,10 +4735,10 @@
         <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
         <v>3.6</v>
@@ -4750,7 +4750,7 @@
         <v>1.89</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="R32" t="n">
         <v>1.34</v>
@@ -4759,7 +4759,7 @@
         <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
         <v>2.16</v>
@@ -4768,7 +4768,7 @@
         <v>1.62</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4855,10 +4855,10 @@
         <v>1.9</v>
       </c>
       <c r="G33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.9</v>
@@ -4867,22 +4867,22 @@
         <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>1.88</v>
@@ -4891,10 +4891,10 @@
         <v>1.39</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
         <v>2.12</v>
@@ -4906,10 +4906,10 @@
         <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z33" t="n">
         <v>38</v>
@@ -4936,7 +4936,7 @@
         <v>9.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI33" t="n">
         <v>65</v>
@@ -4951,13 +4951,13 @@
         <v>36</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
         <v>12.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>1.97</v>
       </c>
       <c r="G34" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
         <v>3.65</v>
@@ -5005,94 +5005,94 @@
         <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R34" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="T34" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W34" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="X34" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK34" t="n">
         <v>25</v>
       </c>
-      <c r="Z34" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
         <v>38</v>
       </c>
-      <c r="AK34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>46</v>
-      </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO34" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -5134,13 +5134,13 @@
         <v>1.53</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
         <v>6.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5263,19 +5263,19 @@
         <v>7.2</v>
       </c>
       <c r="H36" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="I36" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -5287,7 +5287,7 @@
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q36" t="n">
         <v>1.9</v>
@@ -5299,40 +5299,40 @@
         <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V36" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W36" t="n">
         <v>1.16</v>
       </c>
       <c r="X36" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="n">
         <v>990</v>
       </c>
       <c r="AC36" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -5398,10 +5398,10 @@
         <v>2.72</v>
       </c>
       <c r="H37" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5530,7 +5530,7 @@
         <v>2.02</v>
       </c>
       <c r="G38" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
@@ -5539,13 +5539,13 @@
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
         <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5566,7 +5566,7 @@
         <v>1.38</v>
       </c>
       <c r="S38" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T38" t="n">
         <v>1.68</v>
@@ -5578,25 +5578,25 @@
         <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
         <v>990</v>
       </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5608,7 +5608,7 @@
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5686,10 +5686,10 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
         <v>2.74</v>
@@ -5707,13 +5707,13 @@
         <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V39" t="n">
         <v>1.08</v>
       </c>
       <c r="W39" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X39" t="n">
         <v>32</v>
@@ -5725,13 +5725,13 @@
         <v>130</v>
       </c>
       <c r="AA39" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB39" t="n">
         <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD39" t="n">
         <v>46</v>
@@ -5743,7 +5743,7 @@
         <v>8</v>
       </c>
       <c r="AG39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
         <v>32</v>
@@ -5764,10 +5764,10 @@
         <v>160</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO39" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G40" t="n">
         <v>2.78</v>
@@ -5827,10 +5827,10 @@
         <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R40" t="n">
         <v>1.43</v>
@@ -5866,13 +5866,13 @@
         <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
         <v>12</v>
       </c>
       <c r="AE40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF40" t="n">
         <v>18.5</v>
@@ -5884,16 +5884,16 @@
         <v>15.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="n">
         <v>27</v>
       </c>
       <c r="AL40" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="n">
         <v>70</v>
@@ -5902,7 +5902,7 @@
         <v>22</v>
       </c>
       <c r="AO40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G41" t="n">
         <v>4.3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4.4</v>
       </c>
       <c r="H41" t="n">
         <v>2.08</v>
@@ -5950,13 +5950,13 @@
         <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.43</v>
@@ -5977,10 +5977,10 @@
         <v>2.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W41" t="n">
         <v>1.3</v>
@@ -5995,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB41" t="n">
         <v>13</v>
@@ -6013,7 +6013,7 @@
         <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>22</v>
@@ -6085,7 +6085,7 @@
         <v>5.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -6097,7 +6097,7 @@
         <v>1.24</v>
       </c>
       <c r="P42" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q42" t="n">
         <v>1.72</v>
@@ -6112,7 +6112,7 @@
         <v>1.99</v>
       </c>
       <c r="U42" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V42" t="n">
         <v>1.12</v>
@@ -6130,7 +6130,7 @@
         <v>80</v>
       </c>
       <c r="AA42" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB42" t="n">
         <v>9.199999999999999</v>
@@ -6154,7 +6154,7 @@
         <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
         <v>11.5</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G43" t="n">
         <v>2.38</v>
       </c>
-      <c r="G43" t="n">
-        <v>2.4</v>
-      </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I43" t="n">
         <v>3.25</v>
@@ -6235,7 +6235,7 @@
         <v>2.32</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R43" t="n">
         <v>1.52</v>
@@ -6247,19 +6247,19 @@
         <v>1.63</v>
       </c>
       <c r="U43" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V43" t="n">
         <v>1.44</v>
       </c>
       <c r="W43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X43" t="n">
         <v>18</v>
       </c>
       <c r="Y43" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z43" t="n">
         <v>24</v>
@@ -6271,7 +6271,7 @@
         <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD43" t="n">
         <v>13</v>
@@ -6304,10 +6304,10 @@
         <v>65</v>
       </c>
       <c r="AN43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -6346,7 +6346,7 @@
         <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6358,31 +6358,31 @@
         <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P44" t="n">
         <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R44" t="n">
         <v>1.24</v>
       </c>
       <c r="S44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U44" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V44" t="n">
         <v>1.32</v>
@@ -6391,10 +6391,10 @@
         <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
         <v>36</v>
@@ -6403,19 +6403,19 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE44" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG44" t="n">
         <v>13.5</v>
@@ -6424,25 +6424,25 @@
         <v>26</v>
       </c>
       <c r="AI44" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK44" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G45" t="n">
         <v>1.98</v>
@@ -6481,7 +6481,7 @@
         <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J45" t="n">
         <v>3.4</v>
@@ -6490,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6499,19 +6499,19 @@
         <v>3.3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P45" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
         <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T45" t="n">
         <v>1.87</v>
@@ -6526,58 +6526,58 @@
         <v>2.02</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA45" t="n">
         <v>140</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AF45" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL45" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM45" t="n">
         <v>150</v>
       </c>
       <c r="AN45" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -6619,16 +6619,16 @@
         <v>2.5</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
         <v>3.55</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
         <v>3</v>
@@ -6646,10 +6646,10 @@
         <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U46" t="n">
         <v>1.94</v>
@@ -6664,46 +6664,46 @@
         <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB46" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ46" t="n">
         <v>65</v>
       </c>
       <c r="AK46" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL46" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6712,7 +6712,7 @@
         <v>60</v>
       </c>
       <c r="AO46" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G47" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H47" t="n">
         <v>1.65</v>
       </c>
       <c r="I47" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="J47" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.37</v>
@@ -6766,31 +6766,31 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O47" t="n">
         <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q47" t="n">
         <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V47" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="W47" t="n">
         <v>1.2</v>
@@ -6883,13 +6883,13 @@
         <v>1.77</v>
       </c>
       <c r="H48" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I48" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K48" t="n">
         <v>4.6</v>
@@ -6898,10 +6898,10 @@
         <v>1.43</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.46</v>
@@ -6910,7 +6910,7 @@
         <v>1.59</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R48" t="n">
         <v>1.21</v>
@@ -6928,7 +6928,7 @@
         <v>1.14</v>
       </c>
       <c r="W48" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7036,7 +7036,7 @@
         <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="O49" t="n">
         <v>1.26</v>
@@ -7051,10 +7051,10 @@
         <v>1.43</v>
       </c>
       <c r="S49" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T49" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U49" t="n">
         <v>2.22</v>
@@ -7066,58 +7066,58 @@
         <v>1.78</v>
       </c>
       <c r="X49" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y49" t="n">
         <v>19</v>
       </c>
-      <c r="Y49" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z49" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA49" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB49" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE49" t="n">
         <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI49" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL49" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN49" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G50" t="n">
         <v>1.59</v>
@@ -7165,7 +7165,7 @@
         <v>4.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.89</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>4.4</v>
@@ -7447,10 +7447,10 @@
         <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R52" t="n">
         <v>1.52</v>
@@ -7459,7 +7459,7 @@
         <v>2.84</v>
       </c>
       <c r="T52" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U52" t="n">
         <v>2.36</v>
@@ -7468,10 +7468,10 @@
         <v>1.28</v>
       </c>
       <c r="W52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X52" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="n">
         <v>19.5</v>
@@ -7480,7 +7480,7 @@
         <v>34</v>
       </c>
       <c r="AA52" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB52" t="n">
         <v>11.5</v>
@@ -7516,13 +7516,13 @@
         <v>28</v>
       </c>
       <c r="AM52" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO52" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -7570,7 +7570,7 @@
         <v>5.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
@@ -7591,7 +7591,7 @@
         <v>1.6</v>
       </c>
       <c r="S53" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T53" t="n">
         <v>1.68</v>
@@ -7606,49 +7606,49 @@
         <v>2.62</v>
       </c>
       <c r="X53" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z53" t="n">
         <v>60</v>
       </c>
       <c r="AA53" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC53" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC53" t="n">
-        <v>12</v>
-      </c>
       <c r="AD53" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH53" t="n">
         <v>21</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM53" t="n">
         <v>100</v>
@@ -7657,7 +7657,7 @@
         <v>6.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
@@ -7705,13 +7705,13 @@
         <v>4.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="O54" t="n">
         <v>1.27</v>
@@ -7720,7 +7720,7 @@
         <v>2.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R54" t="n">
         <v>1.41</v>
@@ -7732,7 +7732,7 @@
         <v>1.73</v>
       </c>
       <c r="U54" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V54" t="n">
         <v>1.27</v>
@@ -7744,7 +7744,7 @@
         <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
         <v>36</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G55" t="n">
         <v>1.61</v>
       </c>
-      <c r="G55" t="n">
-        <v>1.63</v>
-      </c>
       <c r="H55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J55" t="n">
         <v>4.2</v>
@@ -7840,7 +7840,7 @@
         <v>4.4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -7852,16 +7852,16 @@
         <v>1.31</v>
       </c>
       <c r="P55" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q55" t="n">
         <v>1.9</v>
       </c>
       <c r="R55" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S55" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T55" t="n">
         <v>1.96</v>
@@ -7870,16 +7870,16 @@
         <v>1.91</v>
       </c>
       <c r="V55" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W55" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X55" t="n">
         <v>15</v>
       </c>
       <c r="Y55" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Z55" t="n">
         <v>55</v>
@@ -7900,7 +7900,7 @@
         <v>110</v>
       </c>
       <c r="AF55" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG55" t="n">
         <v>10</v>
@@ -7921,7 +7921,7 @@
         <v>40</v>
       </c>
       <c r="AM55" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="n">
         <v>9.4</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G56" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I56" t="n">
         <v>1000</v>
       </c>
       <c r="J56" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="K56" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7993,10 +7993,10 @@
         <v>1.42</v>
       </c>
       <c r="R56" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="S56" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T56" t="n">
         <v>1.04</v>
@@ -8005,7 +8005,7 @@
         <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W56" t="n">
         <v>1.58</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="n">
         <v>8.4</v>
       </c>
-      <c r="G57" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H57" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I57" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J57" t="n">
         <v>4.7</v>
@@ -8116,7 +8116,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O57" t="n">
         <v>1.34</v>
@@ -8137,10 +8137,10 @@
         <v>2.22</v>
       </c>
       <c r="U57" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W57" t="n">
         <v>1.13</v>
@@ -8230,13 +8230,13 @@
         <v>2.28</v>
       </c>
       <c r="G58" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +808,7 @@
         <v>2.46</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I3" t="n">
         <v>2.96</v>
@@ -832,7 +832,7 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
         <v>1.66</v>
@@ -946,7 +946,7 @@
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1114,16 +1114,16 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
@@ -1144,7 +1144,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1159,10 +1159,10 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="n">
         <v>55</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1237,7 +1237,7 @@
         <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
         <v>2.36</v>
@@ -1255,10 +1255,10 @@
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1291,10 +1291,10 @@
         <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>75</v>
@@ -1303,7 +1303,7 @@
         <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
         <v>130</v>
@@ -1360,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.61</v>
       </c>
       <c r="J8" t="n">
         <v>4.7</v>
@@ -1525,10 +1525,10 @@
         <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1540,10 +1540,10 @@
         <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1552,13 +1552,13 @@
         <v>9.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
         <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1567,10 +1567,10 @@
         <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
         <v>65</v>
@@ -1582,7 +1582,7 @@
         <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
         <v>2.58</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1642,10 +1642,10 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
@@ -1663,7 +1663,7 @@
         <v>1.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
@@ -1684,10 +1684,10 @@
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
         <v>24</v>
@@ -1750,55 +1750,55 @@
         <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>13.5</v>
@@ -1834,10 +1834,10 @@
         <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
         <v>32</v>
@@ -1849,10 +1849,10 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -1897,7 +1897,7 @@
         <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1906,10 +1906,10 @@
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
         <v>1.49</v>
@@ -1924,70 +1924,70 @@
         <v>4.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
         <v>1.36</v>
@@ -2032,49 +2032,49 @@
         <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
         <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
         <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
         <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
         <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
         <v>3.75</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>130</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
@@ -2110,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G13" t="n">
         <v>1.22</v>
@@ -2161,13 +2161,13 @@
         <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,28 +2176,28 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="S13" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V13" t="n">
         <v>1.04</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
         <v>55</v>
@@ -2245,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
         <v>2.82</v>
@@ -2302,7 +2302,7 @@
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,25 +2311,25 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.34</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
         <v>2.16</v>
@@ -2338,10 +2338,10 @@
         <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
         <v>13.5</v>
@@ -2356,7 +2356,7 @@
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
         <v>15.5</v>
@@ -2425,13 +2425,13 @@
         <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
@@ -2443,10 +2443,10 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O15" t="n">
         <v>1.48</v>
@@ -2473,13 +2473,13 @@
         <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2491,7 +2491,7 @@
         <v>7.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>20</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
         <v>2.32</v>
@@ -2566,7 +2566,7 @@
         <v>3.95</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2581,13 +2581,13 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
         <v>2.48</v>
@@ -2596,7 +2596,7 @@
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
         <v>2.06</v>
@@ -2641,7 +2641,7 @@
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2698,22 +2698,22 @@
         <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
         <v>1.43</v>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
         <v>990</v>
@@ -2755,49 +2755,49 @@
         <v>80</v>
       </c>
       <c r="AA17" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>990</v>
       </c>
       <c r="AI17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G18" t="n">
         <v>2.8</v>
@@ -2866,10 +2866,10 @@
         <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
         <v>1.96</v>
@@ -2878,61 +2878,61 @@
         <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>22</v>
       </c>
-      <c r="AA18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>44</v>
       </c>
-      <c r="AF18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>55</v>
-      </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2977,7 +2977,7 @@
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
         <v>1.49</v>
@@ -2992,7 +2992,7 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
         <v>2.28</v>
@@ -3010,10 +3010,10 @@
         <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X19" t="n">
         <v>10.5</v>
@@ -3043,13 +3043,13 @@
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
         <v>24</v>
@@ -3061,10 +3061,10 @@
         <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
         <v>90</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3121,7 +3121,7 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.46</v>
@@ -3136,19 +3136,19 @@
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
         <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3157,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA20" t="n">
         <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
@@ -3178,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
         <v>24</v>
@@ -3187,22 +3187,22 @@
         <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
         <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G21" t="n">
         <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -3250,7 +3250,7 @@
         <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,7 +3262,7 @@
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3274,7 +3274,7 @@
         <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
         <v>2.14</v>
@@ -3286,58 +3286,58 @@
         <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3418,7 +3418,7 @@
         <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3505,10 +3505,10 @@
         <v>1.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
         <v>30</v>
@@ -3532,7 +3532,7 @@
         <v>1.09</v>
       </c>
       <c r="P23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
         <v>1.28</v>
@@ -3640,7 +3640,7 @@
         <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
         <v>3.45</v>
@@ -3649,7 +3649,7 @@
         <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3688,7 +3688,7 @@
         <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3820,7 +3820,7 @@
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
         <v>2.58</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G26" t="n">
         <v>2.14</v>
@@ -4081,7 +4081,7 @@
         <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T27" t="n">
         <v>1.55</v>
@@ -4183,10 +4183,10 @@
         <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J28" t="n">
         <v>3.1</v>
@@ -4315,22 +4315,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I29" t="n">
         <v>1.39</v>
       </c>
       <c r="J29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4348,16 +4348,16 @@
         <v>1.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
         <v>2.38</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
         <v>3.5</v>
@@ -4369,7 +4369,7 @@
         <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>9.6</v>
@@ -4405,13 +4405,13 @@
         <v>390</v>
       </c>
       <c r="AK29" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AL29" t="n">
         <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
         <v>140</v>
@@ -4450,7 +4450,7 @@
         <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
@@ -4459,10 +4459,10 @@
         <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.26</v>
@@ -4474,19 +4474,19 @@
         <v>4.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
         <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R30" t="n">
         <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="T30" t="n">
         <v>1.58</v>
@@ -4498,25 +4498,25 @@
         <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X30" t="n">
         <v>990</v>
       </c>
       <c r="Y30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC30" t="n">
         <v>990</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
         <v>990</v>
@@ -4525,13 +4525,13 @@
         <v>980</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4549,10 +4549,10 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
         <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
@@ -4606,7 +4606,7 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.35</v>
@@ -4615,7 +4615,7 @@
         <v>1.86</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R31" t="n">
         <v>1.33</v>
@@ -4630,10 +4630,10 @@
         <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X31" t="n">
         <v>13.5</v>
@@ -4648,10 +4648,10 @@
         <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
         <v>19</v>
@@ -4684,7 +4684,7 @@
         <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO31" t="n">
         <v>75</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G32" t="n">
         <v>3.4</v>
@@ -4735,10 +4735,10 @@
         <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
         <v>3.6</v>
@@ -4750,13 +4750,13 @@
         <v>1.89</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
         <v>1.34</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
         <v>1.74</v>
@@ -4768,7 +4768,7 @@
         <v>1.62</v>
       </c>
       <c r="W32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4816,7 +4816,7 @@
         <v>980</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G33" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
         <v>4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -4876,10 +4876,10 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4894,31 +4894,31 @@
         <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
         <v>2.12</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Z33" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC33" t="n">
         <v>8.6</v>
@@ -4927,7 +4927,7 @@
         <v>18.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
         <v>12</v>
@@ -4936,10 +4936,10 @@
         <v>9.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
         <v>21</v>
@@ -4954,10 +4954,10 @@
         <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -5017,10 +5017,10 @@
         <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="R34" t="n">
         <v>1.48</v>
@@ -5044,16 +5044,16 @@
         <v>25</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
         <v>70</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>11.5</v>
@@ -5065,25 +5065,25 @@
         <v>48</v>
       </c>
       <c r="AF34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
         <v>85</v>
@@ -5131,13 +5131,13 @@
         <v>1.44</v>
       </c>
       <c r="I35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K35" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L35" t="n">
         <v>1.29</v>
@@ -5167,13 +5167,13 @@
         <v>1.89</v>
       </c>
       <c r="U35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V35" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="W35" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X35" t="n">
         <v>990</v>
@@ -5272,7 +5272,7 @@
         <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.38</v>
@@ -5398,10 +5398,10 @@
         <v>2.72</v>
       </c>
       <c r="H37" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="G38" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="R38" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="U38" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB38" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="G39" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="H39" t="n">
-        <v>12.5</v>
+        <v>4.4</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>5.3</v>
       </c>
       <c r="J39" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>4.5</v>
+        <v>2.02</v>
       </c>
       <c r="X39" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y39" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="Z39" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AA39" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AF39" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM39" t="n">
         <v>150</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>160</v>
-      </c>
       <c r="AN39" t="n">
-        <v>4.2</v>
+        <v>21</v>
       </c>
       <c r="AO39" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="G40" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="H40" t="n">
-        <v>2.76</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S40" t="n">
         <v>4.3</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T40" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="U40" t="n">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="X40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF40" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AK40" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="G41" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="I41" t="n">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="P41" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="R41" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S41" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="T41" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="U41" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6082,7 +6082,7 @@
         <v>5.3</v>
       </c>
       <c r="K42" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.32</v>
@@ -6094,25 +6094,25 @@
         <v>4.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P42" t="n">
         <v>2.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S42" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T42" t="n">
         <v>1.99</v>
       </c>
       <c r="U42" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V42" t="n">
         <v>1.12</v>
@@ -6121,7 +6121,7 @@
         <v>3.3</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
         <v>30</v>
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="G43" t="n">
-        <v>2.38</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="P43" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="U43" t="n">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="V43" t="n">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="W43" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="n">
         <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE43" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF43" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI43" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ43" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AL43" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.14</v>
+        <v>2.74</v>
       </c>
       <c r="G44" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S44" t="n">
         <v>3.15</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T44" t="n">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="U44" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="V44" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="W44" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="X44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="n">
         <v>13</v>
       </c>
-      <c r="Y44" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AF44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>26</v>
-      </c>
       <c r="AI44" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN44" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AO44" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="G45" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>12.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.3</v>
+        <v>13.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="R45" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="S45" t="n">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V45" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="W45" t="n">
-        <v>2.02</v>
+        <v>4.6</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Z45" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AA45" t="n">
-        <v>140</v>
+        <v>560</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AE45" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AF45" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AJ45" t="n">
-        <v>27</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK45" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AL45" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM45" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN45" t="n">
-        <v>18.5</v>
+        <v>4.2</v>
       </c>
       <c r="AO45" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="I46" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>1.68</v>
+        <v>2.32</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="R46" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="S46" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="T46" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="U46" t="n">
-        <v>1.94</v>
+        <v>2.56</v>
       </c>
       <c r="V46" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="W46" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y46" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB46" t="n">
         <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN46" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE46" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH46" t="n">
+      <c r="AO46" t="n">
         <v>24</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,67 +6733,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.3</v>
+        <v>2.04</v>
       </c>
       <c r="G47" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="I47" t="n">
-        <v>1.71</v>
+        <v>3.95</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
         <v>1.38</v>
       </c>
       <c r="S47" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T47" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="U47" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>2.4</v>
+        <v>1.34</v>
       </c>
       <c r="W47" t="n">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6808,10 +6808,10 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6823,7 +6823,7 @@
         <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="G48" t="n">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="H48" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>3.85</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K48" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.43</v>
       </c>
-      <c r="M48" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="T48" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="U48" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="W48" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="G49" t="n">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="I49" t="n">
-        <v>3.85</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N49" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="O49" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="P49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W49" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q49" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X49" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G50" t="n">
         <v>1.59</v>
@@ -7165,28 +7165,28 @@
         <v>4.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O50" t="n">
         <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q50" t="n">
         <v>1.98</v>
       </c>
       <c r="R50" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T50" t="n">
         <v>2.06</v>
@@ -7201,7 +7201,7 @@
         <v>2.68</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
         <v>24</v>
@@ -7213,7 +7213,7 @@
         <v>320</v>
       </c>
       <c r="AB50" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC50" t="n">
         <v>10.5</v>
@@ -7228,7 +7228,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
         <v>27</v>
@@ -7288,10 +7288,10 @@
         <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I51" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J51" t="n">
         <v>3.15</v>
@@ -7318,7 +7318,7 @@
         <v>2.46</v>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S51" t="n">
         <v>4.8</v>
@@ -7327,10 +7327,10 @@
         <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V51" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W51" t="n">
         <v>1.41</v>
@@ -7366,7 +7366,7 @@
         <v>15</v>
       </c>
       <c r="AH51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI51" t="n">
         <v>55</v>
@@ -7378,7 +7378,7 @@
         <v>46</v>
       </c>
       <c r="AL51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM51" t="n">
         <v>140</v>
@@ -7435,7 +7435,7 @@
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7462,7 +7462,7 @@
         <v>1.69</v>
       </c>
       <c r="U52" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V52" t="n">
         <v>1.28</v>
@@ -7489,7 +7489,7 @@
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE52" t="n">
         <v>46</v>
@@ -7507,7 +7507,7 @@
         <v>50</v>
       </c>
       <c r="AJ52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK52" t="n">
         <v>17</v>
@@ -7519,7 +7519,7 @@
         <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO52" t="n">
         <v>44</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G53" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>5.8</v>
@@ -7570,7 +7570,7 @@
         <v>5.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
@@ -7579,7 +7579,7 @@
         <v>5.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P53" t="n">
         <v>2.48</v>
@@ -7600,7 +7600,7 @@
         <v>2.18</v>
       </c>
       <c r="V53" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W53" t="n">
         <v>2.62</v>
@@ -7690,7 +7690,7 @@
         <v>1.92</v>
       </c>
       <c r="G54" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H54" t="n">
         <v>4.2</v>
@@ -7720,7 +7720,7 @@
         <v>2.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R54" t="n">
         <v>1.41</v>
@@ -7831,7 +7831,7 @@
         <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J55" t="n">
         <v>4.2</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H56" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7996,7 +7996,7 @@
         <v>1.15</v>
       </c>
       <c r="S56" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="T56" t="n">
         <v>1.04</v>
@@ -8005,10 +8005,10 @@
         <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W56" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8116,7 +8116,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O57" t="n">
         <v>1.34</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G58" t="n">
         <v>2.34</v>
@@ -8236,7 +8236,7 @@
         <v>3.55</v>
       </c>
       <c r="I58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>
@@ -8245,94 +8245,229 @@
         <v>3.55</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P58" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X59" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -838,7 +838,7 @@
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
         <v>2.62</v>
@@ -847,40 +847,40 @@
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -889,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
         <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
@@ -955,7 +955,7 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -970,13 +970,13 @@
         <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
         <v>1.8</v>
@@ -985,16 +985,16 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
         <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
         <v>2.38</v>
@@ -1087,13 +1087,13 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>3.65</v>
@@ -1105,7 +1105,7 @@
         <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1114,16 +1114,16 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1144,7 +1144,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1162,22 +1162,22 @@
         <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.2</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1234,85 +1234,85 @@
         <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
         <v>2.36</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
         <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1342,85 +1342,85 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
         <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1432,22 +1432,22 @@
         <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
       </c>
       <c r="H8" t="n">
         <v>1.59</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J8" t="n">
         <v>4.7</v>
@@ -1495,94 +1495,94 @@
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>9.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="n">
         <v>75</v>
       </c>
-      <c r="AL8" t="n">
-        <v>65</v>
-      </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9">
@@ -1642,7 +1642,7 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.98</v>
@@ -1651,10 +1651,10 @@
         <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
@@ -1663,10 +1663,10 @@
         <v>1.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1693,10 +1693,10 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
         <v>42</v>
@@ -1708,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.43</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="n">
         <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
         <v>110</v>
       </c>
       <c r="AJ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK10" t="n">
         <v>30</v>
       </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>140</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1903,16 +1903,16 @@
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.64</v>
@@ -1921,43 +1921,43 @@
         <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="n">
         <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>16.5</v>
@@ -1966,10 +1966,10 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
         <v>44</v>
@@ -1987,7 +1987,7 @@
         <v>46</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G12" t="n">
         <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
         <v>12.5</v>
@@ -2032,37 +2032,37 @@
         <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>1.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
         <v>1.09</v>
@@ -2077,49 +2077,49 @@
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,19 +2155,19 @@
         <v>1.18</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H13" t="n">
         <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="K13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,34 +2176,34 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V13" t="n">
         <v>1.04</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="X13" t="n">
         <v>990</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2230,31 +2230,31 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G14" t="n">
         <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2317,82 +2317,82 @@
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
         <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T14" t="n">
         <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
         <v>2.08</v>
@@ -2440,16 +2440,16 @@
         <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
         <v>1.62</v>
@@ -2458,16 +2458,16 @@
         <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
         <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
@@ -2479,16 +2479,16 @@
         <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC15" t="n">
         <v>7.8</v>
@@ -2497,37 +2497,37 @@
         <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2575,94 +2575,94 @@
         <v>3.2</v>
       </c>
       <c r="L16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.52</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
         <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
         <v>9</v>
@@ -2707,7 +2707,7 @@
         <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
@@ -2725,19 +2725,19 @@
         <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
         <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
         <v>1.12</v>
@@ -2752,10 +2752,10 @@
         <v>990</v>
       </c>
       <c r="Z17" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AB17" t="n">
         <v>9.800000000000001</v>
@@ -2764,40 +2764,40 @@
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AE17" t="n">
         <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
         <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
         <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2854,55 +2854,55 @@
         <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
         <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
         <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
         <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
         <v>16.5</v>
@@ -2911,28 +2911,28 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2962,40 +2962,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
         <v>1.28</v>
@@ -3010,31 +3010,31 @@
         <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
         <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC19" t="n">
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
         <v>70</v>
@@ -3043,13 +3043,13 @@
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
         <v>24</v>
@@ -3061,10 +3061,10 @@
         <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>90</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.84</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.85</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3121,7 +3121,7 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
         <v>1.46</v>
@@ -3139,10 +3139,10 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
         <v>2.18</v>
@@ -3154,10 +3154,10 @@
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA20" t="n">
         <v>19</v>
@@ -3175,22 +3175,22 @@
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="n">
         <v>22</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL20" t="n">
         <v>110</v>
@@ -3199,7 +3199,7 @@
         <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO20" t="n">
         <v>16.5</v>
@@ -3235,16 +3235,16 @@
         <v>2.28</v>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.4</v>
@@ -3253,16 +3253,16 @@
         <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3271,7 +3271,7 @@
         <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
         <v>1.78</v>
@@ -3280,10 +3280,10 @@
         <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
         <v>16.5</v>
@@ -3292,52 +3292,52 @@
         <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
         <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="O22" t="n">
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3508,16 +3508,16 @@
         <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
         <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.15</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.09</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q23" t="n">
         <v>1.28</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S23" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="T23" t="n">
         <v>2.22</v>
@@ -3553,13 +3553,13 @@
         <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Z23" t="n">
         <v>350</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AD23" t="n">
         <v>110</v>
@@ -3583,28 +3583,28 @@
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI23" t="n">
         <v>320</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM23" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,37 +3640,37 @@
         <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
         <v>2.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
         <v>1.25</v>
@@ -3679,13 +3679,13 @@
         <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.72</v>
@@ -3775,10 +3775,10 @@
         <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>
@@ -3790,94 +3790,94 @@
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="V25" t="n">
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X25" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y25" t="n">
         <v>25</v>
       </c>
-      <c r="Y25" t="n">
-        <v>29</v>
-      </c>
       <c r="Z25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,97 +3907,97 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
         <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="R26" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
         <v>19.5</v>
       </c>
       <c r="AE26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
         <v>50</v>
       </c>
-      <c r="AF26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
@@ -4006,13 +4006,13 @@
         <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>2.42</v>
       </c>
       <c r="I27" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -4060,7 +4060,7 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4081,16 +4081,16 @@
         <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="T27" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U27" t="n">
         <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W27" t="n">
         <v>1.52</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4177,64 +4177,64 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>500</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
         <v>2.92</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.5</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="U28" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>990</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>13</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
         <v>990</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AD28" t="n">
         <v>990</v>
@@ -4270,7 +4270,7 @@
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4315,7 +4315,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
         <v>1.36</v>
@@ -4324,49 +4324,49 @@
         <v>1.39</v>
       </c>
       <c r="J29" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
         <v>1.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W29" t="n">
         <v>1.1</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4375,13 +4375,13 @@
         <v>9.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
         <v>10.5</v>
@@ -4390,7 +4390,7 @@
         <v>13.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="n">
         <v>36</v>
@@ -4414,10 +4414,10 @@
         <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="30">
@@ -4447,64 +4447,64 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="I30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.7</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>500</v>
       </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.04</v>
       </c>
-      <c r="N30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.36</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
         <v>990</v>
       </c>
       <c r="Y30" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,7 +4513,7 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AC30" t="n">
         <v>990</v>
@@ -4522,16 +4522,16 @@
         <v>990</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,7 +4540,7 @@
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4591,13 +4591,13 @@
         <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
         <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
@@ -4612,7 +4612,7 @@
         <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
         <v>2.04</v>
@@ -4621,13 +4621,13 @@
         <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>1.25</v>
@@ -4639,19 +4639,19 @@
         <v>13.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z31" t="n">
         <v>36</v>
       </c>
       <c r="AA31" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
         <v>19</v>
@@ -4666,7 +4666,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>75</v>
@@ -4681,7 +4681,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
         <v>14.5</v>
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
         <v>2.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
         <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -4747,40 +4747,40 @@
         <v>1.34</v>
       </c>
       <c r="P32" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V32" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="W32" t="n">
         <v>1.42</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
         <v>12.5</v>
@@ -4789,31 +4789,31 @@
         <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
         <v>110</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>4.6</v>
@@ -4867,7 +4867,7 @@
         <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -4876,43 +4876,43 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
         <v>1.39</v>
       </c>
       <c r="S33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
         <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="n">
         <v>110</v>
@@ -4939,7 +4939,7 @@
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
         <v>21</v>
@@ -4954,7 +4954,7 @@
         <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO33" t="n">
         <v>65</v>
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="I34" t="n">
         <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>2.94</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L34" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>2.48</v>
       </c>
       <c r="O34" t="n">
         <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="S34" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="U34" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="V34" t="n">
         <v>1.3</v>
       </c>
       <c r="W34" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC34" t="n">
         <v>13</v>
       </c>
-      <c r="AC34" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AE34" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
         <v>17</v>
       </c>
-      <c r="AI34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>14</v>
-      </c>
       <c r="AO34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.4</v>
+        <v>1.12</v>
       </c>
       <c r="G35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I35" t="n">
         <v>1.54</v>
@@ -5137,31 +5137,31 @@
         <v>4.1</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
         <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T35" t="n">
         <v>1.89</v>
@@ -5182,10 +5182,10 @@
         <v>990</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
         <v>1000</v>
@@ -5197,7 +5197,7 @@
         <v>990</v>
       </c>
       <c r="AE35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
         <v>1000</v>
@@ -5260,10 +5260,10 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I36" t="n">
         <v>1.7</v>
@@ -5272,7 +5272,7 @@
         <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
         <v>1.38</v>
@@ -5290,49 +5290,49 @@
         <v>1.91</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
         <v>1.35</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W36" t="n">
         <v>1.16</v>
       </c>
       <c r="X36" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
         <v>990</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AE36" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,46 +5392,46 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="G37" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H37" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>1.32</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
         <v>1.68</v>
@@ -5440,10 +5440,10 @@
         <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X37" t="n">
         <v>990</v>
@@ -5452,7 +5452,7 @@
         <v>990</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5461,7 +5461,7 @@
         <v>990</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AD37" t="n">
         <v>990</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
         <v>990</v>
@@ -5530,25 +5530,25 @@
         <v>3.35</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H38" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I38" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
         <v>3</v>
@@ -5563,25 +5563,25 @@
         <v>2.18</v>
       </c>
       <c r="R38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S38" t="n">
         <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="W38" t="n">
         <v>1.4</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
@@ -5590,13 +5590,13 @@
         <v>19.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB38" t="n">
         <v>13.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
         <v>14.5</v>
@@ -5662,37 +5662,37 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G39" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L39" t="n">
         <v>1.43</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
         <v>3.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q39" t="n">
         <v>2.02</v>
@@ -5710,61 +5710,61 @@
         <v>1.94</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W39" t="n">
         <v>2.02</v>
       </c>
       <c r="X39" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL39" t="n">
         <v>50</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>980</v>
       </c>
       <c r="AM39" t="n">
         <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5803,13 +5803,13 @@
         <v>2.26</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I40" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
         <v>3.5</v>
@@ -5818,16 +5818,16 @@
         <v>1.42</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
         <v>2.88</v>
       </c>
       <c r="O40" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q40" t="n">
         <v>2.28</v>
@@ -5836,16 +5836,16 @@
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U40" t="n">
         <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W40" t="n">
         <v>1.79</v>
@@ -5857,7 +5857,7 @@
         <v>14.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>21</v>
       </c>
       <c r="AE40" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
         <v>15.5</v>
@@ -5881,13 +5881,13 @@
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK40" t="n">
         <v>34</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G41" t="n">
         <v>6.4</v>
@@ -5941,7 +5941,7 @@
         <v>1.69</v>
       </c>
       <c r="I41" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -5956,7 +5956,7 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O41" t="n">
         <v>1.28</v>
@@ -5974,13 +5974,13 @@
         <v>3.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W41" t="n">
         <v>1.2</v>
@@ -5989,7 +5989,7 @@
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -6001,10 +6001,10 @@
         <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.42</v>
       </c>
-      <c r="G42" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J42" t="n">
         <v>5.3</v>
@@ -6100,13 +6100,13 @@
         <v>2.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R42" t="n">
         <v>1.54</v>
       </c>
       <c r="S42" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T42" t="n">
         <v>1.99</v>
@@ -6115,19 +6115,19 @@
         <v>1.97</v>
       </c>
       <c r="V42" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA42" t="n">
         <v>300</v>
@@ -6139,7 +6139,7 @@
         <v>11.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="n">
         <v>130</v>
@@ -6154,7 +6154,7 @@
         <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ42" t="n">
         <v>11.5</v>
@@ -6166,10 +6166,10 @@
         <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO42" t="n">
         <v>150</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I43" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="J43" t="n">
         <v>3.45</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L43" t="n">
         <v>1.49</v>
@@ -6226,7 +6226,7 @@
         <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O43" t="n">
         <v>1.43</v>
@@ -6235,7 +6235,7 @@
         <v>1.73</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R43" t="n">
         <v>1.27</v>
@@ -6250,40 +6250,40 @@
         <v>1.93</v>
       </c>
       <c r="V43" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X43" t="n">
         <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z43" t="n">
         <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
         <v>11</v>
       </c>
       <c r="AE43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF43" t="n">
         <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH43" t="n">
         <v>22</v>
@@ -6292,22 +6292,22 @@
         <v>46</v>
       </c>
       <c r="AJ43" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN43" t="n">
         <v>80</v>
       </c>
       <c r="AO43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="44">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="G44" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="H44" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J44" t="n">
         <v>3.55</v>
@@ -6355,55 +6355,55 @@
         <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V44" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W44" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X44" t="n">
         <v>15.5</v>
       </c>
       <c r="Y44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB44" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>13</v>
       </c>
       <c r="AC44" t="n">
         <v>7.8</v>
@@ -6412,34 +6412,34 @@
         <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF44" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI44" t="n">
         <v>38</v>
       </c>
       <c r="AJ44" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL44" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO44" t="n">
         <v>22</v>
@@ -6478,7 +6478,7 @@
         <v>1.28</v>
       </c>
       <c r="H45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I45" t="n">
         <v>13.5</v>
@@ -6511,13 +6511,13 @@
         <v>1.68</v>
       </c>
       <c r="S45" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T45" t="n">
         <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V45" t="n">
         <v>1.08</v>
@@ -6538,7 +6538,7 @@
         <v>560</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>16.5</v>
@@ -6631,16 +6631,16 @@
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
         <v>2.32</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
         <v>1.52</v>
@@ -6649,10 +6649,10 @@
         <v>2.86</v>
       </c>
       <c r="T46" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U46" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V46" t="n">
         <v>1.45</v>
@@ -6661,10 +6661,10 @@
         <v>1.71</v>
       </c>
       <c r="X46" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
         <v>24</v>
@@ -6673,7 +6673,7 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>8.4</v>
@@ -6742,91 +6742,91 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H47" t="n">
         <v>3.35</v>
       </c>
       <c r="I47" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O47" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R47" t="n">
         <v>1.38</v>
       </c>
       <c r="S47" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T47" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U47" t="n">
         <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W47" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6844,7 +6844,7 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,52 +6877,52 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G48" t="n">
         <v>2.24</v>
       </c>
       <c r="H48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="n">
         <v>1.26</v>
       </c>
       <c r="P48" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S48" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="T48" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="U48" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V48" t="n">
         <v>1.35</v>
@@ -6931,58 +6931,58 @@
         <v>1.8</v>
       </c>
       <c r="X48" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD48" t="n">
         <v>22</v>
       </c>
-      <c r="Y48" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE48" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AH48" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AI48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7012,58 +7012,58 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G49" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="I49" t="n">
         <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K49" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M49" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
         <v>2.72</v>
       </c>
       <c r="O49" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P49" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R49" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="S49" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W49" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7078,7 +7078,7 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC49" t="n">
         <v>1000</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G50" t="n">
         <v>1.59</v>
@@ -7177,22 +7177,22 @@
         <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
         <v>2.06</v>
       </c>
       <c r="U50" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V50" t="n">
         <v>1.13</v>
@@ -7201,37 +7201,37 @@
         <v>2.68</v>
       </c>
       <c r="X50" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z50" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AA50" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE50" t="n">
         <v>160</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI50" t="n">
         <v>150</v>
@@ -7240,19 +7240,19 @@
         <v>15</v>
       </c>
       <c r="AK50" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
         <v>200</v>
       </c>
       <c r="AN50" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7309,10 +7309,10 @@
         <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P51" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q51" t="n">
         <v>2.46</v>
@@ -7327,7 +7327,7 @@
         <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V51" t="n">
         <v>1.62</v>
@@ -7336,10 +7336,10 @@
         <v>1.41</v>
       </c>
       <c r="X51" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z51" t="n">
         <v>14.5</v>
@@ -7369,7 +7369,7 @@
         <v>20</v>
       </c>
       <c r="AI51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ51" t="n">
         <v>60</v>
@@ -7378,10 +7378,10 @@
         <v>46</v>
       </c>
       <c r="AL51" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM51" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN51" t="n">
         <v>55</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G52" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H52" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I52" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4.5</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7435,7 +7435,7 @@
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7447,40 +7447,40 @@
         <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R52" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S52" t="n">
         <v>2.84</v>
       </c>
       <c r="T52" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U52" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V52" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W52" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y52" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA52" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB52" t="n">
         <v>11.5</v>
@@ -7489,40 +7489,40 @@
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF52" t="n">
         <v>12.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH52" t="n">
         <v>16.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
         <v>17</v>
       </c>
       <c r="AL52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM52" t="n">
         <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7555,7 +7555,7 @@
         <v>1.53</v>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H53" t="n">
         <v>5.8</v>
@@ -7585,16 +7585,16 @@
         <v>2.48</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R53" t="n">
         <v>1.6</v>
       </c>
       <c r="S53" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U53" t="n">
         <v>2.18</v>
@@ -7603,13 +7603,13 @@
         <v>1.17</v>
       </c>
       <c r="W53" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X53" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y53" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z53" t="n">
         <v>60</v>
@@ -7618,7 +7618,7 @@
         <v>190</v>
       </c>
       <c r="AB53" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
         <v>12.5</v>
@@ -7630,10 +7630,10 @@
         <v>85</v>
       </c>
       <c r="AF53" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
         <v>21</v>
@@ -7642,13 +7642,13 @@
         <v>70</v>
       </c>
       <c r="AJ53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL53" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM53" t="n">
         <v>100</v>
@@ -7657,7 +7657,7 @@
         <v>6.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7693,46 +7693,46 @@
         <v>1.97</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J54" t="n">
         <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O54" t="n">
         <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="S54" t="n">
         <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U54" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V54" t="n">
         <v>1.27</v>
@@ -7741,58 +7741,58 @@
         <v>2.02</v>
       </c>
       <c r="X54" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z54" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL54" t="n">
         <v>36</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>34</v>
       </c>
       <c r="AM54" t="n">
         <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G55" t="n">
         <v>1.61</v>
@@ -7861,10 +7861,10 @@
         <v>1.38</v>
       </c>
       <c r="S55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T55" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U55" t="n">
         <v>1.91</v>
@@ -7879,7 +7879,7 @@
         <v>15</v>
       </c>
       <c r="Y55" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="Z55" t="n">
         <v>55</v>
@@ -7960,16 +7960,16 @@
         <v>2.4</v>
       </c>
       <c r="G56" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J56" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>3.2</v>
@@ -8005,10 +8005,10 @@
         <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W56" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G57" t="n">
         <v>8.4</v>
@@ -8110,7 +8110,7 @@
         <v>4.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8122,7 +8122,7 @@
         <v>1.34</v>
       </c>
       <c r="P57" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q57" t="n">
         <v>2.02</v>
@@ -8131,7 +8131,7 @@
         <v>1.35</v>
       </c>
       <c r="S57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T57" t="n">
         <v>2.22</v>
@@ -8140,7 +8140,7 @@
         <v>1.78</v>
       </c>
       <c r="V57" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="W57" t="n">
         <v>1.13</v>
@@ -8197,7 +8197,7 @@
         <v>230</v>
       </c>
       <c r="AO57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="58">
@@ -8251,28 +8251,28 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O58" t="n">
         <v>1.37</v>
       </c>
       <c r="P58" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R58" t="n">
         <v>1.28</v>
       </c>
       <c r="S58" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T58" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V58" t="n">
         <v>1.37</v>
@@ -8281,7 +8281,7 @@
         <v>1.74</v>
       </c>
       <c r="X58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
         <v>13</v>
@@ -8290,7 +8290,7 @@
         <v>26</v>
       </c>
       <c r="AA58" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
         <v>9.6</v>
@@ -8314,7 +8314,7 @@
         <v>19.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
         <v>34</v>
@@ -8326,13 +8326,13 @@
         <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -8386,19 +8386,19 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q59" t="n">
         <v>1.32</v>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S59" t="n">
         <v>1.32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
         <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
         <v>2.78</v>
@@ -823,7 +823,7 @@
         <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>5.2</v>
@@ -859,19 +859,19 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -880,10 +880,10 @@
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -973,10 +973,10 @@
         <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
         <v>1.8</v>
@@ -985,16 +985,16 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
         <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1078,10 +1078,10 @@
         <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1093,7 +1093,7 @@
         <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.65</v>
@@ -1114,7 +1114,7 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>2.14</v>
@@ -1123,7 +1123,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1144,7 +1144,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1159,22 +1159,22 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>18.5</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
@@ -1228,7 +1228,7 @@
         <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>3.1</v>
@@ -1252,22 +1252,22 @@
         <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>36</v>
@@ -1279,13 +1279,13 @@
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
@@ -1306,10 +1306,10 @@
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
         <v>29</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G7" t="n">
         <v>1.93</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
         <v>4.8</v>
@@ -1357,7 +1357,7 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,28 +1369,28 @@
         <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
         <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
         <v>2.06</v>
@@ -1399,7 +1399,7 @@
         <v>18.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
         <v>36</v>
@@ -1408,10 +1408,10 @@
         <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
         <v>18.5</v>
@@ -1483,7 +1483,7 @@
         <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
         <v>1.61</v>
@@ -1504,25 +1504,25 @@
         <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
         <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
         <v>2.62</v>
@@ -1546,13 +1546,13 @@
         <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
         <v>46</v>
@@ -1567,13 +1567,13 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK8" t="n">
         <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>95</v>
@@ -1621,7 +1621,7 @@
         <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1645,7 +1645,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
@@ -1654,16 +1654,16 @@
         <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1672,10 +1672,10 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1687,7 +1687,7 @@
         <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1708,13 +1708,13 @@
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
         <v>23</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
         <v>5.3</v>
@@ -1765,43 +1765,43 @@
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
         <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>16.5</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1915,7 +1915,7 @@
         <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -1924,40 +1924,40 @@
         <v>5.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
         <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>16.5</v>
@@ -1966,10 +1966,10 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>44</v>
@@ -1987,7 +1987,7 @@
         <v>46</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
         <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
         <v>5.8</v>
@@ -2035,52 +2035,52 @@
         <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W12" t="n">
         <v>3.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2089,37 +2089,37 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,7 +2158,7 @@
         <v>1.23</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="I13" t="n">
         <v>26</v>
@@ -2179,22 +2179,22 @@
         <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
         <v>1.64</v>
@@ -2233,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>990</v>
@@ -2242,10 +2242,10 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
@@ -2314,10 +2314,10 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
         <v>2.04</v>
@@ -2329,10 +2329,10 @@
         <v>3.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
         <v>1.48</v>
@@ -2356,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
         <v>13.5</v>
@@ -2371,7 +2371,7 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2386,7 +2386,7 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
         <v>32</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
         <v>2.08</v>
@@ -2437,10 +2437,10 @@
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
         <v>30</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
         <v>2.28</v>
@@ -2575,7 +2575,7 @@
         <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M16" t="n">
         <v>1.12</v>
@@ -2590,7 +2590,7 @@
         <v>1.59</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
@@ -2608,7 +2608,7 @@
         <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
         <v>9.4</v>
@@ -2623,7 +2623,7 @@
         <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
@@ -2650,7 +2650,7 @@
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
@@ -2695,7 +2695,7 @@
         <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>8.4</v>
@@ -2707,13 +2707,13 @@
         <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
         <v>1.42</v>
@@ -2734,7 +2734,7 @@
         <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
         <v>1.88</v>
@@ -2785,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL17" t="n">
         <v>46</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
         <v>2.76</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
         <v>3.3</v>
@@ -2842,22 +2842,22 @@
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
         <v>2.3</v>
@@ -2872,13 +2872,13 @@
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
         <v>10.5</v>
@@ -2890,13 +2890,13 @@
         <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>17</v>
@@ -2911,7 +2911,7 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
@@ -2932,7 +2932,7 @@
         <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.99</v>
       </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2992,7 +2992,7 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
         <v>2.26</v>
@@ -3010,7 +3010,7 @@
         <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W19" t="n">
         <v>2</v>
@@ -3025,7 +3025,7 @@
         <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
         <v>7.6</v>
@@ -3055,7 +3055,7 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>46</v>
@@ -3124,7 +3124,7 @@
         <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
         <v>1.7</v>
@@ -3139,7 +3139,7 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
@@ -3154,7 +3154,7 @@
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
         <v>9.199999999999999</v>
@@ -3172,7 +3172,7 @@
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
         <v>40</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
         <v>2.36</v>
@@ -3247,22 +3247,22 @@
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3274,13 +3274,13 @@
         <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
         <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
         <v>1.73</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
         <v>2.12</v>
@@ -3382,7 +3382,7 @@
         <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3409,7 +3409,7 @@
         <v>2.26</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
         <v>1.04</v>
@@ -3508,7 +3508,7 @@
         <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
         <v>30</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.09</v>
@@ -3535,7 +3535,7 @@
         <v>3.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R23" t="n">
         <v>2.12</v>
@@ -3553,10 +3553,10 @@
         <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="n">
         <v>120</v>
@@ -3571,7 +3571,7 @@
         <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="n">
         <v>110</v>
@@ -3637,31 +3637,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
         <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
@@ -3676,19 +3676,19 @@
         <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
         <v>1.91</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3778,10 +3778,10 @@
         <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
@@ -3790,94 +3790,94 @@
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X25" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
         <v>25</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
         <v>2.16</v>
@@ -3916,7 +3916,7 @@
         <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -3946,7 +3946,7 @@
         <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
@@ -3976,7 +3976,7 @@
         <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
         <v>19.5</v>
@@ -4051,7 +4051,7 @@
         <v>2.42</v>
       </c>
       <c r="I27" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -4081,16 +4081,16 @@
         <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="T27" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
         <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W27" t="n">
         <v>1.52</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4177,61 +4177,61 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="H28" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>500</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="W28" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Y28" t="n">
         <v>990</v>
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="I29" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>3.55</v>
+        <v>2.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="X29" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AB29" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
         <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM29" t="n">
         <v>95</v>
       </c>
-      <c r="AG29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>390</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="30">
@@ -4450,10 +4450,10 @@
         <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="H30" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
         <v>3.6</v>
@@ -4462,16 +4462,16 @@
         <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>500</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
@@ -4480,25 +4480,25 @@
         <v>2.34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="S30" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
         <v>990</v>
@@ -4516,7 +4516,7 @@
         <v>990</v>
       </c>
       <c r="AC30" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
         <v>990</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
         <v>1.93</v>
@@ -4636,10 +4636,10 @@
         <v>2.06</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
         <v>36</v>
@@ -4666,7 +4666,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>75</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
         <v>2.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4747,7 +4747,7 @@
         <v>1.34</v>
       </c>
       <c r="P32" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q32" t="n">
         <v>1.96</v>
@@ -4756,19 +4756,19 @@
         <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
         <v>2.18</v>
       </c>
       <c r="V32" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X32" t="n">
         <v>17</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G33" t="n">
         <v>1.9</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I33" t="n">
         <v>4.9</v>
@@ -4867,7 +4867,7 @@
         <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -4882,7 +4882,7 @@
         <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
         <v>1.89</v>
@@ -4900,13 +4900,13 @@
         <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
         <v>2.1</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>17</v>
@@ -4951,7 +4951,7 @@
         <v>36</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
         <v>12.5</v>
@@ -4987,31 +4987,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H34" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J34" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>2.48</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.23</v>
@@ -5023,76 +5023,76 @@
         <v>1.64</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="T34" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="U34" t="n">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
         <v>18</v>
       </c>
-      <c r="AC34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>990</v>
-      </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF34" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK34" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.12</v>
+        <v>6.4</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I35" t="n">
         <v>1.54</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.28</v>
@@ -5146,28 +5146,28 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
         <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
         <v>2.84</v>
@@ -5260,19 +5260,19 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I36" t="n">
         <v>1.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.38</v>
@@ -5317,7 +5317,7 @@
         <v>8.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,46 +5392,46 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G37" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H37" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.32</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="T37" t="n">
         <v>1.68</v>
@@ -5440,10 +5440,10 @@
         <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X37" t="n">
         <v>990</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="G38" t="n">
         <v>3.45</v>
@@ -5536,16 +5536,16 @@
         <v>2.42</v>
       </c>
       <c r="I38" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J38" t="n">
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -5575,7 +5575,7 @@
         <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W38" t="n">
         <v>1.4</v>
@@ -5620,7 +5620,7 @@
         <v>65</v>
       </c>
       <c r="AK38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL38" t="n">
         <v>70</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G39" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
@@ -5677,10 +5677,10 @@
         <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -5701,7 +5701,7 @@
         <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T39" t="n">
         <v>1.87</v>
@@ -5710,10 +5710,10 @@
         <v>1.94</v>
       </c>
       <c r="V39" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X39" t="n">
         <v>16</v>
@@ -5743,7 +5743,7 @@
         <v>14</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
         <v>25</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="G41" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H41" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I41" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.31</v>
@@ -5965,7 +5965,7 @@
         <v>1.98</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R41" t="n">
         <v>1.38</v>
@@ -5980,19 +5980,19 @@
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="W41" t="n">
         <v>1.2</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>990</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
@@ -6001,25 +6001,25 @@
         <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG41" t="n">
         <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
@@ -6073,7 +6073,7 @@
         <v>1.42</v>
       </c>
       <c r="H42" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I42" t="n">
         <v>9.6</v>
@@ -6082,7 +6082,7 @@
         <v>5.3</v>
       </c>
       <c r="K42" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.32</v>
@@ -6091,7 +6091,7 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.23</v>
@@ -6106,22 +6106,22 @@
         <v>1.54</v>
       </c>
       <c r="S42" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T42" t="n">
         <v>1.99</v>
       </c>
       <c r="U42" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V42" t="n">
         <v>1.11</v>
       </c>
       <c r="W42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
         <v>32</v>
@@ -6145,7 +6145,7 @@
         <v>130</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG42" t="n">
         <v>10</v>
@@ -6205,19 +6205,19 @@
         <v>4.3</v>
       </c>
       <c r="G43" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H43" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J43" t="n">
         <v>3.45</v>
       </c>
       <c r="K43" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.49</v>
@@ -6250,13 +6250,13 @@
         <v>1.93</v>
       </c>
       <c r="V43" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W43" t="n">
         <v>1.29</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
         <v>7.6</v>
@@ -6268,16 +6268,16 @@
         <v>24</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF43" t="n">
         <v>29</v>
@@ -6343,19 +6343,19 @@
         <v>2.86</v>
       </c>
       <c r="H44" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.55</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6364,13 +6364,13 @@
         <v>4.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
         <v>2.06</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R44" t="n">
         <v>1.42</v>
@@ -6397,16 +6397,16 @@
         <v>12</v>
       </c>
       <c r="Z44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA44" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="n">
         <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
         <v>12</v>
@@ -6418,10 +6418,10 @@
         <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI44" t="n">
         <v>38</v>
@@ -6439,7 +6439,7 @@
         <v>75</v>
       </c>
       <c r="AN44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO44" t="n">
         <v>22</v>
@@ -6508,7 +6508,7 @@
         <v>1.55</v>
       </c>
       <c r="R45" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S45" t="n">
         <v>2.4</v>
@@ -6529,19 +6529,19 @@
         <v>32</v>
       </c>
       <c r="Y45" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA45" t="n">
         <v>560</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD45" t="n">
         <v>46</v>
@@ -6550,10 +6550,10 @@
         <v>190</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH45" t="n">
         <v>32</v>
@@ -6568,7 +6568,7 @@
         <v>13</v>
       </c>
       <c r="AL45" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
         <v>160</v>
@@ -6637,7 +6637,7 @@
         <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q46" t="n">
         <v>1.75</v>
@@ -6652,7 +6652,7 @@
         <v>1.64</v>
       </c>
       <c r="U46" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V46" t="n">
         <v>1.45</v>
@@ -6661,7 +6661,7 @@
         <v>1.71</v>
       </c>
       <c r="X46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>15.5</v>
@@ -6676,7 +6676,7 @@
         <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
         <v>13</v>
@@ -6691,7 +6691,7 @@
         <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI46" t="n">
         <v>36</v>
@@ -6793,7 +6793,7 @@
         <v>1.36</v>
       </c>
       <c r="W47" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G48" t="n">
         <v>2.24</v>
       </c>
       <c r="H48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
         <v>3.6</v>
@@ -6898,31 +6898,31 @@
         <v>1.31</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O48" t="n">
         <v>1.26</v>
       </c>
       <c r="P48" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R48" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="S48" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="T48" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U48" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V48" t="n">
         <v>1.35</v>
@@ -6931,58 +6931,58 @@
         <v>1.8</v>
       </c>
       <c r="X48" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK48" t="n">
         <v>23</v>
       </c>
-      <c r="Z48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>30</v>
-      </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -7012,55 +7012,55 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G49" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H49" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J49" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
         <v>1.42</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
         <v>2.72</v>
       </c>
       <c r="O49" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P49" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="Q49" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T49" t="n">
         <v>2.14</v>
       </c>
-      <c r="R49" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U49" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V49" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W49" t="n">
         <v>2.2</v>
@@ -7081,7 +7081,7 @@
         <v>7.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
         <v>1000</v>
@@ -7090,7 +7090,7 @@
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG49" t="n">
         <v>1000</v>
@@ -7186,7 +7186,7 @@
         <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T50" t="n">
         <v>2.06</v>
@@ -7204,7 +7204,7 @@
         <v>17.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z50" t="n">
         <v>85</v>
@@ -7213,13 +7213,13 @@
         <v>330</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE50" t="n">
         <v>160</v>
@@ -7243,7 +7243,7 @@
         <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM50" t="n">
         <v>200</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G51" t="n">
         <v>3.35</v>
       </c>
-      <c r="G51" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H51" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I51" t="n">
         <v>2.6</v>
@@ -7297,10 +7297,10 @@
         <v>3.15</v>
       </c>
       <c r="K51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L51" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M51" t="n">
         <v>1.11</v>
@@ -7312,7 +7312,7 @@
         <v>1.48</v>
       </c>
       <c r="P51" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q51" t="n">
         <v>2.46</v>
@@ -7324,7 +7324,7 @@
         <v>4.8</v>
       </c>
       <c r="T51" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
         <v>1.92</v>
@@ -7333,13 +7333,13 @@
         <v>1.62</v>
       </c>
       <c r="W51" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X51" t="n">
         <v>9.6</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z51" t="n">
         <v>14.5</v>
@@ -7366,10 +7366,10 @@
         <v>15</v>
       </c>
       <c r="AH51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
         <v>60</v>
@@ -7378,10 +7378,10 @@
         <v>46</v>
       </c>
       <c r="AL51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM51" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN51" t="n">
         <v>55</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G52" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H52" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7435,7 +7435,7 @@
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7447,7 +7447,7 @@
         <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q52" t="n">
         <v>1.74</v>
@@ -7456,13 +7456,13 @@
         <v>1.51</v>
       </c>
       <c r="S52" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T52" t="n">
         <v>1.7</v>
       </c>
       <c r="U52" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V52" t="n">
         <v>1.29</v>
@@ -7474,10 +7474,10 @@
         <v>18</v>
       </c>
       <c r="Y52" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA52" t="n">
         <v>90</v>
@@ -7489,10 +7489,10 @@
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE52" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF52" t="n">
         <v>12.5</v>
@@ -7513,16 +7513,16 @@
         <v>17</v>
       </c>
       <c r="AL52" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM52" t="n">
         <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -7552,67 +7552,67 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.53</v>
       </c>
-      <c r="G53" t="n">
-        <v>1.62</v>
-      </c>
       <c r="H53" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J53" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K53" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L53" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R53" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S53" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U53" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V53" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W53" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="X53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z53" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
         <v>190</v>
@@ -7624,10 +7624,10 @@
         <v>12.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE53" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF53" t="n">
         <v>12</v>
@@ -7639,13 +7639,13 @@
         <v>21</v>
       </c>
       <c r="AI53" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL53" t="n">
         <v>29</v>
@@ -7654,10 +7654,10 @@
         <v>100</v>
       </c>
       <c r="AN53" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -7690,97 +7690,97 @@
         <v>1.92</v>
       </c>
       <c r="G54" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J54" t="n">
         <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
         <v>1.35</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P54" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T54" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V54" t="n">
         <v>1.27</v>
       </c>
       <c r="W54" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="n">
         <v>120</v>
       </c>
       <c r="AB54" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC54" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG54" t="n">
         <v>11</v>
       </c>
-      <c r="AD54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH54" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI54" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL54" t="n">
         <v>36</v>
@@ -7789,10 +7789,10 @@
         <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G55" t="n">
         <v>1.61</v>
@@ -7846,7 +7846,7 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="n">
         <v>1.31</v>
@@ -7861,10 +7861,10 @@
         <v>1.38</v>
       </c>
       <c r="S55" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
         <v>1.91</v>
@@ -7885,7 +7885,7 @@
         <v>55</v>
       </c>
       <c r="AA55" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB55" t="n">
         <v>8.199999999999999</v>
@@ -7903,7 +7903,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH55" t="n">
         <v>24</v>
@@ -7918,7 +7918,7 @@
         <v>17.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM55" t="n">
         <v>150</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G56" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="n">
         <v>3.2</v>
@@ -7978,37 +7978,37 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T56" t="n">
         <v>1.05</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.04</v>
       </c>
       <c r="U56" t="n">
         <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W56" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8092,25 +8092,25 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
         <v>8.4</v>
       </c>
       <c r="H57" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I57" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J57" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K57" t="n">
         <v>4.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8140,10 +8140,10 @@
         <v>1.78</v>
       </c>
       <c r="V57" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="W57" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X57" t="n">
         <v>14.5</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G58" t="n">
         <v>2.34</v>
@@ -8236,7 +8236,7 @@
         <v>3.55</v>
       </c>
       <c r="I58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>
@@ -8251,13 +8251,13 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O58" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P58" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q58" t="n">
         <v>2.1</v>
@@ -8266,16 +8266,16 @@
         <v>1.28</v>
       </c>
       <c r="S58" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T58" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U58" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V58" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W58" t="n">
         <v>1.74</v>
@@ -8326,7 +8326,7 @@
         <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="n">
         <v>24</v>
@@ -8386,13 +8386,13 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q59" t="n">
         <v>1.32</v>
@@ -8401,7 +8401,7 @@
         <v>1.21</v>
       </c>
       <c r="S59" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.56</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.6</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -823,10 +823,10 @@
         <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -835,10 +835,10 @@
         <v>2.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
         <v>2.62</v>
@@ -847,13 +847,13 @@
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -862,13 +862,13 @@
         <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -886,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
         <v>32</v>
@@ -904,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
         <v>17.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
@@ -973,7 +973,7 @@
         <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
         <v>3.35</v>
@@ -982,16 +982,16 @@
         <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1009,7 +1009,7 @@
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
         <v>3.8</v>
@@ -1081,7 +1081,7 @@
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1111,7 +1111,7 @@
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.73</v>
@@ -1120,7 +1120,7 @@
         <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1135,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
         <v>9.800000000000001</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
         <v>18.5</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
@@ -1228,91 +1228,91 @@
         <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.66</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>3.85</v>
@@ -1372,10 +1372,10 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.38</v>
@@ -1384,7 +1384,7 @@
         <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1393,49 +1393,49 @@
         <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
         <v>36</v>
@@ -1444,7 +1444,7 @@
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1507,19 +1507,19 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1531,13 +1531,13 @@
         <v>1.19</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
         <v>9.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>15.5</v>
@@ -1546,10 +1546,10 @@
         <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE8" t="n">
         <v>15.5</v>
@@ -1579,10 +1579,10 @@
         <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -1618,13 +1618,13 @@
         <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
         <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1642,19 +1642,19 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
         <v>1.99</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
         <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
@@ -1666,13 +1666,13 @@
         <v>1.47</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
         <v>38</v>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>11.5</v>
@@ -1702,10 +1702,10 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1789,7 @@
         <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.81</v>
@@ -1885,7 +1885,7 @@
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
@@ -1897,7 +1897,7 @@
         <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G12" t="n">
         <v>1.36</v>
@@ -2038,7 +2038,7 @@
         <v>1.23</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>5.6</v>
@@ -2050,22 +2050,22 @@
         <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
         <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
         <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
         <v>3.75</v>
@@ -2095,7 +2095,7 @@
         <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2158,7 +2158,7 @@
         <v>1.23</v>
       </c>
       <c r="H13" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
         <v>26</v>
@@ -2188,7 +2188,7 @@
         <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
         <v>2.22</v>
@@ -2221,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.88</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
@@ -2311,7 +2311,7 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
@@ -2320,16 +2320,16 @@
         <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
         <v>3.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2338,10 +2338,10 @@
         <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2386,7 +2386,7 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>32</v>
@@ -2437,7 +2437,7 @@
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.2</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.55</v>
@@ -2593,7 +2593,7 @@
         <v>2.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
         <v>5.1</v>
@@ -2602,13 +2602,13 @@
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
         <v>9.4</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>8.4</v>
@@ -2704,100 +2704,100 @@
         <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO17" t="n">
         <v>180</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
@@ -2848,7 +2848,7 @@
         <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2860,7 +2860,7 @@
         <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
@@ -2875,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X18" t="n">
         <v>10.5</v>
@@ -2896,7 +2896,7 @@
         <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
         <v>17</v>
@@ -2932,7 +2932,7 @@
         <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2992,7 +2992,7 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
         <v>2.26</v>
@@ -3004,7 +3004,7 @@
         <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>1.94</v>
@@ -3052,7 +3052,7 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G20" t="n">
         <v>5.6</v>
       </c>
-      <c r="G20" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="J20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3142,10 +3142,10 @@
         <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W20" t="n">
         <v>1.21</v>
@@ -3157,7 +3157,7 @@
         <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA20" t="n">
         <v>19</v>
@@ -3175,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG20" t="n">
         <v>22</v>
@@ -3235,7 +3235,7 @@
         <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
@@ -3247,7 +3247,7 @@
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.41</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G22" t="n">
         <v>2.12</v>
@@ -3382,7 +3382,7 @@
         <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3508,7 +3508,7 @@
         <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
         <v>30</v>
@@ -3517,7 +3517,7 @@
         <v>13.5</v>
       </c>
       <c r="K23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="L23" t="n">
         <v>1.15</v>
@@ -3535,7 +3535,7 @@
         <v>3.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R23" t="n">
         <v>2.12</v>
@@ -3547,13 +3547,13 @@
         <v>2.22</v>
       </c>
       <c r="U23" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
         <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X23" t="n">
         <v>75</v>
@@ -3598,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>330</v>
@@ -3661,13 +3661,13 @@
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q24" t="n">
         <v>2.2</v>
@@ -3682,7 +3682,7 @@
         <v>1.91</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
         <v>1.32</v>
@@ -3781,7 +3781,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
@@ -3859,7 +3859,7 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
         <v>18</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
         <v>2.16</v>
@@ -3940,7 +3940,7 @@
         <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
         <v>1.52</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G27" t="n">
         <v>2.92</v>
       </c>
       <c r="H27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
         <v>2.84</v>
@@ -4057,7 +4057,7 @@
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.26</v>
@@ -4210,7 +4210,7 @@
         <v>1.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
         <v>1.34</v>
@@ -4219,7 +4219,7 @@
         <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
         <v>2.1</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="I29" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="J29" t="n">
         <v>4.5</v>
@@ -4330,70 +4330,70 @@
         <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V29" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="W29" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
       </c>
       <c r="Z29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC29" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
         <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AH29" t="n">
         <v>18.5</v>
@@ -4402,22 +4402,22 @@
         <v>29</v>
       </c>
       <c r="AJ29" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="AK29" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
         <v>95</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AO29" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="30">
@@ -4450,7 +4450,7 @@
         <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
         <v>3.05</v>
@@ -4498,7 +4498,7 @@
         <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X30" t="n">
         <v>990</v>
@@ -4519,13 +4519,13 @@
         <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>990</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G31" t="n">
         <v>1.93</v>
@@ -4591,13 +4591,13 @@
         <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J31" t="n">
         <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
@@ -4720,7 +4720,7 @@
         <v>3.1</v>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
         <v>2.4</v>
@@ -4756,10 +4756,10 @@
         <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
         <v>2.18</v>
@@ -4768,7 +4768,7 @@
         <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
         <v>17</v>
@@ -4855,7 +4855,7 @@
         <v>1.87</v>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H33" t="n">
         <v>4.7</v>
@@ -4885,7 +4885,7 @@
         <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
         <v>1.39</v>
@@ -4897,16 +4897,16 @@
         <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
         <v>17</v>
@@ -5017,7 +5017,7 @@
         <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
         <v>1.64</v>
@@ -5026,7 +5026,7 @@
         <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T34" t="n">
         <v>1.58</v>
@@ -5137,10 +5137,10 @@
         <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5161,13 +5161,13 @@
         <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T35" t="n">
         <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V35" t="n">
         <v>2.84</v>
@@ -5263,7 +5263,7 @@
         <v>7.2</v>
       </c>
       <c r="H36" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="I36" t="n">
         <v>1.7</v>
@@ -5272,7 +5272,7 @@
         <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.38</v>
@@ -5305,13 +5305,13 @@
         <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W36" t="n">
         <v>1.16</v>
       </c>
       <c r="X36" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.4</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G37" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H37" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I37" t="n">
         <v>3.3</v>
@@ -5407,7 +5407,7 @@
         <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
         <v>1.32</v>
@@ -5443,7 +5443,7 @@
         <v>1.44</v>
       </c>
       <c r="W37" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X37" t="n">
         <v>990</v>
@@ -5533,16 +5533,16 @@
         <v>3.45</v>
       </c>
       <c r="H38" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I38" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J38" t="n">
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.47</v>
@@ -5557,10 +5557,10 @@
         <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
         <v>1.26</v>
@@ -5578,7 +5578,7 @@
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X38" t="n">
         <v>13.5</v>
@@ -5593,7 +5593,7 @@
         <v>46</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
         <v>8.6</v>
@@ -5665,22 +5665,22 @@
         <v>1.84</v>
       </c>
       <c r="G39" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I39" t="n">
         <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -5704,7 +5704,7 @@
         <v>3.65</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U39" t="n">
         <v>1.94</v>
@@ -5713,7 +5713,7 @@
         <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X39" t="n">
         <v>16</v>
@@ -5764,7 +5764,7 @@
         <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5815,7 +5815,7 @@
         <v>3.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -5935,10 +5935,10 @@
         <v>5.3</v>
       </c>
       <c r="G41" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="I41" t="n">
         <v>1.77</v>
@@ -5962,7 +5962,7 @@
         <v>1.28</v>
       </c>
       <c r="P41" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q41" t="n">
         <v>1.84</v>
@@ -6091,7 +6091,7 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.23</v>
@@ -6121,7 +6121,7 @@
         <v>3.35</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
         <v>32</v>
@@ -6166,7 +6166,7 @@
         <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="n">
         <v>5.7</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G43" t="n">
         <v>4.3</v>
       </c>
-      <c r="G43" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H43" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.49</v>
@@ -6229,7 +6229,7 @@
         <v>3.15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P43" t="n">
         <v>1.73</v>
@@ -6250,28 +6250,28 @@
         <v>1.93</v>
       </c>
       <c r="V43" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="W43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z43" t="n">
         <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="n">
         <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
         <v>10.5</v>
@@ -6292,22 +6292,22 @@
         <v>46</v>
       </c>
       <c r="AJ43" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="n">
         <v>65</v>
       </c>
       <c r="AL43" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="n">
         <v>80</v>
       </c>
       <c r="AO43" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G44" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H44" t="n">
         <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J44" t="n">
         <v>3.5</v>
@@ -6355,7 +6355,7 @@
         <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6400,10 +6400,10 @@
         <v>18</v>
       </c>
       <c r="AA44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
         <v>7.6</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G45" t="n">
         <v>1.27</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.28</v>
-      </c>
       <c r="H45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I45" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J45" t="n">
         <v>7.2</v>
@@ -6508,10 +6508,10 @@
         <v>1.55</v>
       </c>
       <c r="R45" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T45" t="n">
         <v>2.08</v>
@@ -6520,22 +6520,22 @@
         <v>1.89</v>
       </c>
       <c r="V45" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W45" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X45" t="n">
         <v>32</v>
       </c>
       <c r="Y45" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z45" t="n">
         <v>120</v>
       </c>
       <c r="AA45" t="n">
-        <v>560</v>
+        <v>890</v>
       </c>
       <c r="AB45" t="n">
         <v>9.800000000000001</v>
@@ -6556,13 +6556,13 @@
         <v>10.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
         <v>150</v>
       </c>
       <c r="AJ45" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK45" t="n">
         <v>13</v>
@@ -6571,13 +6571,13 @@
         <v>34</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO45" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46">
@@ -6637,13 +6637,13 @@
         <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R46" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S46" t="n">
         <v>2.86</v>
@@ -6658,7 +6658,7 @@
         <v>1.45</v>
       </c>
       <c r="W46" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -6676,7 +6676,7 @@
         <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
         <v>13</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G47" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H47" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L47" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W47" t="n">
         <v>1.75</v>
@@ -6811,10 +6811,10 @@
         <v>11</v>
       </c>
       <c r="AC47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
@@ -6823,10 +6823,10 @@
         <v>18</v>
       </c>
       <c r="AG47" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6880,10 +6880,10 @@
         <v>2.06</v>
       </c>
       <c r="G48" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
         <v>3.8</v>
@@ -6925,13 +6925,13 @@
         <v>2.28</v>
       </c>
       <c r="V48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X48" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
         <v>17</v>
@@ -7036,10 +7036,10 @@
         <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
         <v>1.61</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G50" t="n">
         <v>1.59</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G51" t="n">
         <v>3.35</v>
       </c>
       <c r="H51" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I51" t="n">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>3.15</v>
       </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.53</v>
@@ -7324,10 +7324,10 @@
         <v>4.8</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V51" t="n">
         <v>1.62</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.91</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.92</v>
       </c>
       <c r="H52" t="n">
         <v>4.4</v>
@@ -7465,13 +7465,13 @@
         <v>2.38</v>
       </c>
       <c r="V52" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W52" t="n">
         <v>2.08</v>
       </c>
       <c r="X52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="n">
         <v>18.5</v>
@@ -7489,7 +7489,7 @@
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE52" t="n">
         <v>46</v>
@@ -7516,13 +7516,13 @@
         <v>28</v>
       </c>
       <c r="AM52" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO52" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -7594,7 +7594,7 @@
         <v>2.3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U53" t="n">
         <v>2.12</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G54" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I54" t="n">
         <v>4.7</v>
@@ -7717,7 +7717,7 @@
         <v>1.28</v>
       </c>
       <c r="P54" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q54" t="n">
         <v>1.83</v>
@@ -7738,61 +7738,61 @@
         <v>1.27</v>
       </c>
       <c r="W54" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X54" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y54" t="n">
         <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB54" t="n">
         <v>10.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF54" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK54" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN54" t="n">
         <v>12.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -7852,7 +7852,7 @@
         <v>1.31</v>
       </c>
       <c r="P55" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
         <v>1.9</v>
@@ -7861,10 +7861,10 @@
         <v>1.38</v>
       </c>
       <c r="S55" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U55" t="n">
         <v>1.91</v>
@@ -7885,7 +7885,7 @@
         <v>55</v>
       </c>
       <c r="AA55" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB55" t="n">
         <v>8.199999999999999</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G56" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K56" t="n">
         <v>3.2</v>
@@ -7984,7 +7984,7 @@
         <v>1.1</v>
       </c>
       <c r="O56" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P56" t="n">
         <v>1.7</v>
@@ -7996,7 +7996,7 @@
         <v>1.21</v>
       </c>
       <c r="S56" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T56" t="n">
         <v>1.05</v>
@@ -8005,10 +8005,10 @@
         <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W56" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.51</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.52</v>
       </c>
       <c r="J57" t="n">
         <v>4.6</v>
       </c>
       <c r="K57" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L57" t="n">
         <v>1.41</v>
@@ -8122,7 +8122,7 @@
         <v>1.34</v>
       </c>
       <c r="P57" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q57" t="n">
         <v>2.02</v>
@@ -8143,7 +8143,7 @@
         <v>2.96</v>
       </c>
       <c r="W57" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X57" t="n">
         <v>14.5</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G58" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H58" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>
       </c>
       <c r="K58" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.45</v>
@@ -8260,10 +8260,10 @@
         <v>1.79</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S58" t="n">
         <v>3.95</v>
@@ -8275,64 +8275,64 @@
         <v>2.02</v>
       </c>
       <c r="V58" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W58" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB58" t="n">
         <v>9.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD58" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF58" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ58" t="n">
         <v>34</v>
       </c>
       <c r="AK58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM58" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN58" t="n">
         <v>24</v>
       </c>
       <c r="AO58" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
@@ -8368,16 +8368,16 @@
         <v>1000</v>
       </c>
       <c r="H59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J59" t="n">
         <v>1.04</v>
       </c>
-      <c r="I59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.02</v>
-      </c>
       <c r="K59" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W59" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X59" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +808,7 @@
         <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I3" t="n">
         <v>2.86</v>
@@ -817,10 +817,10 @@
         <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -829,10 +829,10 @@
         <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -847,16 +847,16 @@
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
         <v>1.64</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
@@ -877,7 +877,7 @@
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
         <v>19.5</v>
@@ -886,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>32</v>
@@ -898,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>60</v>
@@ -907,7 +907,7 @@
         <v>14.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -940,61 +940,61 @@
         <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
         <v>990</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1075,31 +1075,31 @@
         <v>3.35</v>
       </c>
       <c r="G5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
         <v>1.92</v>
@@ -1120,46 +1120,46 @@
         <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1174,16 +1174,16 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
-        <v>2.44</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.51</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.43</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.69</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO6" t="n">
         <v>60</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
         <v>4.3</v>
       </c>
-      <c r="I7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
         <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.61</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10</v>
       </c>
-      <c r="AA8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>23</v>
-      </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.56</v>
+        <v>1.59</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>2.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH9" t="n">
         <v>21</v>
       </c>
-      <c r="AG9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>2.56</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.65</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>44</v>
-      </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
         <v>27</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,118 +2008,118 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.32</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>2.48</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="P12" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>5.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>3.75</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>48</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>15</v>
       </c>
-      <c r="AD12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.6</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,118 +2143,118 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="G13" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="K13" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="X13" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
       <c r="AH13" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.78</v>
+        <v>1.17</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>1.22</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>18.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="V14" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
         <v>12</v>
       </c>
-      <c r="Z14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>3.7</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.02</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.44</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>2.34</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN17" t="n">
         <v>32</v>
       </c>
-      <c r="AE17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AO17" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.64</v>
+        <v>1.47</v>
       </c>
       <c r="G18" t="n">
-        <v>2.72</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>8.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W18" t="n">
         <v>3</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.59</v>
-      </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>42</v>
-      </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>7.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>1.99</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>780</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.5</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.84</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.25</v>
       </c>
-      <c r="S20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.16</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>22</v>
       </c>
-      <c r="AF20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>160</v>
-      </c>
       <c r="AK20" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>16.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.38</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.14</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO21" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,78 +3353,78 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.56</v>
+        <v>3.65</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,22 +3433,22 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3466,7 +3466,7 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
-        <v>13.5</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>2.54</v>
       </c>
       <c r="O23" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>3.8</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="T23" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12</v>
+        <v>1.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>1.12</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>17.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.09</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.41</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>1.27</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>1.71</v>
       </c>
       <c r="T24" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>1.74</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="G26" t="n">
-        <v>2.16</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="X26" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z26" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>18</v>
       </c>
-      <c r="AG26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>30</v>
-      </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.54</v>
+        <v>1.94</v>
       </c>
       <c r="G27" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>2.84</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.26</v>
@@ -4066,88 +4066,88 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R27" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
         <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -4168,73 +4168,73 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Forfar</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.92</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.45</v>
-      </c>
       <c r="H28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.34</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="V28" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4243,13 +4243,13 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4258,10 +4258,10 @@
         <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Forfar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>2.92</v>
       </c>
       <c r="G29" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>1.56</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>5.4</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>2.74</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AD29" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>7.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>1.53</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R30" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.39</v>
+        <v>2.8</v>
       </c>
       <c r="W30" t="n">
-        <v>1.73</v>
+        <v>1.15</v>
       </c>
       <c r="X30" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB30" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="G31" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
         <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.39</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W31" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Z31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.199999999999999</v>
+        <v>990</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,34 +4708,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="G32" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="H32" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.56</v>
+        <v>5.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -4744,85 +4744,85 @@
         <v>3.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R32" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S32" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>2.06</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF32" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="G33" t="n">
-        <v>1.89</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>2.42</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>2.56</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="W33" t="n">
-        <v>2.12</v>
+        <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
         <v>17</v>
       </c>
-      <c r="Z33" t="n">
-        <v>36</v>
-      </c>
       <c r="AA33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
         <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="S34" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="U34" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,109 +5113,109 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.4</v>
+        <v>2.06</v>
       </c>
       <c r="G35" t="n">
-        <v>9.800000000000001</v>
+        <v>2.32</v>
       </c>
       <c r="H35" t="n">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.54</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="T35" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="U35" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>2.84</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Y35" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5224,16 +5224,16 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,82 +5248,82 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G36" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="I36" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="J36" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P36" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="R36" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="T36" t="n">
         <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="W36" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="X36" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
         <v>990</v>
@@ -5338,10 +5338,10 @@
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5362,13 +5362,13 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,76 +5383,76 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>2.86</v>
+        <v>1.61</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
         <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S37" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
-        <v>1.44</v>
+        <v>2.44</v>
       </c>
       <c r="W37" t="n">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="X37" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>990</v>
+        <v>8.4</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5497,13 +5497,13 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="G38" t="n">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="I38" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.68</v>
       </c>
-      <c r="Q38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.87</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="V38" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="W38" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="X38" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="Z38" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AD38" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AE38" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.84</v>
+        <v>3.15</v>
       </c>
       <c r="G39" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>4.6</v>
+        <v>2.46</v>
       </c>
       <c r="I39" t="n">
-        <v>5.2</v>
+        <v>2.64</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P39" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>2.08</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH39" t="n">
         <v>24</v>
       </c>
-      <c r="AE39" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>25</v>
-      </c>
       <c r="AI39" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ39" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="G40" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="H40" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.85</v>
       </c>
-      <c r="I40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="U40" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="V40" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="W40" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,109 +5923,109 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>1.77</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.31</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.28</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.2</v>
+        <v>1.79</v>
       </c>
       <c r="X41" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC41" t="n">
         <v>9</v>
       </c>
-      <c r="Z41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD41" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH41" t="n">
         <v>25</v>
       </c>
       <c r="AI41" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6034,16 +6034,16 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.41</v>
+        <v>5.4</v>
       </c>
       <c r="G42" t="n">
-        <v>1.42</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>9.4</v>
+        <v>1.71</v>
       </c>
       <c r="I42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
         <v>9.6</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X42" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD42" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>150</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.2</v>
+        <v>1.41</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>2.12</v>
+        <v>9.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="P43" t="n">
-        <v>1.73</v>
+        <v>2.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="T43" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V43" t="n">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="X43" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH43" t="n">
         <v>25</v>
       </c>
-      <c r="AB43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>22</v>
-      </c>
       <c r="AI43" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ43" t="n">
-        <v>95</v>
+        <v>11.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>130</v>
       </c>
       <c r="AN43" t="n">
-        <v>80</v>
+        <v>5.8</v>
       </c>
       <c r="AO43" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="G44" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.72</v>
+        <v>2.12</v>
       </c>
       <c r="J44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.5</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="R44" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="U44" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="V44" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="W44" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF44" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ44" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AK44" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AL44" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.26</v>
+        <v>2.82</v>
       </c>
       <c r="G45" t="n">
-        <v>1.27</v>
+        <v>2.86</v>
       </c>
       <c r="H45" t="n">
-        <v>13.5</v>
+        <v>2.72</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>2.74</v>
       </c>
       <c r="J45" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="R45" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="S45" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="T45" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="n">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="V45" t="n">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="W45" t="n">
-        <v>4.7</v>
+        <v>1.53</v>
       </c>
       <c r="X45" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AA45" t="n">
-        <v>890</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="AF45" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="n">
-        <v>9.4</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.1</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
-        <v>230</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="G46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S46" t="n">
         <v>2.4</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.86</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="U46" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="V46" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="W46" t="n">
-        <v>1.72</v>
+        <v>4.6</v>
       </c>
       <c r="X46" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="AA46" t="n">
-        <v>55</v>
+        <v>570</v>
       </c>
       <c r="AB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK46" t="n">
         <v>13</v>
       </c>
-      <c r="AC46" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>22</v>
-      </c>
       <c r="AL46" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AN46" t="n">
-        <v>14.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="G47" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J47" t="n">
         <v>3.75</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K47" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="R47" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="S47" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="T47" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U47" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="W47" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG47" t="n">
         <v>11</v>
       </c>
-      <c r="AC47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>990</v>
-      </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H48" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="R48" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="T48" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W48" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD48" t="n">
         <v>17</v>
       </c>
-      <c r="Z48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>16</v>
-      </c>
       <c r="AE48" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AH48" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,127 +7003,127 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="G49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.84</v>
       </c>
-      <c r="H49" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF49" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,123 +7133,123 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="G50" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="H50" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="I50" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J50" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="P50" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="R50" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="S50" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T50" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U50" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="V50" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W50" t="n">
-        <v>2.68</v>
+        <v>2.16</v>
       </c>
       <c r="X50" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC50" t="n">
         <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.3</v>
+        <v>1.54</v>
       </c>
       <c r="G51" t="n">
-        <v>3.35</v>
+        <v>1.58</v>
       </c>
       <c r="H51" t="n">
-        <v>2.58</v>
+        <v>7.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.6</v>
+        <v>8.4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M51" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S51" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="V51" t="n">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="W51" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="X51" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="Y51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB51" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG51" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC51" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG51" t="n">
+      <c r="AH51" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>15</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AK51" t="n">
         <v>21</v>
       </c>
-      <c r="AI51" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>46</v>
-      </c>
       <c r="AL51" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN51" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AO51" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="G52" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>2.64</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S52" t="n">
         <v>4.8</v>
       </c>
-      <c r="O52" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.86</v>
-      </c>
       <c r="T52" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="W52" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="Y52" t="n">
-        <v>18.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE52" t="n">
         <v>34</v>
       </c>
-      <c r="AA52" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE52" t="n">
+      <c r="AF52" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK52" t="n">
         <v>46</v>
       </c>
-      <c r="AF52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>17</v>
-      </c>
       <c r="AL52" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AM52" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AO52" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,127 +7543,127 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="G53" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="H53" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N53" t="n">
         <v>4.8</v>
       </c>
-      <c r="K53" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O53" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="R53" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="S53" t="n">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="T53" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W53" t="n">
         <v>2.12</v>
       </c>
-      <c r="V53" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2.88</v>
-      </c>
       <c r="X53" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL53" t="n">
         <v>28</v>
       </c>
-      <c r="Y53" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>29</v>
-      </c>
       <c r="AM53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN53" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO53" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.89</v>
+        <v>1.45</v>
       </c>
       <c r="G54" t="n">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="H54" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="K54" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L54" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="S54" t="n">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U54" t="n">
         <v>2.16</v>
       </c>
       <c r="V54" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="W54" t="n">
-        <v>2.06</v>
+        <v>2.92</v>
       </c>
       <c r="X54" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Y54" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z54" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AA54" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM54" t="n">
         <v>100</v>
       </c>
-      <c r="AB54" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>95</v>
-      </c>
       <c r="AN54" t="n">
-        <v>12.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="G55" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="I55" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K55" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R55" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S55" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T55" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="U55" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="W55" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="X55" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Z55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE55" t="n">
         <v>55</v>
       </c>
-      <c r="AA55" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>110</v>
-      </c>
       <c r="AF55" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AG55" t="n">
         <v>9.6</v>
       </c>
       <c r="AH55" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI55" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AJ55" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AK55" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN55" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.48</v>
+        <v>1.59</v>
       </c>
       <c r="G56" t="n">
-        <v>2.74</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K56" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="P56" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="R56" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="S56" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="U56" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="W56" t="n">
-        <v>1.58</v>
+        <v>2.62</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8.199999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="G57" t="n">
-        <v>8.6</v>
+        <v>2.62</v>
       </c>
       <c r="H57" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>1.51</v>
+        <v>3.75</v>
       </c>
       <c r="J57" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="O57" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R57" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="T57" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="U57" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="V57" t="n">
-        <v>2.96</v>
+        <v>1.37</v>
       </c>
       <c r="W57" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="X57" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AE57" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,260 +8213,395 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.34</v>
+        <v>8.4</v>
       </c>
       <c r="G58" t="n">
-        <v>2.42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>3.35</v>
+        <v>1.49</v>
       </c>
       <c r="I58" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K58" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L58" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O58" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P58" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R58" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S58" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="T58" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="U58" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="X58" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA58" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z58" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>65</v>
-      </c>
       <c r="AB58" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AD58" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AE58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI58" t="n">
         <v>44</v>
       </c>
-      <c r="AF58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ58" t="n">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="AK58" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="AL58" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AM58" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="AO58" t="n">
-        <v>48</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Estoril Praia</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X59" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>2025-12-27</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>CD Olimpia</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Real Espana</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F60" t="n">
         <v>1.04</v>
       </c>
-      <c r="G59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J59" t="n">
+      <c r="G60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.04</v>
       </c>
-      <c r="K59" t="n">
+      <c r="I60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K60" t="n">
         <v>950</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L60" t="n">
         <v>1.01</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M60" t="n">
         <v>1.01</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N60" t="n">
         <v>1.34</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O60" t="n">
         <v>1.01</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P60" t="n">
         <v>1.34</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q60" t="n">
         <v>1.32</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R60" t="n">
         <v>1.21</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S60" t="n">
         <v>1.33</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T60" t="n">
         <v>1.04</v>
       </c>
-      <c r="U59" t="n">
+      <c r="U60" t="n">
         <v>1.04</v>
       </c>
-      <c r="V59" t="n">
+      <c r="V60" t="n">
         <v>1.02</v>
       </c>
-      <c r="W59" t="n">
+      <c r="W60" t="n">
         <v>1.02</v>
       </c>
-      <c r="X59" t="n">
+      <c r="X60" t="n">
         <v>990</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Y60" t="n">
         <v>990</v>
       </c>
-      <c r="Z59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB59" t="n">
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
         <v>990</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AC60" t="n">
         <v>990</v>
       </c>
-      <c r="AD59" t="n">
+      <c r="AD60" t="n">
         <v>990</v>
       </c>
-      <c r="AE59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG59" t="n">
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
         <v>990</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AH60" t="n">
         <v>990</v>
       </c>
-      <c r="AI59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO59" t="n">
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H3" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -826,67 +826,67 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.65</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
         <v>32</v>
@@ -901,13 +901,13 @@
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
         <v>2.36</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
@@ -979,13 +979,13 @@
         <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.73</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1093,7 +1093,7 @@
         <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.7</v>
@@ -1120,19 +1120,19 @@
         <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1144,10 +1144,10 @@
         <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
         <v>32</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
         <v>44</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
@@ -1207,76 +1207,76 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1291,28 +1291,28 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1366,7 +1366,7 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
@@ -1384,31 +1384,31 @@
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
         <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z7" t="n">
         <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7</v>
@@ -1417,7 +1417,7 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
         <v>70</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
         <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
@@ -1492,10 +1492,10 @@
         <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1507,10 +1507,10 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
@@ -1522,67 +1522,67 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
         <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
         <v>1.59</v>
@@ -1642,28 +1642,28 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
         <v>2.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>25</v>
@@ -1693,28 +1693,28 @@
         <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK9" t="n">
         <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
         <v>7.4</v>
@@ -1747,82 +1747,82 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="I10" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.45</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1834,10 +1834,10 @@
         <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
         <v>36</v>
@@ -1846,13 +1846,13 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1921,7 +1921,7 @@
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.99</v>
@@ -1939,52 +1939,52 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>2.84</v>
@@ -2035,7 +2035,7 @@
         <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
@@ -2044,7 +2044,7 @@
         <v>2.48</v>
       </c>
       <c r="O12" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -2056,13 +2056,13 @@
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
         <v>1.38</v>
@@ -2074,25 +2074,25 @@
         <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
         <v>16.5</v>
@@ -2104,7 +2104,7 @@
         <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="AJ12" t="n">
         <v>44</v>
@@ -2122,7 +2122,7 @@
         <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -2152,49 +2152,49 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
         <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
         <v>1.89</v>
@@ -2203,13 +2203,13 @@
         <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>130</v>
@@ -2218,7 +2218,7 @@
         <v>460</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>17</v>
@@ -2248,13 +2248,13 @@
         <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
         <v>1.22</v>
       </c>
       <c r="H14" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2314,34 +2314,34 @@
         <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U14" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
         <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y14" t="n">
         <v>990</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.05</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,10 +2452,10 @@
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
         <v>1.35</v>
@@ -2464,70 +2464,70 @@
         <v>3.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB15" t="n">
         <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
       </c>
       <c r="AD15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>13</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2557,85 +2557,85 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.35</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
         <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="n">
         <v>11</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2644,25 +2644,25 @@
         <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
         <v>3.15</v>
@@ -2716,88 +2716,88 @@
         <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
         <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF17" t="n">
         <v>13</v>
       </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
         <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
         <v>7.8</v>
@@ -2839,10 +2839,10 @@
         <v>8.6</v>
       </c>
       <c r="J18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2851,25 +2851,25 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
         <v>1.9</v>
@@ -2878,16 +2878,16 @@
         <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
         <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
         <v>300</v>
@@ -2896,13 +2896,13 @@
         <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF18" t="n">
         <v>8.800000000000001</v>
@@ -2911,22 +2911,22 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="AN18" t="n">
         <v>7.8</v>
@@ -2965,28 +2965,28 @@
         <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
@@ -3004,19 +3004,19 @@
         <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U19" t="n">
         <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
         <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3037,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF19" t="n">
         <v>14.5</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I20" t="n">
         <v>4.8</v>
       </c>
-      <c r="I20" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
@@ -3136,7 +3136,7 @@
         <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -3145,10 +3145,10 @@
         <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3169,7 +3169,7 @@
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>70</v>
@@ -3238,19 +3238,19 @@
         <v>5.6</v>
       </c>
       <c r="H21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.86</v>
       </c>
-      <c r="I21" t="n">
-        <v>1.87</v>
-      </c>
       <c r="J21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.55</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3277,16 +3277,16 @@
         <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -3301,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
         <v>3.8</v>
@@ -3382,10 +3382,10 @@
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3397,7 +3397,7 @@
         <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -3412,10 +3412,10 @@
         <v>1.78</v>
       </c>
       <c r="U22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
         <v>1.73</v>
@@ -3427,16 +3427,16 @@
         <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB22" t="n">
         <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
         <v>15.5</v>
@@ -3451,25 +3451,25 @@
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,43 +3502,43 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>2.54</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="n">
         <v>2.26</v>
@@ -3547,16 +3547,16 @@
         <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3583,10 +3583,10 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="G24" t="n">
         <v>1.12</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="K24" t="n">
         <v>17.5</v>
@@ -3661,19 +3661,19 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q24" t="n">
         <v>1.27</v>
       </c>
       <c r="R24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S24" t="n">
         <v>1.71</v>
@@ -3682,16 +3682,16 @@
         <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V24" t="n">
         <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y24" t="n">
         <v>120</v>
@@ -3712,7 +3712,7 @@
         <v>110</v>
       </c>
       <c r="AE24" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AF24" t="n">
         <v>10.5</v>
@@ -3736,10 +3736,10 @@
         <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
         <v>2.38</v>
@@ -3781,16 +3781,16 @@
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
@@ -3799,13 +3799,13 @@
         <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
         <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
@@ -3820,13 +3820,13 @@
         <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
         <v>1.74</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3838,10 +3838,10 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -3850,7 +3850,7 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
         <v>1000</v>
@@ -3910,7 +3910,7 @@
         <v>1.54</v>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H26" t="n">
         <v>6</v>
@@ -4012,7 +4012,7 @@
         <v>7.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
         <v>3.45</v>
@@ -4069,7 +4069,7 @@
         <v>4.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
         <v>2.3</v>
@@ -4093,7 +4093,7 @@
         <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
         <v>27</v>
@@ -4108,19 +4108,19 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
         <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
@@ -4129,19 +4129,19 @@
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
         <v>12.5</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G28" t="n">
         <v>2.92</v>
@@ -4186,16 +4186,16 @@
         <v>2.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4219,7 +4219,7 @@
         <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U28" t="n">
         <v>2.42</v>
@@ -4243,13 +4243,13 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4261,7 +4261,7 @@
         <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4282,7 +4282,7 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
         <v>2.7</v>
@@ -4333,13 +4333,13 @@
         <v>1.39</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
         <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
         <v>1.87</v>
@@ -4351,10 +4351,10 @@
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U29" t="n">
         <v>2.1</v>
@@ -4363,13 +4363,13 @@
         <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y29" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,10 +4381,10 @@
         <v>990</v>
       </c>
       <c r="AC29" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AD29" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4396,7 +4396,7 @@
         <v>990</v>
       </c>
       <c r="AH29" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4450,22 +4450,22 @@
         <v>7.2</v>
       </c>
       <c r="G30" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I30" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="J30" t="n">
         <v>4.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4477,31 +4477,31 @@
         <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S30" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T30" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W30" t="n">
         <v>1.15</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
@@ -4522,16 +4522,16 @@
         <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF30" t="n">
         <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH30" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -4546,10 +4546,10 @@
         <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AO30" t="n">
         <v>6.4</v>
@@ -4585,7 +4585,7 @@
         <v>2.12</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
@@ -4597,7 +4597,7 @@
         <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4609,7 +4609,7 @@
         <v>4.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
         <v>2.32</v>
@@ -4633,7 +4633,7 @@
         <v>1.39</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
         <v>990</v>
@@ -4663,19 +4663,19 @@
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH31" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,19 +4720,19 @@
         <v>1.88</v>
       </c>
       <c r="G32" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
         <v>5.1</v>
       </c>
       <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.39</v>
@@ -4759,16 +4759,16 @@
         <v>3.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -4801,7 +4801,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
         <v>75</v>
@@ -4816,10 +4816,10 @@
         <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO32" t="n">
         <v>75</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G33" t="n">
         <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.42</v>
@@ -4885,79 +4885,79 @@
         <v>1.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R33" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U33" t="n">
         <v>2.18</v>
       </c>
       <c r="V33" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="W33" t="n">
         <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>4.8</v>
@@ -4999,10 +4999,10 @@
         <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.38</v>
@@ -5014,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P34" t="n">
         <v>2.02</v>
@@ -5029,7 +5029,7 @@
         <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U34" t="n">
         <v>2.1</v>
@@ -5038,7 +5038,7 @@
         <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X34" t="n">
         <v>14.5</v>
@@ -5056,10 +5056,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
@@ -5131,10 +5131,10 @@
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
@@ -5149,7 +5149,7 @@
         <v>4.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
         <v>2.24</v>
@@ -5170,7 +5170,7 @@
         <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
         <v>1.75</v>
@@ -5185,7 +5185,7 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB35" t="n">
         <v>15.5</v>
@@ -5197,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="AE35" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AF35" t="n">
         <v>19.5</v>
@@ -5209,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -5218,10 +5218,10 @@
         <v>22</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
         <v>15</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I36" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
         <v>5.8</v>
@@ -5281,13 +5281,13 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.26</v>
       </c>
       <c r="P36" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>1.72</v>
@@ -5296,16 +5296,16 @@
         <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U36" t="n">
         <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="W36" t="n">
         <v>1.12</v>
@@ -5317,7 +5317,7 @@
         <v>990</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5326,20 +5326,20 @@
         <v>1000</v>
       </c>
       <c r="AC36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
         <v>990</v>
       </c>
-      <c r="AD36" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH36" t="n">
         <v>1000</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -5401,7 +5401,7 @@
         <v>1.61</v>
       </c>
       <c r="I37" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -5413,40 +5413,40 @@
         <v>1.34</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q37" t="n">
         <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S37" t="n">
         <v>3.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U37" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
         <v>2.44</v>
       </c>
       <c r="W37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X37" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
         <v>8.4</v>
@@ -5455,19 +5455,19 @@
         <v>10</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AC37" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AD37" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
         <v>1000</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G38" t="n">
         <v>2.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="I38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.35</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
@@ -5569,16 +5569,16 @@
         <v>2.86</v>
       </c>
       <c r="T38" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U38" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W38" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X38" t="n">
         <v>990</v>
@@ -5593,10 +5593,10 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
         <v>990</v>
@@ -5605,13 +5605,13 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG38" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>2.46</v>
       </c>
       <c r="I39" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J39" t="n">
         <v>3.15</v>
@@ -5680,7 +5680,7 @@
         <v>3.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
@@ -5695,7 +5695,7 @@
         <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R39" t="n">
         <v>1.26</v>
@@ -5713,13 +5713,13 @@
         <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
         <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z39" t="n">
         <v>19.5</v>
@@ -5728,46 +5728,46 @@
         <v>46</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
         <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
         <v>38</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG39" t="n">
         <v>17.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
         <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL39" t="n">
         <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN39" t="n">
         <v>60</v>
       </c>
       <c r="AO39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G40" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
         <v>5.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L40" t="n">
         <v>1.42</v>
@@ -5848,7 +5848,7 @@
         <v>1.23</v>
       </c>
       <c r="W40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X40" t="n">
         <v>15.5</v>
@@ -5896,10 +5896,10 @@
         <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
         <v>3.5</v>
@@ -5980,10 +5980,10 @@
         <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
         <v>12.5</v>
@@ -5992,7 +5992,7 @@
         <v>14.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
@@ -6007,7 +6007,7 @@
         <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF41" t="n">
         <v>15.5</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I42" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K42" t="n">
         <v>4.2</v>
@@ -6088,40 +6088,40 @@
         <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
         <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R42" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S42" t="n">
         <v>3.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W42" t="n">
         <v>1.2</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="n">
         <v>9</v>
@@ -6133,25 +6133,25 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD42" t="n">
         <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
@@ -6172,7 +6172,7 @@
         <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -6208,19 +6208,19 @@
         <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J43" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K43" t="n">
         <v>5.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6244,7 +6244,7 @@
         <v>2.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U43" t="n">
         <v>1.95</v>
@@ -6262,7 +6262,7 @@
         <v>32</v>
       </c>
       <c r="Z43" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA43" t="n">
         <v>310</v>
@@ -6274,7 +6274,7 @@
         <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE43" t="n">
         <v>130</v>
@@ -6304,7 +6304,7 @@
         <v>130</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO43" t="n">
         <v>150</v>
@@ -6343,10 +6343,10 @@
         <v>4.3</v>
       </c>
       <c r="H44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.12</v>
       </c>
       <c r="J44" t="n">
         <v>3.45</v>
@@ -6385,7 +6385,7 @@
         <v>1.93</v>
       </c>
       <c r="V44" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W44" t="n">
         <v>1.3</v>
@@ -6403,16 +6403,16 @@
         <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF44" t="n">
         <v>29</v>
@@ -6427,7 +6427,7 @@
         <v>46</v>
       </c>
       <c r="AJ44" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="n">
         <v>65</v>
@@ -6436,10 +6436,10 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO44" t="n">
         <v>20</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G45" t="n">
         <v>2.86</v>
       </c>
       <c r="H45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I45" t="n">
         <v>2.72</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.74</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6499,7 +6499,7 @@
         <v>4.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
         <v>2.06</v>
@@ -6520,7 +6520,7 @@
         <v>2.36</v>
       </c>
       <c r="V45" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
         <v>1.53</v>
@@ -6538,10 +6538,10 @@
         <v>40</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD45" t="n">
         <v>12</v>
@@ -6574,7 +6574,7 @@
         <v>75</v>
       </c>
       <c r="AN45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO45" t="n">
         <v>22</v>
@@ -6613,10 +6613,10 @@
         <v>1.28</v>
       </c>
       <c r="H46" t="n">
+        <v>13</v>
+      </c>
+      <c r="I46" t="n">
         <v>13.5</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
       </c>
       <c r="J46" t="n">
         <v>7.2</v>
@@ -6637,7 +6637,7 @@
         <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q46" t="n">
         <v>1.56</v>
@@ -6646,16 +6646,16 @@
         <v>1.69</v>
       </c>
       <c r="S46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T46" t="n">
         <v>2.08</v>
       </c>
       <c r="U46" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W46" t="n">
         <v>4.6</v>
@@ -6706,13 +6706,13 @@
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN46" t="n">
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
@@ -6745,7 +6745,7 @@
         <v>2.38</v>
       </c>
       <c r="G47" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.15</v>
@@ -6760,7 +6760,7 @@
         <v>3.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G48" t="n">
         <v>2.28</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I48" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
@@ -6925,13 +6925,13 @@
         <v>2.18</v>
       </c>
       <c r="V48" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W48" t="n">
         <v>1.78</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y48" t="n">
         <v>17.5</v>
@@ -6949,16 +6949,16 @@
         <v>10</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF48" t="n">
         <v>18</v>
       </c>
       <c r="AG48" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AH48" t="n">
         <v>20</v>
@@ -6967,13 +6967,13 @@
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
@@ -6982,7 +6982,7 @@
         <v>19.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G49" t="n">
         <v>2.18</v>
@@ -7087,7 +7087,7 @@
         <v>16</v>
       </c>
       <c r="AE49" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF49" t="n">
         <v>15.5</v>
@@ -7105,13 +7105,13 @@
         <v>28</v>
       </c>
       <c r="AK49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL49" t="n">
         <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN49" t="n">
         <v>14</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G50" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H50" t="n">
         <v>5.8</v>
@@ -7162,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L50" t="n">
         <v>1.42</v>
@@ -7198,13 +7198,13 @@
         <v>1.14</v>
       </c>
       <c r="W50" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z50" t="n">
         <v>1000</v>
@@ -7228,19 +7228,19 @@
         <v>11</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="n">
         <v>1000</v>
@@ -7249,7 +7249,7 @@
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G51" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I51" t="n">
         <v>8.4</v>
       </c>
       <c r="J51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.39</v>
@@ -7306,16 +7306,16 @@
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R51" t="n">
         <v>1.34</v>
@@ -7327,13 +7327,13 @@
         <v>2.06</v>
       </c>
       <c r="U51" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="V51" t="n">
         <v>1.13</v>
       </c>
       <c r="W51" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X51" t="n">
         <v>17.5</v>
@@ -7342,7 +7342,7 @@
         <v>24</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AA51" t="n">
         <v>320</v>
@@ -7366,13 +7366,13 @@
         <v>10.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="AJ51" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK51" t="n">
         <v>21</v>
@@ -7381,7 +7381,7 @@
         <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
         <v>10</v>
@@ -7420,13 +7420,13 @@
         <v>3.3</v>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H52" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I52" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J52" t="n">
         <v>3.15</v>
@@ -7435,7 +7435,7 @@
         <v>3.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="n">
         <v>1.11</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
         <v>1.61</v>
@@ -7555,7 +7555,7 @@
         <v>1.88</v>
       </c>
       <c r="G53" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>4.4</v>
@@ -7582,28 +7582,28 @@
         <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R53" t="n">
         <v>1.52</v>
       </c>
       <c r="S53" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U53" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V53" t="n">
         <v>1.28</v>
       </c>
       <c r="W53" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X53" t="n">
         <v>18.5</v>
@@ -7624,13 +7624,13 @@
         <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE53" t="n">
         <v>48</v>
       </c>
       <c r="AF53" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
         <v>10.5</v>
@@ -7642,7 +7642,7 @@
         <v>46</v>
       </c>
       <c r="AJ53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK53" t="n">
         <v>17</v>
@@ -7654,7 +7654,7 @@
         <v>70</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO53" t="n">
         <v>46</v>
@@ -7696,28 +7696,28 @@
         <v>6.6</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J54" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K54" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q54" t="n">
         <v>1.53</v>
@@ -7726,31 +7726,31 @@
         <v>1.63</v>
       </c>
       <c r="S54" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T54" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U54" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V54" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W54" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X54" t="n">
         <v>28</v>
       </c>
       <c r="Y54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z54" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AA54" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB54" t="n">
         <v>12</v>
@@ -7765,13 +7765,13 @@
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG54" t="n">
         <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI54" t="n">
         <v>75</v>
@@ -7789,10 +7789,10 @@
         <v>100</v>
       </c>
       <c r="AN54" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO54" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G55" t="n">
         <v>1.94</v>
       </c>
       <c r="H55" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K55" t="n">
         <v>3.8</v>
       </c>
-      <c r="K55" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L55" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
         <v>1.06</v>
@@ -7867,16 +7867,16 @@
         <v>1.74</v>
       </c>
       <c r="U55" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V55" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W55" t="n">
         <v>2.06</v>
       </c>
       <c r="X55" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
         <v>18</v>
@@ -7885,10 +7885,10 @@
         <v>34</v>
       </c>
       <c r="AA55" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>8.199999999999999</v>
@@ -7903,7 +7903,7 @@
         <v>12.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH55" t="n">
         <v>18</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G56" t="n">
         <v>1.62</v>
@@ -7966,13 +7966,13 @@
         <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K56" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.4</v>
       </c>
       <c r="L56" t="n">
         <v>1.4</v>
@@ -7981,7 +7981,7 @@
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O56" t="n">
         <v>1.31</v>
@@ -7990,25 +7990,25 @@
         <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R56" t="n">
         <v>1.38</v>
       </c>
       <c r="S56" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T56" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V56" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W56" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X56" t="n">
         <v>15</v>
@@ -8026,7 +8026,7 @@
         <v>8</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD56" t="n">
         <v>26</v>
@@ -8056,7 +8056,7 @@
         <v>38</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN56" t="n">
         <v>9.4</v>
@@ -8095,10 +8095,10 @@
         <v>2.48</v>
       </c>
       <c r="G57" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I57" t="n">
         <v>3.75</v>
@@ -8107,97 +8107,97 @@
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S57" t="n">
         <v>4.4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U57" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V57" t="n">
         <v>1.37</v>
       </c>
       <c r="W57" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -8230,19 +8230,19 @@
         <v>8.4</v>
       </c>
       <c r="G58" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H58" t="n">
         <v>1.49</v>
       </c>
       <c r="I58" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K58" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.8</v>
       </c>
       <c r="L58" t="n">
         <v>1.41</v>
@@ -8251,13 +8251,13 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O58" t="n">
         <v>1.35</v>
       </c>
       <c r="P58" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q58" t="n">
         <v>2.02</v>
@@ -8275,7 +8275,7 @@
         <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W58" t="n">
         <v>1.13</v>
@@ -8374,10 +8374,10 @@
         <v>3.55</v>
       </c>
       <c r="J59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K59" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.45</v>
@@ -8386,7 +8386,7 @@
         <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O59" t="n">
         <v>1.38</v>
@@ -8395,7 +8395,7 @@
         <v>1.79</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R59" t="n">
         <v>1.3</v>
@@ -8404,10 +8404,10 @@
         <v>4</v>
       </c>
       <c r="T59" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U59" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V59" t="n">
         <v>1.39</v>
@@ -8464,7 +8464,7 @@
         <v>120</v>
       </c>
       <c r="AN59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO59" t="n">
         <v>46</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="G60" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
         <v>1.04</v>
@@ -8548,7 +8548,7 @@
         <v>1.02</v>
       </c>
       <c r="W60" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="X60" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -820,43 +820,43 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.56</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>16.5</v>
@@ -865,10 +865,10 @@
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
@@ -880,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -892,19 +892,19 @@
         <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
         <v>2.36</v>
@@ -952,7 +952,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -970,7 +970,7 @@
         <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
@@ -979,7 +979,7 @@
         <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>2.06</v>
@@ -1075,7 +1075,7 @@
         <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
         <v>2.18</v>
@@ -1090,7 +1090,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,7 +1099,7 @@
         <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
         <v>1.92</v>
@@ -1114,7 +1114,7 @@
         <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
         <v>2.14</v>
@@ -1123,7 +1123,7 @@
         <v>1.76</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1135,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>14.5</v>
@@ -1150,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>16</v>
@@ -1159,10 +1159,10 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
         <v>44</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
         <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.46</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1294,7 +1294,7 @@
         <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1303,7 +1303,7 @@
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1372,7 +1372,7 @@
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
         <v>2.26</v>
@@ -1390,7 +1390,7 @@
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
         <v>1.37</v>
@@ -1420,13 +1420,13 @@
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>46</v>
@@ -1438,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
@@ -1447,7 +1447,7 @@
         <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
@@ -1507,7 +1507,7 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
         <v>1.98</v>
@@ -1516,7 +1516,7 @@
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
@@ -1525,19 +1525,19 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
@@ -1564,7 +1564,7 @@
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1576,13 +1576,13 @@
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
         <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1636,19 +1636,19 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
         <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
         <v>2.8</v>
@@ -1666,10 +1666,10 @@
         <v>1.18</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
         <v>10</v>
@@ -1678,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1714,10 +1714,10 @@
         <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1780,34 +1780,34 @@
         <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="W10" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
@@ -1825,31 +1825,31 @@
         <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN10" t="n">
         <v>36</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>38</v>
       </c>
       <c r="AO10" t="n">
         <v>21</v>
@@ -1900,16 +1900,16 @@
         <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
         <v>1.64</v>
@@ -1924,7 +1924,7 @@
         <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
         <v>1.84</v>
@@ -1936,7 +1936,7 @@
         <v>1.9</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
         <v>16</v>
@@ -1957,10 +1957,10 @@
         <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AJ11" t="n">
         <v>28</v>
@@ -1978,7 +1978,7 @@
         <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2020,16 +2020,16 @@
         <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
         <v>3.15</v>
@@ -2053,10 +2053,10 @@
         <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T12" t="n">
         <v>2.1</v>
@@ -2071,16 +2071,16 @@
         <v>1.56</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
@@ -2089,7 +2089,7 @@
         <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>60</v>
@@ -2110,10 +2110,10 @@
         <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G13" t="n">
         <v>1.32</v>
@@ -2161,10 +2161,10 @@
         <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K13" t="n">
         <v>7</v>
@@ -2173,7 +2173,7 @@
         <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>5.7</v>
@@ -2185,10 +2185,10 @@
         <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
         <v>2.28</v>
@@ -2197,61 +2197,61 @@
         <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
         <v>4.1</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AA13" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI13" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
         <v>4.5</v>
@@ -2290,16 +2290,16 @@
         <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K14" t="n">
         <v>10.5</v>
@@ -2317,19 +2317,19 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
         <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U14" t="n">
         <v>1.72</v>
@@ -2338,10 +2338,10 @@
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="Y14" t="n">
         <v>990</v>
@@ -2356,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
         <v>990</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AH14" t="n">
         <v>990</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2452,16 +2452,16 @@
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
         <v>1.76</v>
@@ -2470,13 +2470,13 @@
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
         <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
         <v>11.5</v>
@@ -2527,7 +2527,7 @@
         <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2569,19 +2569,19 @@
         <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O16" t="n">
         <v>1.48</v>
@@ -2596,13 +2596,13 @@
         <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
         <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
@@ -2611,7 +2611,7 @@
         <v>1.94</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>120</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>4.4</v>
@@ -2710,19 +2710,19 @@
         <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
         <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
         <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
         <v>2.64</v>
@@ -2740,13 +2740,13 @@
         <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2773,13 +2773,13 @@
         <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
         <v>32</v>
@@ -2797,7 +2797,7 @@
         <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2845,7 +2845,7 @@
         <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2860,7 +2860,7 @@
         <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
         <v>1.42</v>
@@ -2884,7 +2884,7 @@
         <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
         <v>70</v>
@@ -2929,10 +2929,10 @@
         <v>430</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
         <v>2.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -2980,7 +2980,7 @@
         <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -2992,7 +2992,7 @@
         <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
         <v>2.38</v>
@@ -3004,19 +3004,19 @@
         <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>6.8</v>
@@ -3040,7 +3040,7 @@
         <v>230</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3049,7 +3049,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
         <v>36</v>
@@ -3067,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>2.02</v>
@@ -3115,13 +3115,13 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
         <v>1.43</v>
@@ -3163,7 +3163,7 @@
         <v>120</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
         <v>7.6</v>
@@ -3187,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3241,16 +3241,16 @@
         <v>1.85</v>
       </c>
       <c r="I21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3268,7 +3268,7 @@
         <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
         <v>4.7</v>
@@ -3280,7 +3280,7 @@
         <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
@@ -3313,7 +3313,7 @@
         <v>38</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -3370,10 +3370,10 @@
         <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
         <v>3.8</v>
@@ -3391,13 +3391,13 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -3418,7 +3418,7 @@
         <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
         <v>16.5</v>
@@ -3463,7 +3463,7 @@
         <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G23" t="n">
         <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
         <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>4.4</v>
@@ -3535,16 +3535,16 @@
         <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
         <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
         <v>2.4</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
         <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="G24" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J24" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="K24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="L24" t="n">
         <v>1.15</v>
@@ -3661,58 +3661,58 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="Q24" t="n">
         <v>1.27</v>
       </c>
       <c r="R24" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="S24" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="T24" t="n">
         <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W24" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
         <v>990</v>
       </c>
-      <c r="Y24" t="n">
-        <v>120</v>
-      </c>
       <c r="Z24" t="n">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
         <v>40</v>
       </c>
       <c r="AD24" t="n">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="AE24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
         <v>10.5</v>
@@ -3721,25 +3721,25 @@
         <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,61 +3772,61 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3850,10 +3850,10 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G26" t="n">
         <v>1.63</v>
@@ -3922,10 +3922,10 @@
         <v>4.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -3943,7 +3943,7 @@
         <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
         <v>2.7</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
         <v>2.16</v>
@@ -4051,7 +4051,7 @@
         <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4060,31 +4060,31 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
         <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T27" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U27" t="n">
         <v>2.36</v>
@@ -4093,40 +4093,40 @@
         <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
         <v>27</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
         <v>95</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>160</v>
@@ -4138,13 +4138,13 @@
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO27" t="n">
         <v>34</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G28" t="n">
         <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I28" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4195,7 +4195,7 @@
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4207,16 +4207,16 @@
         <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R28" t="n">
         <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="T28" t="n">
         <v>1.56</v>
@@ -4225,7 +4225,7 @@
         <v>2.42</v>
       </c>
       <c r="V28" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
         <v>1.52</v>
@@ -4243,10 +4243,10 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
         <v>990</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
         <v>55</v>
@@ -4327,7 +4327,7 @@
         <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>1.39</v>
@@ -4354,7 +4354,7 @@
         <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
         <v>2.1</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G30" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.52</v>
       </c>
-      <c r="I30" t="n">
-        <v>1.54</v>
-      </c>
       <c r="J30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>1.28</v>
@@ -4474,37 +4474,37 @@
         <v>5.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q30" t="n">
         <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S30" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
         <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="W30" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X30" t="n">
         <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
         <v>10.5</v>
@@ -4513,31 +4513,31 @@
         <v>14</v>
       </c>
       <c r="AB30" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF30" t="n">
         <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ30" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AK30" t="n">
         <v>95</v>
@@ -4546,13 +4546,13 @@
         <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="31">
@@ -4594,13 +4594,13 @@
         <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4609,19 +4609,19 @@
         <v>4.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
         <v>2.32</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="T31" t="n">
         <v>1.62</v>
@@ -4630,7 +4630,7 @@
         <v>2.42</v>
       </c>
       <c r="V31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W31" t="n">
         <v>1.76</v>
@@ -4651,7 +4651,7 @@
         <v>990</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD31" t="n">
         <v>990</v>
@@ -4660,22 +4660,22 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
         <v>40</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G32" t="n">
         <v>1.92</v>
@@ -4735,7 +4735,7 @@
         <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -4753,10 +4753,10 @@
         <v>2.04</v>
       </c>
       <c r="R32" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T32" t="n">
         <v>1.9</v>
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
         <v>2.08</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>2.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J33" t="n">
         <v>3.2</v>
@@ -4882,16 +4882,16 @@
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
         <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T33" t="n">
         <v>1.74</v>
@@ -4900,13 +4900,13 @@
         <v>2.18</v>
       </c>
       <c r="V33" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W33" t="n">
         <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
         <v>11</v>
@@ -4945,7 +4945,7 @@
         <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="n">
         <v>48</v>
@@ -4954,7 +4954,7 @@
         <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
         <v>22</v>
@@ -4990,7 +4990,7 @@
         <v>1.88</v>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H34" t="n">
         <v>4.8</v>
@@ -5011,7 +5011,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O34" t="n">
         <v>1.31</v>
@@ -5020,7 +5020,7 @@
         <v>2.02</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
         <v>1.39</v>
@@ -5029,7 +5029,7 @@
         <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U34" t="n">
         <v>2.1</v>
@@ -5038,7 +5038,7 @@
         <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X34" t="n">
         <v>14.5</v>
@@ -5134,13 +5134,13 @@
         <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5155,7 +5155,7 @@
         <v>2.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R35" t="n">
         <v>1.5</v>
@@ -5200,7 +5200,7 @@
         <v>90</v>
       </c>
       <c r="AF35" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5260,49 +5260,49 @@
         <v>6.6</v>
       </c>
       <c r="G36" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I36" t="n">
         <v>1.55</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R36" t="n">
         <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="T36" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
         <v>2.8</v>
@@ -5317,7 +5317,7 @@
         <v>990</v>
       </c>
       <c r="Z36" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5338,7 +5338,7 @@
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -5404,13 +5404,13 @@
         <v>1.68</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5422,25 +5422,25 @@
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
         <v>1.38</v>
       </c>
       <c r="S37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W37" t="n">
         <v>1.17</v>
@@ -5479,7 +5479,7 @@
         <v>990</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5527,46 +5527,46 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H38" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I38" t="n">
         <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R38" t="n">
         <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="T38" t="n">
         <v>1.69</v>
@@ -5575,10 +5575,10 @@
         <v>2.18</v>
       </c>
       <c r="V38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W38" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
         <v>990</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AC38" t="n">
         <v>14</v>
@@ -5605,10 +5605,10 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AH38" t="n">
         <v>60</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5692,7 +5692,7 @@
         <v>1.41</v>
       </c>
       <c r="P39" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q39" t="n">
         <v>2.22</v>
@@ -5701,7 +5701,7 @@
         <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T39" t="n">
         <v>1.87</v>
@@ -5710,7 +5710,7 @@
         <v>1.95</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W39" t="n">
         <v>1.41</v>
@@ -5719,7 +5719,7 @@
         <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z39" t="n">
         <v>19.5</v>
@@ -5755,7 +5755,7 @@
         <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL39" t="n">
         <v>70</v>
@@ -5764,7 +5764,7 @@
         <v>500</v>
       </c>
       <c r="AN39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO39" t="n">
         <v>34</v>
@@ -5800,22 +5800,22 @@
         <v>1.84</v>
       </c>
       <c r="G40" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
         <v>5.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -5827,13 +5827,13 @@
         <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S40" t="n">
         <v>3.6</v>
@@ -5842,7 +5842,7 @@
         <v>1.88</v>
       </c>
       <c r="U40" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V40" t="n">
         <v>1.23</v>
@@ -5893,13 +5893,13 @@
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H41" t="n">
         <v>3.85</v>
@@ -5956,7 +5956,7 @@
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -5974,16 +5974,16 @@
         <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U41" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V41" t="n">
         <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X41" t="n">
         <v>12.5</v>
@@ -6001,7 +6001,7 @@
         <v>9.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
         <v>21</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -6076,16 +6076,16 @@
         <v>1.72</v>
       </c>
       <c r="I42" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="J42" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K42" t="n">
         <v>4.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -6100,19 +6100,19 @@
         <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R42" t="n">
         <v>1.38</v>
       </c>
       <c r="S42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T42" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
         <v>2.28</v>
@@ -6142,10 +6142,10 @@
         <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG42" t="n">
         <v>42</v>
@@ -6205,10 +6205,10 @@
         <v>1.41</v>
       </c>
       <c r="G43" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H43" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I43" t="n">
         <v>9.6</v>
@@ -6220,7 +6220,7 @@
         <v>5.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6238,10 +6238,10 @@
         <v>1.72</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T43" t="n">
         <v>1.99</v>
@@ -6253,7 +6253,7 @@
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X43" t="n">
         <v>21</v>
@@ -6262,10 +6262,10 @@
         <v>32</v>
       </c>
       <c r="Z43" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AB43" t="n">
         <v>9.199999999999999</v>
@@ -6274,7 +6274,7 @@
         <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE43" t="n">
         <v>130</v>
@@ -6283,7 +6283,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH43" t="n">
         <v>25</v>
@@ -6301,10 +6301,10 @@
         <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO43" t="n">
         <v>150</v>
@@ -6355,7 +6355,7 @@
         <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G45" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I45" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.72</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6502,10 +6502,10 @@
         <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
         <v>1.42</v>
@@ -6535,7 +6535,7 @@
         <v>18</v>
       </c>
       <c r="AA45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="n">
         <v>12.5</v>
@@ -6550,10 +6550,10 @@
         <v>27</v>
       </c>
       <c r="AF45" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>15.5</v>
@@ -6625,7 +6625,7 @@
         <v>7.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -6637,10 +6637,10 @@
         <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R46" t="n">
         <v>1.69</v>
@@ -6670,7 +6670,7 @@
         <v>130</v>
       </c>
       <c r="AA46" t="n">
-        <v>570</v>
+        <v>890</v>
       </c>
       <c r="AB46" t="n">
         <v>10</v>
@@ -6688,13 +6688,13 @@
         <v>8</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI46" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ46" t="n">
         <v>9.4</v>
@@ -6706,13 +6706,13 @@
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN46" t="n">
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
@@ -6745,7 +6745,7 @@
         <v>2.38</v>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H47" t="n">
         <v>3.15</v>
@@ -6760,7 +6760,7 @@
         <v>3.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -6784,7 +6784,7 @@
         <v>2.86</v>
       </c>
       <c r="T47" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U47" t="n">
         <v>2.5</v>
@@ -6805,7 +6805,7 @@
         <v>23</v>
       </c>
       <c r="AA47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB47" t="n">
         <v>13</v>
@@ -6889,13 +6889,13 @@
         <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -6910,19 +6910,19 @@
         <v>1.98</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R48" t="n">
         <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U48" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V48" t="n">
         <v>1.38</v>
@@ -6934,10 +6934,10 @@
         <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
@@ -6946,43 +6946,43 @@
         <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD48" t="n">
         <v>27</v>
       </c>
       <c r="AE48" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AG48" t="n">
         <v>18</v>
       </c>
       <c r="AH48" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL48" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G49" t="n">
         <v>2.18</v>
@@ -7030,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -7150,16 +7150,16 @@
         <v>1.7</v>
       </c>
       <c r="G50" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H50" t="n">
         <v>5.8</v>
       </c>
       <c r="I50" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="n">
         <v>3.95</v>
@@ -7180,7 +7180,7 @@
         <v>1.62</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R50" t="n">
         <v>1.23</v>
@@ -7192,7 +7192,7 @@
         <v>2.12</v>
       </c>
       <c r="U50" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V50" t="n">
         <v>1.14</v>
@@ -7201,7 +7201,7 @@
         <v>2.2</v>
       </c>
       <c r="X50" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="Y50" t="n">
         <v>990</v>
@@ -7213,10 +7213,10 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
@@ -7225,22 +7225,22 @@
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH50" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
         <v>1000</v>
@@ -7285,7 +7285,7 @@
         <v>1.56</v>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H51" t="n">
         <v>7.4</v>
@@ -7315,16 +7315,16 @@
         <v>1.99</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S51" t="n">
         <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U51" t="n">
         <v>1.86</v>
@@ -7333,7 +7333,7 @@
         <v>1.13</v>
       </c>
       <c r="W51" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X51" t="n">
         <v>17.5</v>
@@ -7378,7 +7378,7 @@
         <v>21</v>
       </c>
       <c r="AL51" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM51" t="n">
         <v>580</v>
@@ -7423,7 +7423,7 @@
         <v>3.35</v>
       </c>
       <c r="H52" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I52" t="n">
         <v>2.62</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
         <v>1.61</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G53" t="n">
         <v>1.9</v>
       </c>
       <c r="H53" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I53" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.5</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -7588,7 +7588,7 @@
         <v>1.74</v>
       </c>
       <c r="R53" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S53" t="n">
         <v>2.84</v>
@@ -7597,10 +7597,10 @@
         <v>1.7</v>
       </c>
       <c r="U53" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V53" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W53" t="n">
         <v>2.1</v>
@@ -7621,16 +7621,16 @@
         <v>11.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD53" t="n">
         <v>17.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG53" t="n">
         <v>10.5</v>
@@ -7654,7 +7654,7 @@
         <v>70</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO53" t="n">
         <v>46</v>
@@ -7690,7 +7690,7 @@
         <v>1.45</v>
       </c>
       <c r="G54" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H54" t="n">
         <v>6.6</v>
@@ -7702,7 +7702,7 @@
         <v>4.9</v>
       </c>
       <c r="K54" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L54" t="n">
         <v>1.23</v>
@@ -7711,7 +7711,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
@@ -7726,7 +7726,7 @@
         <v>1.63</v>
       </c>
       <c r="S54" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T54" t="n">
         <v>1.73</v>
@@ -7738,7 +7738,7 @@
         <v>1.15</v>
       </c>
       <c r="W54" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="X54" t="n">
         <v>28</v>
@@ -7747,7 +7747,7 @@
         <v>30</v>
       </c>
       <c r="Z54" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="n">
         <v>210</v>
@@ -7759,10 +7759,10 @@
         <v>12.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF54" t="n">
         <v>11</v>
@@ -7771,13 +7771,13 @@
         <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI54" t="n">
         <v>75</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK54" t="n">
         <v>15</v>
@@ -7789,10 +7789,10 @@
         <v>100</v>
       </c>
       <c r="AN54" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G55" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I55" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
@@ -7849,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P55" t="n">
         <v>2.06</v>
@@ -7873,7 +7873,7 @@
         <v>1.27</v>
       </c>
       <c r="W55" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X55" t="n">
         <v>21</v>
@@ -7966,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J56" t="n">
         <v>4.1</v>
@@ -7981,7 +7981,7 @@
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O56" t="n">
         <v>1.31</v>
@@ -7990,22 +7990,22 @@
         <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R56" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S56" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U56" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W56" t="n">
         <v>2.6</v>
@@ -8014,16 +8014,16 @@
         <v>15</v>
       </c>
       <c r="Y56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="n">
         <v>55</v>
       </c>
       <c r="AA56" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB56" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC56" t="n">
         <v>9.4</v>
@@ -8044,13 +8044,13 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL56" t="n">
         <v>38</v>
@@ -8059,7 +8059,7 @@
         <v>140</v>
       </c>
       <c r="AN56" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO56" t="n">
         <v>140</v>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="n">
         <v>2.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
         <v>3.75</v>
@@ -8107,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,49 +8116,49 @@
         <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R57" t="n">
         <v>1.24</v>
       </c>
       <c r="S57" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U57" t="n">
         <v>1.93</v>
       </c>
       <c r="V57" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W57" t="n">
         <v>1.62</v>
       </c>
       <c r="X57" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA57" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB57" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8170,34 +8170,34 @@
         <v>55</v>
       </c>
       <c r="AF57" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
         <v>80</v>
       </c>
       <c r="AJ57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN57" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO57" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G58" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>1.49</v>
       </c>
       <c r="I58" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J58" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K58" t="n">
         <v>4.7</v>
@@ -8251,7 +8251,7 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O58" t="n">
         <v>1.35</v>
@@ -8275,10 +8275,10 @@
         <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X58" t="n">
         <v>14.5</v>
@@ -8293,7 +8293,7 @@
         <v>12.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC58" t="n">
         <v>10</v>
@@ -8371,7 +8371,7 @@
         <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -8380,7 +8380,7 @@
         <v>3.45</v>
       </c>
       <c r="L59" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
@@ -8401,7 +8401,7 @@
         <v>1.3</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T59" t="n">
         <v>1.89</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -682,7 +682,7 @@
         <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
         <v>1.05</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.58</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
@@ -835,10 +835,10 @@
         <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>2.62</v>
@@ -850,52 +850,52 @@
         <v>2.66</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
         <v>22</v>
       </c>
-      <c r="AA3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
@@ -904,10 +904,10 @@
         <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -940,61 +940,61 @@
         <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,19 +1009,19 @@
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
         <v>2.3</v>
@@ -1090,28 +1090,28 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
         <v>1.75</v>
@@ -1123,7 +1123,7 @@
         <v>1.76</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1147,7 +1147,7 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
         <v>30</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.4</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1270,16 +1270,16 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,79 +1342,79 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1423,31 +1423,31 @@
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN7" t="n">
         <v>46</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>60</v>
-      </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
@@ -1495,19 +1495,19 @@
         <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
         <v>1.98</v>
@@ -1522,19 +1522,19 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
         <v>32</v>
@@ -1564,7 +1564,7 @@
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1573,16 +1573,16 @@
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="J9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.7</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
         <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>1.36</v>
@@ -1789,16 +1789,16 @@
         <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
         <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
@@ -1807,7 +1807,7 @@
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
@@ -1831,19 +1831,19 @@
         <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
         <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
         <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>200</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G11" t="n">
         <v>2.1</v>
@@ -1891,43 +1891,43 @@
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
         <v>1.25</v>
@@ -1936,10 +1936,10 @@
         <v>1.9</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
         <v>36</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1957,28 +1957,28 @@
         <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>28</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K12" t="n">
         <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="O12" t="n">
         <v>1.59</v>
@@ -2050,7 +2050,7 @@
         <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="R12" t="n">
         <v>1.17</v>
@@ -2059,43 +2059,43 @@
         <v>5.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>8.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2107,22 +2107,22 @@
         <v>460</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
         <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,109 +2152,109 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="I13" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W13" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="X13" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z13" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA13" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>990</v>
       </c>
       <c r="AI13" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2293,22 +2293,22 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>6.2</v>
@@ -2317,34 +2317,34 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q14" t="n">
         <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.14</v>
       </c>
-      <c r="T14" t="n">
-        <v>2.24</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,22 +2353,22 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>990</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>990</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
         <v>3.25</v>
@@ -2446,7 +2446,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.34</v>
@@ -2455,7 +2455,7 @@
         <v>1.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
         <v>1.35</v>
@@ -2467,13 +2467,13 @@
         <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X15" t="n">
         <v>16.5</v>
@@ -2485,7 +2485,7 @@
         <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
@@ -2497,37 +2497,37 @@
         <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
         <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
         <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.02</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.06</v>
       </c>
       <c r="H16" t="n">
         <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>3.3</v>
@@ -2581,13 +2581,13 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
         <v>2.46</v>
@@ -2596,25 +2596,25 @@
         <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
         <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>9.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
         <v>34</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>120</v>
@@ -2716,16 +2716,16 @@
         <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O17" t="n">
         <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R17" t="n">
         <v>1.2</v>
@@ -2740,13 +2740,13 @@
         <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
         <v>1.76</v>
       </c>
       <c r="X17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2791,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
         <v>32</v>
@@ -2830,22 +2830,22 @@
         <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I18" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2854,64 +2854,64 @@
         <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
         <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>520</v>
@@ -2926,10 +2926,10 @@
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
         <v>170</v>
@@ -2965,7 +2965,7 @@
         <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -2980,25 +2980,25 @@
         <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
         <v>4.5</v>
@@ -3013,7 +3013,7 @@
         <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
         <v>10.5</v>
@@ -3025,10 +3025,10 @@
         <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>6.8</v>
@@ -3037,16 +3037,16 @@
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
@@ -3061,7 +3061,7 @@
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
         <v>32</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
         <v>2.02</v>
@@ -3112,7 +3112,7 @@
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -3130,16 +3130,16 @@
         <v>1.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
         <v>4.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
         <v>1.94</v>
@@ -3169,7 +3169,7 @@
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
         <v>70</v>
@@ -3241,7 +3241,7 @@
         <v>1.85</v>
       </c>
       <c r="I21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3250,7 +3250,7 @@
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3262,25 +3262,25 @@
         <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
         <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
         <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
@@ -3331,7 +3331,7 @@
         <v>100</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
         <v>140</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
         <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
         <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD22" t="n">
         <v>14</v>
       </c>
-      <c r="Z22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X23" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3583,10 +3583,10 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J24" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="K24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L24" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -3667,79 +3667,79 @@
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>410</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
         <v>990</v>
       </c>
-      <c r="Z24" t="n">
-        <v>490</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>75</v>
-      </c>
       <c r="AI24" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3775,46 +3775,46 @@
         <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
         <v>1.92</v>
@@ -3823,7 +3823,7 @@
         <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
         <v>6</v>
@@ -3919,97 +3919,97 @@
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD26" t="n">
         <v>25</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>26</v>
       </c>
       <c r="AE26" t="n">
         <v>110</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
         <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G27" t="n">
         <v>2.16</v>
@@ -4060,7 +4060,7 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4069,19 +4069,19 @@
         <v>4.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
         <v>2.28</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S27" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
         <v>1.6</v>
@@ -4090,28 +4090,28 @@
         <v>2.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>16.5</v>
@@ -4123,7 +4123,7 @@
         <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -4144,7 +4144,7 @@
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>34</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G28" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R28" t="n">
         <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T28" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
         <v>990</v>
@@ -4315,43 +4315,43 @@
         <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
         <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
         <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T29" t="n">
         <v>1.71</v>
@@ -4360,16 +4360,16 @@
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,7 +4381,7 @@
         <v>990</v>
       </c>
       <c r="AC29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
         <v>23</v>
@@ -4393,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
         <v>40</v>
@@ -4402,7 +4402,7 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -4450,52 +4450,52 @@
         <v>7.4</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I30" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J30" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R30" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U30" t="n">
         <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>1.14</v>
@@ -4510,13 +4510,13 @@
         <v>10.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
@@ -4525,34 +4525,34 @@
         <v>14.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AK30" t="n">
         <v>95</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="31">
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
         <v>4.8</v>
@@ -4612,34 +4612,34 @@
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R31" t="n">
         <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T31" t="n">
         <v>1.62</v>
       </c>
       <c r="U31" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="X31" t="n">
         <v>990</v>
       </c>
       <c r="Y31" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,10 +4648,10 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
         <v>990</v>
@@ -4663,10 +4663,10 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G32" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.6</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.65</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AA32" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AF32" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL32" t="n">
         <v>38</v>
       </c>
       <c r="AM32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO32" t="n">
         <v>120</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4852,70 +4852,70 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
         <v>3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="W33" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X33" t="n">
         <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -4927,13 +4927,13 @@
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF33" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>17</v>
@@ -4942,22 +4942,22 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL33" t="n">
         <v>55</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>48</v>
       </c>
       <c r="AM33" t="n">
         <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H34" t="n">
         <v>4.8</v>
@@ -4999,19 +4999,19 @@
         <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
         <v>1.31</v>
@@ -5020,13 +5020,13 @@
         <v>2.02</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R34" t="n">
         <v>1.39</v>
       </c>
       <c r="S34" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T34" t="n">
         <v>1.81</v>
@@ -5038,10 +5038,10 @@
         <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X34" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y34" t="n">
         <v>17</v>
@@ -5056,7 +5056,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
         <v>18</v>
@@ -5065,7 +5065,7 @@
         <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG34" t="n">
         <v>9.6</v>
@@ -5089,10 +5089,10 @@
         <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO34" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
@@ -5140,61 +5140,61 @@
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
         <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
         <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U35" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V35" t="n">
         <v>1.38</v>
       </c>
       <c r="W35" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="n">
         <v>440</v>
       </c>
       <c r="AB35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>90</v>
@@ -5206,28 +5206,28 @@
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI35" t="n">
         <v>160</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK35" t="n">
         <v>22</v>
       </c>
       <c r="AL35" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO35" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -5257,58 +5257,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I36" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
         <v>4.3</v>
       </c>
-      <c r="K36" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R36" t="n">
         <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="W36" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X36" t="n">
         <v>990</v>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="I37" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J37" t="n">
         <v>4.1</v>
@@ -5410,49 +5410,49 @@
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V37" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W37" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X37" t="n">
         <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA37" t="n">
         <v>44</v>
@@ -5464,13 +5464,13 @@
         <v>14</v>
       </c>
       <c r="AD37" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AG37" t="n">
         <v>990</v>
@@ -5479,7 +5479,7 @@
         <v>990</v>
       </c>
       <c r="AI37" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G38" t="n">
         <v>2.74</v>
@@ -5536,37 +5536,37 @@
         <v>2.8</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R38" t="n">
         <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
         <v>1.69</v>
@@ -5575,16 +5575,16 @@
         <v>2.18</v>
       </c>
       <c r="V38" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X38" t="n">
         <v>990</v>
       </c>
       <c r="Y38" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5599,10 +5599,10 @@
         <v>14</v>
       </c>
       <c r="AD38" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="n">
         <v>1000</v>
@@ -5626,7 +5626,7 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
         <v>55</v>
@@ -5665,10 +5665,10 @@
         <v>3.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H39" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I39" t="n">
         <v>2.68</v>
@@ -5677,25 +5677,25 @@
         <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L39" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
         <v>1.26</v>
@@ -5704,31 +5704,31 @@
         <v>4.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U39" t="n">
         <v>1.95</v>
       </c>
       <c r="V39" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X39" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y39" t="n">
         <v>9.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>46</v>
       </c>
       <c r="AB39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
         <v>7.8</v>
@@ -5740,19 +5740,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG39" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI39" t="n">
         <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK39" t="n">
         <v>48</v>
@@ -5761,13 +5761,13 @@
         <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
         <v>50</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G40" t="n">
         <v>1.9</v>
@@ -5812,7 +5812,7 @@
         <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L40" t="n">
         <v>1.43</v>
@@ -5821,16 +5821,16 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R40" t="n">
         <v>1.32</v>
@@ -5893,7 +5893,7 @@
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
@@ -5935,10 +5935,10 @@
         <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
         <v>4.1</v>
@@ -5950,22 +5950,22 @@
         <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
@@ -6016,7 +6016,7 @@
         <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6067,31 +6067,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="I42" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K42" t="n">
         <v>4.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
@@ -6100,37 +6100,37 @@
         <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U42" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V42" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="W42" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X42" t="n">
         <v>17</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB42" t="n">
         <v>38</v>
@@ -6145,13 +6145,13 @@
         <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AH42" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
@@ -6205,73 +6205,73 @@
         <v>1.41</v>
       </c>
       <c r="G43" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I43" t="n">
         <v>9.6</v>
       </c>
       <c r="J43" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.32</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R43" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="S43" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="T43" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U43" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V43" t="n">
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X43" t="n">
         <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA43" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
         <v>32</v>
@@ -6280,16 +6280,16 @@
         <v>130</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG43" t="n">
         <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ43" t="n">
         <v>11.5</v>
@@ -6298,16 +6298,16 @@
         <v>14</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM43" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AO43" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G44" t="n">
         <v>4.2</v>
       </c>
-      <c r="G44" t="n">
-        <v>4.3</v>
-      </c>
       <c r="H44" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I44" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.45</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6376,7 +6376,7 @@
         <v>1.27</v>
       </c>
       <c r="S44" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T44" t="n">
         <v>2.04</v>
@@ -6385,13 +6385,13 @@
         <v>1.93</v>
       </c>
       <c r="V44" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W44" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y44" t="n">
         <v>7.8</v>
@@ -6403,19 +6403,19 @@
         <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD44" t="n">
         <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG44" t="n">
         <v>17</v>
@@ -6424,13 +6424,13 @@
         <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ44" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL44" t="n">
         <v>75</v>
@@ -6439,10 +6439,10 @@
         <v>120</v>
       </c>
       <c r="AN44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -6481,7 +6481,7 @@
         <v>2.68</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6490,7 +6490,7 @@
         <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6499,13 +6499,13 @@
         <v>4.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R45" t="n">
         <v>1.42</v>
@@ -6553,7 +6553,7 @@
         <v>18.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
         <v>15.5</v>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.28</v>
       </c>
       <c r="H46" t="n">
         <v>13</v>
@@ -6643,22 +6643,22 @@
         <v>1.55</v>
       </c>
       <c r="R46" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S46" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U46" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V46" t="n">
         <v>1.08</v>
       </c>
       <c r="W46" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X46" t="n">
         <v>32</v>
@@ -6676,7 +6676,7 @@
         <v>10</v>
       </c>
       <c r="AC46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD46" t="n">
         <v>46</v>
@@ -6712,7 +6712,7 @@
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
@@ -6745,7 +6745,7 @@
         <v>2.38</v>
       </c>
       <c r="G47" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.15</v>
@@ -6760,7 +6760,7 @@
         <v>3.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -6772,16 +6772,16 @@
         <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R47" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S47" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T47" t="n">
         <v>1.65</v>
@@ -6796,7 +6796,7 @@
         <v>1.71</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y47" t="n">
         <v>15.5</v>
@@ -6829,7 +6829,7 @@
         <v>14.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="n">
         <v>32</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G48" t="n">
         <v>2.28</v>
@@ -6886,19 +6886,19 @@
         <v>3.35</v>
       </c>
       <c r="I48" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
         <v>3.75</v>
@@ -6910,19 +6910,19 @@
         <v>1.98</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R48" t="n">
         <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T48" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U48" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V48" t="n">
         <v>1.38</v>
@@ -6931,13 +6931,13 @@
         <v>1.78</v>
       </c>
       <c r="X48" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y48" t="n">
         <v>22</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
@@ -6961,13 +6961,13 @@
         <v>18</v>
       </c>
       <c r="AH48" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="n">
         <v>65</v>
@@ -6982,7 +6982,7 @@
         <v>55</v>
       </c>
       <c r="AO48" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7015,7 +7015,7 @@
         <v>2.06</v>
       </c>
       <c r="G49" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H49" t="n">
         <v>3.55</v>
@@ -7030,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -7042,34 +7042,34 @@
         <v>1.26</v>
       </c>
       <c r="P49" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R49" t="n">
         <v>1.45</v>
       </c>
       <c r="S49" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T49" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U49" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V49" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W49" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z49" t="n">
         <v>29</v>
@@ -7078,7 +7078,7 @@
         <v>70</v>
       </c>
       <c r="AB49" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
         <v>9.199999999999999</v>
@@ -7102,7 +7102,7 @@
         <v>46</v>
       </c>
       <c r="AJ49" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK49" t="n">
         <v>22</v>
@@ -7114,10 +7114,10 @@
         <v>200</v>
       </c>
       <c r="AN49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
@@ -7153,49 +7153,49 @@
         <v>1.82</v>
       </c>
       <c r="H50" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M50" t="n">
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P50" t="n">
         <v>1.62</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R50" t="n">
         <v>1.23</v>
       </c>
       <c r="S50" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T50" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U50" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V50" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W50" t="n">
         <v>2.2</v>
@@ -7204,7 +7204,7 @@
         <v>90</v>
       </c>
       <c r="Y50" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
         <v>1000</v>
@@ -7213,7 +7213,7 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
         <v>18</v>
@@ -7225,25 +7225,25 @@
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AG50" t="n">
         <v>40</v>
       </c>
       <c r="AH50" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK50" t="n">
         <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G51" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H51" t="n">
         <v>7.4</v>
@@ -7297,76 +7297,76 @@
         <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R51" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S51" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T51" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U51" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V51" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W51" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X51" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y51" t="n">
         <v>24</v>
       </c>
       <c r="Z51" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="AA51" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AB51" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AE51" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG51" t="n">
         <v>10</v>
       </c>
-      <c r="AG51" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH51" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
         <v>520</v>
@@ -7375,10 +7375,10 @@
         <v>14.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="n">
         <v>580</v>
@@ -7435,7 +7435,7 @@
         <v>3.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M52" t="n">
         <v>1.11</v>
@@ -7456,13 +7456,13 @@
         <v>1.24</v>
       </c>
       <c r="S52" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U52" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
         <v>1.61</v>
@@ -7471,10 +7471,10 @@
         <v>1.42</v>
       </c>
       <c r="X52" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z52" t="n">
         <v>15</v>
@@ -7570,7 +7570,7 @@
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -7579,25 +7579,25 @@
         <v>4.8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R53" t="n">
         <v>1.51</v>
       </c>
       <c r="S53" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T53" t="n">
         <v>1.7</v>
       </c>
       <c r="U53" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V53" t="n">
         <v>1.29</v>
@@ -7618,22 +7618,22 @@
         <v>90</v>
       </c>
       <c r="AB53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
         <v>17.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF53" t="n">
         <v>12.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
         <v>16.5</v>
@@ -7642,7 +7642,7 @@
         <v>46</v>
       </c>
       <c r="AJ53" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK53" t="n">
         <v>17</v>
@@ -7687,49 +7687,49 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G54" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H54" t="n">
         <v>6.6</v>
       </c>
       <c r="I54" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J54" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K54" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P54" t="n">
         <v>2.56</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R54" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S54" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T54" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U54" t="n">
         <v>2.12</v>
@@ -7738,22 +7738,22 @@
         <v>1.15</v>
       </c>
       <c r="W54" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="X54" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y54" t="n">
         <v>28</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>30</v>
       </c>
       <c r="Z54" t="n">
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC54" t="n">
         <v>12.5</v>
@@ -7762,7 +7762,7 @@
         <v>27</v>
       </c>
       <c r="AE54" t="n">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="AF54" t="n">
         <v>11</v>
@@ -7771,28 +7771,28 @@
         <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI54" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="n">
         <v>14.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
         <v>29</v>
       </c>
-      <c r="AM54" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AO54" t="n">
-        <v>95</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
@@ -7834,52 +7834,52 @@
         <v>4.7</v>
       </c>
       <c r="J55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K55" t="n">
         <v>3.8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M55" t="n">
         <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P55" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="R55" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S55" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T55" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U55" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V55" t="n">
         <v>1.27</v>
       </c>
       <c r="W55" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z55" t="n">
         <v>34</v>
@@ -7888,7 +7888,7 @@
         <v>100</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC55" t="n">
         <v>8.199999999999999</v>
@@ -7906,7 +7906,7 @@
         <v>10</v>
       </c>
       <c r="AH55" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI55" t="n">
         <v>60</v>
@@ -7924,7 +7924,7 @@
         <v>95</v>
       </c>
       <c r="AN55" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO55" t="n">
         <v>55</v>
@@ -7957,25 +7957,25 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.6</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.62</v>
       </c>
       <c r="H56" t="n">
         <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J56" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -7987,43 +7987,43 @@
         <v>1.31</v>
       </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q56" t="n">
         <v>1.96</v>
       </c>
       <c r="R56" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S56" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T56" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V56" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W56" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X56" t="n">
         <v>15</v>
       </c>
       <c r="Y56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z56" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA56" t="n">
         <v>220</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC56" t="n">
         <v>9.4</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="n">
         <v>14.5</v>
@@ -8056,7 +8056,7 @@
         <v>38</v>
       </c>
       <c r="AM56" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN56" t="n">
         <v>9.199999999999999</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I57" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -8110,43 +8110,43 @@
         <v>3.1</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M57" t="n">
         <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P57" t="n">
         <v>1.67</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R57" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S57" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T57" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U57" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V57" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W57" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X57" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y57" t="n">
         <v>12.5</v>
@@ -8161,7 +8161,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC57" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD57" t="n">
         <v>1000</v>
@@ -8182,7 +8182,7 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK57" t="n">
         <v>32</v>
@@ -8239,13 +8239,13 @@
         <v>1.5</v>
       </c>
       <c r="J58" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K58" t="n">
         <v>4.7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
@@ -8254,19 +8254,19 @@
         <v>3.75</v>
       </c>
       <c r="O58" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P58" t="n">
         <v>1.92</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R58" t="n">
         <v>1.35</v>
       </c>
       <c r="S58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T58" t="n">
         <v>2.22</v>
@@ -8362,64 +8362,64 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
       </c>
       <c r="K59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P59" t="n">
         <v>1.79</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R59" t="n">
         <v>1.3</v>
       </c>
       <c r="S59" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T59" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U59" t="n">
         <v>2.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W59" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X59" t="n">
         <v>12</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="n">
         <v>24</v>
@@ -8446,10 +8446,10 @@
         <v>11.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ59" t="n">
         <v>34</v>
@@ -8464,10 +8464,10 @@
         <v>120</v>
       </c>
       <c r="AN59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO59" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="I3" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -832,28 +832,28 @@
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -862,52 +862,52 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -967,28 +967,28 @@
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
         <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
         <v>29</v>
@@ -997,28 +997,28 @@
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>65</v>
@@ -1042,7 +1042,7 @@
         <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
@@ -1096,16 +1096,16 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.36</v>
@@ -1114,70 +1114,70 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK5" t="n">
         <v>42</v>
       </c>
-      <c r="AF5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>44</v>
-      </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
         <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1360,49 +1360,49 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
         <v>32</v>
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1423,28 +1423,28 @@
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>44</v>
       </c>
       <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL7" t="n">
         <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
@@ -1489,55 +1489,55 @@
         <v>4.4</v>
       </c>
       <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
@@ -1546,7 +1546,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>17</v>
@@ -1555,7 +1555,7 @@
         <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1564,25 +1564,25 @@
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I9" t="n">
         <v>1.63</v>
@@ -1630,31 +1630,31 @@
         <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
         <v>2.26</v>
@@ -1669,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>10.5</v>
@@ -1678,28 +1678,28 @@
         <v>16</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>46</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
         <v>150</v>
@@ -1711,13 +1711,13 @@
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.43</v>
@@ -1771,19 +1771,19 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
         <v>3.55</v>
@@ -1792,13 +1792,13 @@
         <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
@@ -1816,13 +1816,13 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
@@ -1831,7 +1831,7 @@
         <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
         <v>38</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.8</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K12" t="n">
         <v>3.15</v>
@@ -2041,34 +2041,34 @@
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
         <v>8.6</v>
@@ -2080,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
         <v>8.4</v>
@@ -2092,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
         <v>17.5</v>
@@ -2110,7 +2110,7 @@
         <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
         <v>190</v>
@@ -2122,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="I13" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2176,58 +2176,58 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AF13" t="n">
         <v>8.4</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2251,10 +2251,10 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,19 +2290,19 @@
         <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
@@ -2317,34 +2317,34 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.16</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.14</v>
       </c>
       <c r="U14" t="n">
         <v>1.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="X14" t="n">
-        <v>44</v>
+        <v>990</v>
       </c>
       <c r="Y14" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>21</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>990</v>
@@ -2383,13 +2383,13 @@
         <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="J15" t="n">
         <v>3.15</v>
@@ -2440,76 +2440,76 @@
         <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
         <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
         <v>46</v>
@@ -2518,16 +2518,16 @@
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G16" t="n">
         <v>2.02</v>
@@ -2569,10 +2569,10 @@
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.53</v>
@@ -2581,40 +2581,40 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
         <v>34</v>
@@ -2623,16 +2623,16 @@
         <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
@@ -2647,22 +2647,22 @@
         <v>380</v>
       </c>
       <c r="AJ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK16" t="n">
         <v>25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>27</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
         <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.05</v>
@@ -2716,19 +2716,19 @@
         <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
         <v>5.4</v>
@@ -2737,7 +2737,7 @@
         <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
         <v>1.3</v>
@@ -2746,7 +2746,7 @@
         <v>1.76</v>
       </c>
       <c r="X17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2779,7 +2779,7 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
         <v>32</v>
@@ -2788,16 +2788,16 @@
         <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
         <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I18" t="n">
         <v>7.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="X18" t="n">
         <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="n">
-        <v>520</v>
+        <v>290</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
         <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -2989,13 +2989,13 @@
         <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R19" t="n">
         <v>1.26</v>
@@ -3004,31 +3004,31 @@
         <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
         <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>6.8</v>
@@ -3037,10 +3037,10 @@
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3052,7 +3052,7 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
         <v>32</v>
@@ -3061,13 +3061,13 @@
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
         <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -3124,7 +3124,7 @@
         <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P20" t="n">
         <v>1.76</v>
@@ -3133,22 +3133,22 @@
         <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3187,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3244,7 +3244,7 @@
         <v>1.86</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
@@ -3259,13 +3259,13 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
         <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
         <v>1.25</v>
@@ -3310,7 +3310,7 @@
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -3328,7 +3328,7 @@
         <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
         <v>170</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -3385,19 +3385,19 @@
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="n">
         <v>2.02</v>
@@ -3409,70 +3409,70 @@
         <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
         <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3502,52 +3502,52 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G23" t="n">
         <v>2.14</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.1</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
         <v>1.33</v>
@@ -3556,7 +3556,7 @@
         <v>1.87</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3583,28 +3583,28 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G24" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
         <v>32</v>
       </c>
       <c r="J24" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" t="n">
         <v>1.18</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.09</v>
@@ -3670,40 +3670,40 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R24" t="n">
         <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="T24" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U24" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="V24" t="n">
         <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="n">
-        <v>130</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
         <v>46</v>
@@ -3712,34 +3712,34 @@
         <v>110</v>
       </c>
       <c r="AE24" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI24" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3787,10 +3787,10 @@
         <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
@@ -3922,7 +3922,7 @@
         <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -4006,13 +4006,13 @@
         <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27">
@@ -4048,46 +4048,46 @@
         <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
         <v>1.31</v>
@@ -4096,49 +4096,49 @@
         <v>1.86</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>95</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
@@ -4147,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.76</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>1.32</v>
@@ -4213,22 +4213,22 @@
         <v>1.66</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U28" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V28" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="W28" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4243,22 +4243,22 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC28" t="n">
         <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH28" t="n">
         <v>60</v>
@@ -4270,7 +4270,7 @@
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4282,7 +4282,7 @@
         <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G29" t="n">
         <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I29" t="n">
         <v>2.68</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.42</v>
@@ -4354,16 +4354,16 @@
         <v>3.45</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="n">
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X29" t="n">
         <v>27</v>
@@ -4384,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4477,34 +4477,34 @@
         <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q30" t="n">
         <v>1.59</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S30" t="n">
         <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W30" t="n">
         <v>1.14</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>10.5</v>
@@ -4516,7 +4516,7 @@
         <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
@@ -4531,10 +4531,10 @@
         <v>28</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>290</v>
@@ -4543,16 +4543,16 @@
         <v>95</v>
       </c>
       <c r="AL30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
@@ -4594,7 +4594,7 @@
         <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>4.3</v>
@@ -4606,7 +4606,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.21</v>
@@ -4615,16 +4615,16 @@
         <v>2.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
         <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U31" t="n">
         <v>2.36</v>
@@ -4636,49 +4636,49 @@
         <v>1.89</v>
       </c>
       <c r="X31" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="Y31" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>34</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4720,58 +4720,58 @@
         <v>1.7</v>
       </c>
       <c r="G32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H32" t="n">
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U32" t="n">
         <v>2</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
         <v>19.5</v>
@@ -4780,31 +4780,31 @@
         <v>46</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
         <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
         <v>16.5</v>
@@ -4813,16 +4813,16 @@
         <v>18</v>
       </c>
       <c r="AL32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -4852,61 +4852,61 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H33" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I33" t="n">
         <v>2.46</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
         <v>1.76</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V33" t="n">
         <v>1.69</v>
       </c>
       <c r="W33" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -4918,7 +4918,7 @@
         <v>32</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC33" t="n">
         <v>7.6</v>
@@ -4933,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
         <v>17</v>
@@ -4942,19 +4942,19 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK33" t="n">
         <v>40</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
         <v>21</v>
@@ -4993,16 +4993,16 @@
         <v>1.87</v>
       </c>
       <c r="H34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.8</v>
       </c>
-      <c r="I34" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.4</v>
@@ -5029,13 +5029,13 @@
         <v>3.35</v>
       </c>
       <c r="T34" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W34" t="n">
         <v>2.14</v>
@@ -5074,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ34" t="n">
         <v>21</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="I35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
@@ -5149,85 +5149,85 @@
         <v>4.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S35" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T35" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="X35" t="n">
         <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AA35" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AB35" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI35" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
         <v>32</v>
       </c>
       <c r="AM35" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO35" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G36" t="n">
         <v>8.800000000000001</v>
@@ -5302,7 +5302,7 @@
         <v>1.91</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
         <v>2.84</v>
@@ -5329,10 +5329,10 @@
         <v>42</v>
       </c>
       <c r="AD36" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
@@ -5395,10 +5395,10 @@
         <v>5.9</v>
       </c>
       <c r="G37" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="I37" t="n">
         <v>1.67</v>
@@ -5407,7 +5407,7 @@
         <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.39</v>
@@ -5428,13 +5428,13 @@
         <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S37" t="n">
         <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U37" t="n">
         <v>1.97</v>
@@ -5443,10 +5443,10 @@
         <v>2.48</v>
       </c>
       <c r="W37" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="Y37" t="n">
         <v>8.800000000000001</v>
@@ -5455,31 +5455,31 @@
         <v>10.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AB37" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD37" t="n">
         <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AG37" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AH37" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G38" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H38" t="n">
         <v>2.8</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
@@ -5551,13 +5551,13 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q38" t="n">
         <v>1.89</v>
@@ -5578,7 +5578,7 @@
         <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
         <v>990</v>
@@ -5668,7 +5668,7 @@
         <v>3.35</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I39" t="n">
         <v>2.68</v>
@@ -5710,7 +5710,7 @@
         <v>1.95</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W39" t="n">
         <v>1.42</v>
@@ -5722,7 +5722,7 @@
         <v>9.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA39" t="n">
         <v>46</v>
@@ -5752,13 +5752,13 @@
         <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="n">
         <v>48</v>
       </c>
       <c r="AL39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G40" t="n">
         <v>1.9</v>
@@ -5815,7 +5815,7 @@
         <v>3.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -5830,7 +5830,7 @@
         <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R40" t="n">
         <v>1.32</v>
@@ -5839,7 +5839,7 @@
         <v>3.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U40" t="n">
         <v>1.96</v>
@@ -5893,7 +5893,7 @@
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H41" t="n">
         <v>3.9</v>
@@ -5944,10 +5944,10 @@
         <v>4.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
         <v>1.51</v>
@@ -5971,16 +5971,16 @@
         <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T41" t="n">
         <v>1.98</v>
       </c>
       <c r="U41" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W41" t="n">
         <v>1.79</v>
@@ -5992,7 +5992,7 @@
         <v>14.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
@@ -6001,13 +6001,13 @@
         <v>9.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
         <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="n">
         <v>15.5</v>
@@ -6016,25 +6016,25 @@
         <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK41" t="n">
         <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>
@@ -6067,94 +6067,94 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G42" t="n">
         <v>5.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="I42" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J42" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P42" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="R42" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S42" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T42" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U42" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W42" t="n">
         <v>1.22</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z42" t="n">
         <v>11.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AB42" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD42" t="n">
         <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG42" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="n">
         <v>38</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -6172,7 +6172,7 @@
         <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="43">
@@ -6208,16 +6208,16 @@
         <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I43" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J43" t="n">
         <v>5.3</v>
       </c>
       <c r="K43" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.32</v>
@@ -6229,25 +6229,25 @@
         <v>5.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q43" t="n">
         <v>1.66</v>
       </c>
       <c r="R43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U43" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V43" t="n">
         <v>1.11</v>
@@ -6256,7 +6256,7 @@
         <v>3.4</v>
       </c>
       <c r="X43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y43" t="n">
         <v>34</v>
@@ -6268,7 +6268,7 @@
         <v>310</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC43" t="n">
         <v>12</v>
@@ -6280,7 +6280,7 @@
         <v>130</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG43" t="n">
         <v>10.5</v>
@@ -6295,7 +6295,7 @@
         <v>11.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL43" t="n">
         <v>32</v>
@@ -6304,7 +6304,7 @@
         <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO43" t="n">
         <v>130</v>
@@ -6337,61 +6337,61 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
         <v>4.1</v>
       </c>
-      <c r="G44" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H44" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I44" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P44" t="n">
         <v>1.73</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R44" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T44" t="n">
         <v>2.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W44" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
         <v>7.8</v>
@@ -6400,25 +6400,25 @@
         <v>11.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
         <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH44" t="n">
         <v>21</v>
@@ -6427,22 +6427,22 @@
         <v>48</v>
       </c>
       <c r="AJ44" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL44" t="n">
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
         <v>80</v>
       </c>
       <c r="AO44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G45" t="n">
         <v>2.86</v>
       </c>
-      <c r="G45" t="n">
-        <v>2.88</v>
-      </c>
       <c r="H45" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I45" t="n">
         <v>2.72</v>
@@ -6490,7 +6490,7 @@
         <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6499,7 +6499,7 @@
         <v>4.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
         <v>2.06</v>
@@ -6535,7 +6535,7 @@
         <v>18</v>
       </c>
       <c r="AA45" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="n">
         <v>12.5</v>
@@ -6562,13 +6562,13 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="n">
         <v>28</v>
       </c>
       <c r="AL45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM45" t="n">
         <v>75</v>
@@ -6613,16 +6613,16 @@
         <v>1.27</v>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J46" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K46" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.28</v>
@@ -6631,13 +6631,13 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O46" t="n">
         <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q46" t="n">
         <v>1.55</v>
@@ -6652,10 +6652,10 @@
         <v>2.1</v>
       </c>
       <c r="U46" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W46" t="n">
         <v>4.7</v>
@@ -6676,10 +6676,10 @@
         <v>10</v>
       </c>
       <c r="AC46" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD46" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE46" t="n">
         <v>200</v>
@@ -6688,10 +6688,10 @@
         <v>8</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI46" t="n">
         <v>160</v>
@@ -6706,13 +6706,13 @@
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN46" t="n">
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I47" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.2</v>
       </c>
       <c r="J47" t="n">
         <v>3.75</v>
@@ -6766,10 +6766,10 @@
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P47" t="n">
         <v>2.3</v>
@@ -6781,19 +6781,19 @@
         <v>1.51</v>
       </c>
       <c r="S47" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T47" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U47" t="n">
         <v>2.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W47" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X47" t="n">
         <v>18.5</v>
@@ -6811,13 +6811,13 @@
         <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD47" t="n">
         <v>13</v>
       </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF47" t="n">
         <v>16.5</v>
@@ -6829,7 +6829,7 @@
         <v>14.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ47" t="n">
         <v>32</v>
@@ -6844,7 +6844,7 @@
         <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO47" t="n">
         <v>24</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G48" t="n">
         <v>2.28</v>
       </c>
       <c r="H48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
@@ -6931,13 +6931,13 @@
         <v>1.78</v>
       </c>
       <c r="X48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
@@ -6949,37 +6949,37 @@
         <v>8.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF48" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ48" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AK48" t="n">
         <v>65</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7015,16 +7015,16 @@
         <v>2.06</v>
       </c>
       <c r="G49" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H49" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I49" t="n">
         <v>3.9</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K49" t="n">
         <v>4</v>
@@ -7042,7 +7042,7 @@
         <v>1.26</v>
       </c>
       <c r="P49" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q49" t="n">
         <v>1.79</v>
@@ -7147,64 +7147,64 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G50" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="I50" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P50" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R50" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S50" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T50" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="U50" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V50" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="X50" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="n">
         <v>1000</v>
@@ -7213,10 +7213,10 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
@@ -7225,31 +7225,31 @@
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
         <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
@@ -7285,22 +7285,22 @@
         <v>1.55</v>
       </c>
       <c r="G51" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H51" t="n">
         <v>7.4</v>
       </c>
       <c r="I51" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
         <v>4.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -7315,7 +7315,7 @@
         <v>1.91</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R51" t="n">
         <v>1.34</v>
@@ -7324,25 +7324,25 @@
         <v>3.7</v>
       </c>
       <c r="T51" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U51" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V51" t="n">
         <v>1.14</v>
       </c>
       <c r="W51" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X51" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="AA51" t="n">
         <v>280</v>
@@ -7354,7 +7354,7 @@
         <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AE51" t="n">
         <v>150</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G52" t="n">
         <v>3.3</v>
       </c>
-      <c r="G52" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H52" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I52" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K52" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.55</v>
@@ -7441,37 +7441,37 @@
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O52" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R52" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S52" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T52" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V52" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W52" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X52" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y52" t="n">
         <v>8.4</v>
@@ -7483,13 +7483,13 @@
         <v>38</v>
       </c>
       <c r="AB52" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC52" t="n">
         <v>7</v>
       </c>
       <c r="AD52" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE52" t="n">
         <v>34</v>
@@ -7504,7 +7504,7 @@
         <v>21</v>
       </c>
       <c r="AI52" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ52" t="n">
         <v>60</v>
@@ -7513,16 +7513,16 @@
         <v>46</v>
       </c>
       <c r="AL52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN52" t="n">
         <v>55</v>
       </c>
       <c r="AO52" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H53" t="n">
         <v>4.3</v>
@@ -7570,46 +7570,46 @@
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P53" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U53" t="n">
         <v>2.28</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.36</v>
       </c>
       <c r="V53" t="n">
         <v>1.29</v>
       </c>
       <c r="W53" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X53" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z53" t="n">
         <v>34</v>
@@ -7618,46 +7618,46 @@
         <v>90</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE53" t="n">
         <v>48</v>
       </c>
       <c r="AF53" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
         <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI53" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK53" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM53" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO53" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -7687,112 +7687,112 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G54" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K54" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P54" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="S54" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="U54" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="V54" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W54" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="X54" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z54" t="n">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AA54" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="AB54" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC54" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE54" t="n">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="AF54" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG54" t="n">
         <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL54" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>29</v>
+        <v>7.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="G55" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H55" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J55" t="n">
         <v>3.7</v>
@@ -7849,10 +7849,10 @@
         <v>4.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q55" t="n">
         <v>1.92</v>
@@ -7861,73 +7861,73 @@
         <v>1.39</v>
       </c>
       <c r="S55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T55" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U55" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W55" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="X55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y55" t="n">
         <v>16</v>
       </c>
-      <c r="Y55" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Z55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA55" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC55" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF55" t="n">
         <v>12.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI55" t="n">
         <v>60</v>
       </c>
       <c r="AJ55" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="n">
         <v>34</v>
       </c>
       <c r="AM55" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN55" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -7957,37 +7957,37 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H56" t="n">
         <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J56" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K56" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.42</v>
       </c>
       <c r="M56" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O56" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P56" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q56" t="n">
         <v>1.96</v>
@@ -7999,16 +7999,16 @@
         <v>3.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V56" t="n">
         <v>1.15</v>
       </c>
       <c r="W56" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X56" t="n">
         <v>15</v>
@@ -8020,49 +8020,49 @@
         <v>60</v>
       </c>
       <c r="AA56" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AB56" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC56" t="n">
         <v>9.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE56" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF56" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ56" t="n">
         <v>14.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN56" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO56" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="n">
         <v>2.58</v>
@@ -8101,13 +8101,13 @@
         <v>3.45</v>
       </c>
       <c r="I57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L57" t="n">
         <v>1.54</v>
@@ -8119,13 +8119,13 @@
         <v>3.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P57" t="n">
         <v>1.67</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R57" t="n">
         <v>1.25</v>
@@ -8134,10 +8134,10 @@
         <v>4.7</v>
       </c>
       <c r="T57" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U57" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V57" t="n">
         <v>1.37</v>
@@ -8146,10 +8146,10 @@
         <v>1.63</v>
       </c>
       <c r="X57" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z57" t="n">
         <v>25</v>
@@ -8158,13 +8158,13 @@
         <v>75</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC57" t="n">
         <v>6.8</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE57" t="n">
         <v>55</v>
@@ -8176,7 +8176,7 @@
         <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="n">
         <v>80</v>
@@ -8230,13 +8230,13 @@
         <v>8.6</v>
       </c>
       <c r="G58" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
         <v>1.49</v>
       </c>
       <c r="I58" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J58" t="n">
         <v>4.6</v>
@@ -8254,7 +8254,7 @@
         <v>3.75</v>
       </c>
       <c r="O58" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P58" t="n">
         <v>1.92</v>
@@ -8275,7 +8275,7 @@
         <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="W58" t="n">
         <v>1.12</v>
@@ -8305,25 +8305,25 @@
         <v>17</v>
       </c>
       <c r="AF58" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI58" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ58" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AK58" t="n">
         <v>160</v>
       </c>
       <c r="AL58" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM58" t="n">
         <v>200</v>
@@ -8362,73 +8362,73 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G59" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="H59" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J59" t="n">
         <v>3.45</v>
       </c>
-      <c r="J59" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K59" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L59" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M59" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P59" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S59" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T59" t="n">
         <v>1.87</v>
       </c>
       <c r="U59" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W59" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="X59" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z59" t="n">
         <v>24</v>
       </c>
       <c r="AA59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC59" t="n">
         <v>7.8</v>
@@ -8446,25 +8446,25 @@
         <v>11.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI59" t="n">
         <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK59" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL59" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM59" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO59" t="n">
         <v>44</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>1.82</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AH3" t="n">
         <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -940,106 +940,106 @@
         <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1132,52 +1132,52 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN5" t="n">
         <v>42</v>
       </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.7</v>
@@ -1237,31 +1237,31 @@
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1285,13 +1285,13 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
@@ -1390,52 +1390,52 @@
         <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF7" t="n">
         <v>27</v>
       </c>
-      <c r="AF7" t="n">
-        <v>24</v>
-      </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1480,70 +1480,70 @@
         <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
         <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1552,37 +1552,37 @@
         <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I9" t="n">
         <v>1.63</v>
@@ -1630,7 +1630,7 @@
         <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1642,22 +1642,22 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
         <v>2.58</v>
@@ -1666,10 +1666,10 @@
         <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
         <v>10.5</v>
@@ -1681,10 +1681,10 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1693,10 +1693,10 @@
         <v>46</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
@@ -1708,7 +1708,7 @@
         <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
         <v>90</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1765,49 +1765,49 @@
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
@@ -1816,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1825,31 +1825,31 @@
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>21</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
         <v>3.15</v>
@@ -2047,16 +2047,16 @@
         <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R12" t="n">
         <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="T12" t="n">
         <v>2.1</v>
@@ -2065,13 +2065,13 @@
         <v>1.76</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
@@ -2152,109 +2152,109 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
+        <v>13</v>
+      </c>
+      <c r="I13" t="n">
         <v>14.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
       <c r="J13" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
         <v>2.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AE13" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,10 +2290,10 @@
         <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
         <v>20</v>
@@ -2302,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
@@ -2311,34 +2311,34 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q14" t="n">
         <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T14" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X14" t="n">
         <v>990</v>
@@ -2356,16 +2356,16 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
         <v>2.16</v>
@@ -2461,34 +2461,34 @@
         <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
@@ -2497,25 +2497,25 @@
         <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="n">
         <v>50</v>
@@ -2527,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.98</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
         <v>3.35</v>
@@ -2587,7 +2587,7 @@
         <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
         <v>2.4</v>
@@ -2602,37 +2602,37 @@
         <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
         <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
@@ -2641,10 +2641,10 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -2653,13 +2653,13 @@
         <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
         <v>110</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.15</v>
@@ -2722,10 +2722,10 @@
         <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2737,25 +2737,25 @@
         <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="n">
         <v>7.2</v>
@@ -2764,7 +2764,7 @@
         <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
         <v>70</v>
@@ -2794,10 +2794,10 @@
         <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
         <v>290</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G19" t="n">
         <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>3.4</v>
@@ -2980,7 +2980,7 @@
         <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -3004,7 +3004,7 @@
         <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
@@ -3016,7 +3016,7 @@
         <v>1.59</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G20" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -3133,10 +3133,10 @@
         <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
@@ -3148,34 +3148,34 @@
         <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
         <v>120</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC20" t="n">
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -3184,13 +3184,13 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ20" t="n">
         <v>22</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
         <v>44</v>
@@ -3199,10 +3199,10 @@
         <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G21" t="n">
         <v>5.5</v>
       </c>
-      <c r="G21" t="n">
-        <v>5.6</v>
-      </c>
       <c r="H21" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3265,7 +3265,7 @@
         <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
         <v>1.25</v>
@@ -3277,13 +3277,13 @@
         <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -3328,10 +3328,10 @@
         <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
         <v>140</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3391,13 +3391,13 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q22" t="n">
         <v>2.02</v>
@@ -3409,16 +3409,16 @@
         <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
         <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -3427,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
         <v>75</v>
@@ -3439,13 +3439,13 @@
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3457,22 +3457,22 @@
         <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G23" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.6</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
         <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
         <v>90</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
         <v>14</v>
@@ -3586,19 +3586,19 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
         <v>65</v>
       </c>
-      <c r="AK23" t="n">
-        <v>34</v>
-      </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3640,19 +3640,19 @@
         <v>1.11</v>
       </c>
       <c r="G24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H24" t="n">
         <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.18</v>
@@ -3661,25 +3661,25 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T24" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
         <v>1.81</v>
@@ -3688,58 +3688,58 @@
         <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Y24" t="n">
         <v>990</v>
       </c>
       <c r="Z24" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="AE24" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK24" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
         <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -3805,7 +3805,7 @@
         <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
@@ -3823,7 +3823,7 @@
         <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="H26" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>530</v>
       </c>
     </row>
     <row r="27">
@@ -4045,64 +4045,64 @@
         <v>1.96</v>
       </c>
       <c r="G27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P27" t="n">
         <v>2.16</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.12</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V27" t="n">
         <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Z27" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -4111,7 +4111,7 @@
         <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>17</v>
@@ -4126,28 +4126,28 @@
         <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
         <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G28" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4204,31 +4204,31 @@
         <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
         <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R28" t="n">
         <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="W28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4261,16 +4261,16 @@
         <v>25</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G29" t="n">
         <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.42</v>
@@ -4336,10 +4336,10 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>1.87</v>
@@ -4357,46 +4357,46 @@
         <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V29" t="n">
         <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
         <v>19</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>990</v>
       </c>
       <c r="AC29" t="n">
         <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4405,7 +4405,7 @@
         <v>240</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="I30" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="J30" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="V30" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC30" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>290</v>
+        <v>990</v>
       </c>
       <c r="AK30" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="31">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
         <v>4.3</v>
@@ -4606,40 +4606,40 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O31" t="n">
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S31" t="n">
         <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U31" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W31" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
         <v>48</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="Z31" t="n">
         <v>85</v>
@@ -4651,10 +4651,10 @@
         <v>22</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AE31" t="n">
         <v>90</v>
@@ -4663,19 +4663,19 @@
         <v>32</v>
       </c>
       <c r="AG31" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
         <v>80</v>
@@ -4687,7 +4687,7 @@
         <v>34</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G32" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="H32" t="n">
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S32" t="n">
         <v>4.1</v>
       </c>
-      <c r="L32" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.3</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
         <v>46</v>
       </c>
       <c r="AA32" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC32" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC32" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE32" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
         <v>16.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.35</v>
       </c>
-      <c r="G33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N33" t="n">
         <v>3.3</v>
       </c>
-      <c r="K33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.9</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P33" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG33" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
         <v>65</v>
       </c>
-      <c r="AK33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>50</v>
-      </c>
       <c r="AM33" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -4993,16 +4993,16 @@
         <v>1.87</v>
       </c>
       <c r="H34" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I34" t="n">
         <v>4.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>1.4</v>
@@ -5011,28 +5011,28 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R34" t="n">
         <v>1.39</v>
       </c>
       <c r="S34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
         <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V34" t="n">
         <v>1.26</v>
@@ -5044,7 +5044,7 @@
         <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z34" t="n">
         <v>36</v>
@@ -5065,7 +5065,7 @@
         <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
         <v>9.6</v>
@@ -5074,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
         <v>21</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="H35" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
@@ -5164,19 +5164,19 @@
         <v>2.64</v>
       </c>
       <c r="T35" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="W35" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y35" t="n">
         <v>17</v>
@@ -5185,16 +5185,16 @@
         <v>42</v>
       </c>
       <c r="AA35" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC35" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
         <v>34</v>
@@ -5212,10 +5212,10 @@
         <v>65</v>
       </c>
       <c r="AJ35" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
         <v>32</v>
@@ -5227,7 +5227,7 @@
         <v>14</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -5284,25 +5284,25 @@
         <v>4.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S36" t="n">
         <v>2.88</v>
       </c>
       <c r="T36" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
         <v>2.84</v>
@@ -5311,10 +5311,10 @@
         <v>1.13</v>
       </c>
       <c r="X36" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y36" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5329,16 +5329,16 @@
         <v>42</v>
       </c>
       <c r="AD36" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -5395,19 +5395,19 @@
         <v>5.9</v>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="I37" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J37" t="n">
         <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.39</v>
@@ -5434,25 +5434,25 @@
         <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U37" t="n">
         <v>1.97</v>
       </c>
       <c r="V37" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W37" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X37" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AA37" t="n">
         <v>30</v>
@@ -5527,43 +5527,43 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G38" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="n">
         <v>3.25</v>
@@ -5572,16 +5572,16 @@
         <v>1.69</v>
       </c>
       <c r="U38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V38" t="n">
         <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X38" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
         <v>24</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
         <v>14</v>
@@ -5602,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="AE38" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
         <v>1000</v>
@@ -5665,13 +5665,13 @@
         <v>3.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I39" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J39" t="n">
         <v>3.15</v>
@@ -5701,16 +5701,16 @@
         <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W39" t="n">
         <v>1.42</v>
@@ -5719,13 +5719,13 @@
         <v>11.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z39" t="n">
         <v>16.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
@@ -5737,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF39" t="n">
         <v>22</v>
@@ -5746,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
         <v>55</v>
@@ -5755,19 +5755,19 @@
         <v>100</v>
       </c>
       <c r="AK39" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5797,67 +5797,67 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L40" t="n">
         <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
         <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
         <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R40" t="n">
         <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V40" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="X40" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y40" t="n">
         <v>18.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF40" t="n">
         <v>13.5</v>
@@ -5887,19 +5887,19 @@
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AK40" t="n">
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,25 +5932,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G41" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H41" t="n">
         <v>3.9</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
         <v>3.55</v>
       </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -5959,13 +5959,13 @@
         <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P41" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
@@ -5974,19 +5974,19 @@
         <v>4.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W41" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
         <v>14.5</v>
@@ -5998,16 +5998,16 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC41" t="n">
         <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AF41" t="n">
         <v>15.5</v>
@@ -6019,7 +6019,7 @@
         <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ41" t="n">
         <v>34</v>
@@ -6070,13 +6070,13 @@
         <v>4.8</v>
       </c>
       <c r="G42" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H42" t="n">
         <v>1.72</v>
       </c>
       <c r="I42" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -6094,28 +6094,28 @@
         <v>4.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P42" t="n">
         <v>2.14</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R42" t="n">
         <v>1.44</v>
       </c>
       <c r="S42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U42" t="n">
         <v>2.12</v>
       </c>
       <c r="V42" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W42" t="n">
         <v>1.22</v>
@@ -6124,7 +6124,7 @@
         <v>19.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z42" t="n">
         <v>11.5</v>
@@ -6133,19 +6133,19 @@
         <v>32</v>
       </c>
       <c r="AB42" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="n">
         <v>42</v>
@@ -6154,7 +6154,7 @@
         <v>38</v>
       </c>
       <c r="AI42" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -6169,10 +6169,10 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="43">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G43" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>9.6</v>
@@ -6214,70 +6214,70 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="T43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U43" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V43" t="n">
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y43" t="n">
         <v>34</v>
       </c>
       <c r="Z43" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA43" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC43" t="n">
         <v>12</v>
       </c>
       <c r="AD43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE43" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF43" t="n">
         <v>8.800000000000001</v>
@@ -6304,7 +6304,7 @@
         <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO43" t="n">
         <v>130</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G44" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H44" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.52</v>
@@ -6361,37 +6361,37 @@
         <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P44" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T44" t="n">
         <v>2.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V44" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="W44" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y44" t="n">
         <v>7.8</v>
@@ -6400,13 +6400,13 @@
         <v>11.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD44" t="n">
         <v>11</v>
@@ -6415,10 +6415,10 @@
         <v>26</v>
       </c>
       <c r="AF44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH44" t="n">
         <v>21</v>
@@ -6427,7 +6427,7 @@
         <v>48</v>
       </c>
       <c r="AJ44" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="n">
         <v>55</v>
@@ -6439,7 +6439,7 @@
         <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO44" t="n">
         <v>22</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G45" t="n">
         <v>2.84</v>
       </c>
-      <c r="G45" t="n">
-        <v>2.86</v>
-      </c>
       <c r="H45" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I45" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6502,31 +6502,31 @@
         <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T45" t="n">
         <v>1.71</v>
       </c>
       <c r="U45" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V45" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W45" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y45" t="n">
         <v>12</v>
@@ -6559,7 +6559,7 @@
         <v>15.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ45" t="n">
         <v>42</v>
@@ -6574,7 +6574,7 @@
         <v>75</v>
       </c>
       <c r="AN45" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO45" t="n">
         <v>22</v>
@@ -6643,10 +6643,10 @@
         <v>1.55</v>
       </c>
       <c r="R46" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S46" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T46" t="n">
         <v>2.1</v>
@@ -6664,7 +6664,7 @@
         <v>32</v>
       </c>
       <c r="Y46" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z46" t="n">
         <v>130</v>
@@ -6679,7 +6679,7 @@
         <v>16</v>
       </c>
       <c r="AD46" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE46" t="n">
         <v>200</v>
@@ -6688,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
         <v>34</v>
@@ -6712,7 +6712,7 @@
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
@@ -6748,10 +6748,10 @@
         <v>2.42</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J47" t="n">
         <v>3.75</v>
@@ -6760,16 +6760,16 @@
         <v>3.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
         <v>2.3</v>
@@ -6778,25 +6778,25 @@
         <v>1.75</v>
       </c>
       <c r="R47" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S47" t="n">
         <v>2.88</v>
       </c>
       <c r="T47" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U47" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V47" t="n">
         <v>1.46</v>
       </c>
       <c r="W47" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X47" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="n">
         <v>15.5</v>
@@ -6811,10 +6811,10 @@
         <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE47" t="n">
         <v>30</v>
@@ -6844,10 +6844,10 @@
         <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -6877,61 +6877,61 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G48" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
         <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
         <v>1.37</v>
       </c>
-      <c r="S48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W48" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X48" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y48" t="n">
         <v>21</v>
@@ -6943,10 +6943,10 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
         <v>24</v>
@@ -6955,10 +6955,10 @@
         <v>170</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG48" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH48" t="n">
         <v>25</v>
@@ -6967,7 +6967,7 @@
         <v>250</v>
       </c>
       <c r="AJ48" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="n">
         <v>65</v>
@@ -6982,7 +6982,7 @@
         <v>36</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49">
@@ -7018,7 +7018,7 @@
         <v>2.18</v>
       </c>
       <c r="H49" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I49" t="n">
         <v>3.9</v>
@@ -7054,7 +7054,7 @@
         <v>2.98</v>
       </c>
       <c r="T49" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U49" t="n">
         <v>2.24</v>
@@ -7147,61 +7147,61 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="G50" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="H50" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="I50" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L50" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M50" t="n">
         <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O50" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P50" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R50" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S50" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T50" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="U50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V50" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="X50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y50" t="n">
         <v>38</v>
@@ -7213,34 +7213,34 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL50" t="n">
         <v>1000</v>
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G51" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>7.4</v>
       </c>
       <c r="I51" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L51" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P51" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R51" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S51" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T51" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U51" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V51" t="n">
         <v>1.14</v>
       </c>
       <c r="W51" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="X51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z51" t="n">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AA51" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE51" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF51" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG51" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI51" t="n">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="AJ51" t="n">
         <v>14.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL51" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM51" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52">
@@ -7420,13 +7420,13 @@
         <v>3.25</v>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H52" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I52" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J52" t="n">
         <v>3.1</v>
@@ -7435,64 +7435,64 @@
         <v>3.15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="M52" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="T52" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U52" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V52" t="n">
         <v>1.6</v>
       </c>
       <c r="W52" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X52" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z52" t="n">
         <v>15</v>
       </c>
       <c r="AA52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD52" t="n">
         <v>12.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF52" t="n">
         <v>19.5</v>
@@ -7501,7 +7501,7 @@
         <v>15</v>
       </c>
       <c r="AH52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI52" t="n">
         <v>60</v>
@@ -7510,19 +7510,19 @@
         <v>60</v>
       </c>
       <c r="AK52" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL52" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM52" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO52" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -7582,22 +7582,22 @@
         <v>1.27</v>
       </c>
       <c r="P53" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R53" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S53" t="n">
         <v>3.05</v>
       </c>
       <c r="T53" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U53" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V53" t="n">
         <v>1.29</v>
@@ -7606,10 +7606,10 @@
         <v>2.08</v>
       </c>
       <c r="X53" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z53" t="n">
         <v>34</v>
@@ -7621,7 +7621,7 @@
         <v>10.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD53" t="n">
         <v>17</v>
@@ -7633,16 +7633,16 @@
         <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH53" t="n">
         <v>17</v>
       </c>
       <c r="AI53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK53" t="n">
         <v>17.5</v>
@@ -7687,85 +7687,85 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.49</v>
       </c>
-      <c r="G54" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N54" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N54" t="n">
-        <v>4.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.26</v>
       </c>
       <c r="P54" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q54" t="n">
         <v>1.79</v>
       </c>
       <c r="R54" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S54" t="n">
         <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U54" t="n">
         <v>1.9</v>
       </c>
       <c r="V54" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z54" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="AA54" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="AB54" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE54" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG54" t="n">
         <v>11</v>
@@ -7774,13 +7774,13 @@
         <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AJ54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL54" t="n">
         <v>38</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="G55" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="I55" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L55" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M55" t="n">
         <v>1.06</v>
@@ -7855,79 +7855,79 @@
         <v>2.02</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R55" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S55" t="n">
         <v>3.35</v>
       </c>
       <c r="T55" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U55" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V55" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="W55" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="X55" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z55" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA55" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AE55" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AF55" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI55" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ55" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM55" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AN55" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G56" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I56" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
         <v>4.3</v>
@@ -7975,64 +7975,64 @@
         <v>4.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q56" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q56" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R56" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S56" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U56" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V56" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W56" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y56" t="n">
         <v>23</v>
       </c>
       <c r="Z56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA56" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AB56" t="n">
         <v>7.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE56" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF56" t="n">
         <v>8.800000000000001</v>
@@ -8041,28 +8041,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI56" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AJ56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK56" t="n">
         <v>17</v>
       </c>
       <c r="AL56" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN56" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO56" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57">
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G57" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H57" t="n">
         <v>3.45</v>
@@ -8104,7 +8104,7 @@
         <v>3.65</v>
       </c>
       <c r="J57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
         <v>3.15</v>
@@ -8119,13 +8119,13 @@
         <v>3.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P57" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R57" t="n">
         <v>1.25</v>
@@ -8134,16 +8134,16 @@
         <v>4.7</v>
       </c>
       <c r="T57" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U57" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V57" t="n">
         <v>1.37</v>
       </c>
       <c r="W57" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X57" t="n">
         <v>9.800000000000001</v>
@@ -8236,7 +8236,7 @@
         <v>1.49</v>
       </c>
       <c r="I58" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J58" t="n">
         <v>4.6</v>
@@ -8245,7 +8245,7 @@
         <v>4.7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
@@ -8260,13 +8260,13 @@
         <v>1.92</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R58" t="n">
         <v>1.35</v>
       </c>
       <c r="S58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T58" t="n">
         <v>2.22</v>
@@ -8275,7 +8275,7 @@
         <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
         <v>1.12</v>
@@ -8284,7 +8284,7 @@
         <v>14.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z58" t="n">
         <v>7.8</v>
@@ -8302,7 +8302,7 @@
         <v>10</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF58" t="n">
         <v>75</v>
@@ -8314,7 +8314,7 @@
         <v>30</v>
       </c>
       <c r="AI58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ58" t="n">
         <v>330</v>
@@ -8368,19 +8368,19 @@
         <v>2.34</v>
       </c>
       <c r="H59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J59" t="n">
         <v>3.45</v>
       </c>
       <c r="K59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
@@ -8389,25 +8389,25 @@
         <v>3.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R59" t="n">
         <v>1.33</v>
       </c>
       <c r="S59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V59" t="n">
         <v>1.38</v>
@@ -8524,7 +8524,7 @@
         <v>1.34</v>
       </c>
       <c r="O60" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P60" t="n">
         <v>1.34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,531 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.199999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.27</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.28</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.99</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>65</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.26</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-27</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pisa</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>490</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Alverca</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-27</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -670,97 +670,97 @@
         <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK2" t="n">
         <v>19</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
@@ -772,7 +772,7 @@
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-27.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>950</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>5.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>26</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>2.46</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>690</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
